--- a/src/main/resources/XMU/template/Order.xlsx
+++ b/src/main/resources/XMU/template/Order.xlsx
@@ -376,20 +376,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="SheetJS"/>
-  <dimension ref="A1:L200"/>
+  <dimension ref="A1:L201"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="6.83203125" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" customWidth="1"/>
-    <col min="4" max="4" width="207.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="144.83203125" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" customWidth="1"/>
     <col min="8" max="8" width="8.83203125" customWidth="1"/>
-    <col min="9" max="9" width="5.83203125" customWidth="1"/>
+    <col min="9" max="9" width="6.83203125" customWidth="1"/>
     <col min="10" max="10" width="8.83203125" customWidth="1"/>
     <col min="11" max="11" width="8.83203125" customWidth="1"/>
     <col min="12" max="12" width="24.83203125" customWidth="1"/>
@@ -435,949 +435,949 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>PO202104121646355216</v>
+        <v>PO202111261508133819</v>
       </c>
       <c r="B2" t="str">
-        <v>孙祥</v>
+        <v>余娴文</v>
       </c>
       <c r="C2" t="str">
-        <v>RG00986-鄢晓晖</v>
+        <v>RG00802-余娴文</v>
       </c>
       <c r="D2" t="str">
-        <v>3-巯基丙酸3-Mercaptopropionic acid =99%</v>
+        <v>γ-微管蛋白单克隆抗体 小鼠抗ANTI-Γ-TUBULIN ANTIBODY, MOUSE MONOCLON&amp;amp;</v>
       </c>
       <c r="E2" t="str">
-        <v>TM210426-0307</v>
+        <v>TM211201-0258</v>
       </c>
       <c r="F2" t="str">
-        <v>M5801-100G</v>
+        <v>T5326-25UL</v>
       </c>
       <c r="G2" t="str">
-        <v>100G</v>
+        <v>25.000MG</v>
       </c>
       <c r="H2" t="str">
-        <v>335.08</v>
+        <v>1420.92</v>
       </c>
       <c r="I2" t="str">
         <v>1.00</v>
       </c>
       <c r="J2" t="str">
-        <v>335.08</v>
+        <v>1420.92</v>
       </c>
       <c r="K2" t="str">
         <v>EA</v>
       </c>
       <c r="L2" t="str">
-        <v/>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>PO202101281049201817</v>
+        <v>PO202203061858086555</v>
       </c>
       <c r="B3" t="str">
-        <v>封丽霞</v>
+        <v>参丹</v>
       </c>
       <c r="C3" t="str">
-        <v>RG00950-张现忠</v>
+        <v>RG01092-张杰</v>
       </c>
       <c r="D3" t="str">
-        <v>1,8-二氮杂双环[5.4.0]十一碳-7-烯1,8-Diazabicyclo[5.4.0]undec-7-ene</v>
+        <v>Trizma ? 碱TRIZMA(R) BASE, VETEC</v>
       </c>
       <c r="E3" t="str">
-        <v>TM210225-0252</v>
+        <v>TM220705-0112</v>
       </c>
       <c r="F3" t="str">
-        <v>139009-25G</v>
+        <v>V900483-5KG</v>
       </c>
       <c r="G3" t="str">
-        <v>25G</v>
+        <v>5.000KG</v>
       </c>
       <c r="H3" t="str">
-        <v>227.57</v>
+        <v>1080.15</v>
       </c>
       <c r="I3" t="str">
-        <v>1.00</v>
+        <v>3.00</v>
       </c>
       <c r="J3" t="str">
-        <v>227.57</v>
+        <v>3240.45</v>
       </c>
       <c r="K3" t="str">
-        <v>G</v>
+        <v>KG</v>
       </c>
       <c r="L3" t="str">
-        <v>与官网同步</v>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>PO202102220944582911</v>
+        <v>PO202203061858086555</v>
       </c>
       <c r="B4" t="str">
-        <v>刘鑫源</v>
+        <v>参丹</v>
       </c>
       <c r="C4" t="str">
-        <v>RG00747-洪文晶</v>
+        <v>RG01092-张杰</v>
       </c>
       <c r="D4" t="str">
-        <v>Mesitylene</v>
+        <v>氯化铵AMMONIUM CHLORIDE, ACS REAGENT, =99.5%</v>
       </c>
       <c r="E4" t="str">
-        <v>TM210225-0207</v>
+        <v>TM220705-0112</v>
       </c>
       <c r="F4" t="str">
-        <v>M7200-500ML</v>
+        <v>213330-25G</v>
       </c>
       <c r="G4" t="str">
-        <v>500ML</v>
+        <v>25.000G</v>
       </c>
       <c r="H4" t="str">
-        <v>705.03</v>
+        <v>374.80</v>
       </c>
       <c r="I4" t="str">
-        <v>3.00</v>
+        <v>1.00</v>
       </c>
       <c r="J4" t="str">
-        <v>2115.09</v>
+        <v>374.80</v>
       </c>
       <c r="K4" t="str">
-        <v>ML</v>
+        <v>G</v>
       </c>
       <c r="L4" t="str">
-        <v>与官网同步</v>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>PO202012031608387311</v>
+        <v>PO202201191040284616</v>
       </c>
       <c r="B5" t="str">
-        <v>谭元植</v>
+        <v>林文芳</v>
       </c>
       <c r="C5" t="str">
-        <v>RG01360-谭元植</v>
+        <v>RG00946-史大林</v>
       </c>
       <c r="D5" t="str">
-        <v>1,2-Dipalmitoyl-rac-glycero-3-phosphocholine ~99%</v>
+        <v>5-（4,6-二氯三嗪-2-基氨基）荧光素 盐酸盐5-((4,6-DICHLOROTRIAZIN-2-YL)AMINO)</v>
       </c>
       <c r="E5" t="str">
-        <v>TM210128-0405</v>
+        <v>TM220714-0321</v>
       </c>
       <c r="F5" t="str">
-        <v>P5911-250MG</v>
+        <v>D0531-100MG</v>
       </c>
       <c r="G5" t="str">
-        <v>250MG</v>
+        <v>100.000MG</v>
       </c>
       <c r="H5" t="str">
-        <v>892.57</v>
+        <v>991.80</v>
       </c>
       <c r="I5" t="str">
         <v>1.00</v>
       </c>
       <c r="J5" t="str">
-        <v>892.57</v>
+        <v>991.80</v>
       </c>
       <c r="K5" t="str">
-        <v>EA</v>
+        <v>MG</v>
       </c>
       <c r="L5" t="str">
-        <v/>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>PO202102020925220315</v>
+        <v>PO202201071609338710</v>
       </c>
       <c r="B6" t="str">
-        <v>何琪</v>
+        <v>吴素琴</v>
       </c>
       <c r="C6" t="str">
-        <v>RG00889-吴晓男</v>
+        <v>RG01387-吴素琴</v>
       </c>
       <c r="D6" t="str">
-        <v>Paraffin wax</v>
+        <v>矿物油MINERAL OIL SUITABLE FOR MOUSE EMBRYO C&amp;</v>
       </c>
       <c r="E6" t="str">
-        <v>TM210225-0235</v>
+        <v>TM220704-0454</v>
       </c>
       <c r="F6" t="str">
-        <v>411663-1KG</v>
+        <v>M8410-1L</v>
       </c>
       <c r="G6" t="str">
-        <v>1KG</v>
+        <v>0.840KG</v>
       </c>
       <c r="H6" t="str">
-        <v>462.14</v>
+        <v>433.31</v>
       </c>
       <c r="I6" t="str">
-        <v>1.00</v>
+        <v>20.00</v>
       </c>
       <c r="J6" t="str">
-        <v>462.14</v>
+        <v>8666.20</v>
       </c>
       <c r="K6" t="str">
-        <v>KG</v>
+        <v>L</v>
       </c>
       <c r="L6" t="str">
-        <v>与官网同步</v>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>PO202102220944582911</v>
+        <v>PO202203181144310716</v>
       </c>
       <c r="B7" t="str">
-        <v>刘鑫源</v>
+        <v>沈聪</v>
       </c>
       <c r="C7" t="str">
-        <v>RG00747-洪文晶</v>
+        <v>RG01253-谢兆雄</v>
       </c>
       <c r="D7" t="str">
-        <v>四氢呋喃Tetrahydrofuran</v>
+        <v>对苯二酚HYDROQUINONE, REAGENTPLUS(TM), 99 %</v>
       </c>
       <c r="E7" t="str">
-        <v>TM210225-0207</v>
+        <v>TM220716-0177</v>
       </c>
       <c r="F7" t="str">
-        <v>34865-1L</v>
+        <v>H17902-100G</v>
       </c>
       <c r="G7" t="str">
-        <v>1L</v>
+        <v>100.000G</v>
       </c>
       <c r="H7" t="str">
-        <v>1448.37</v>
+        <v>340.50</v>
       </c>
       <c r="I7" t="str">
         <v>1.00</v>
       </c>
       <c r="J7" t="str">
-        <v>1448.37</v>
+        <v>340.50</v>
       </c>
       <c r="K7" t="str">
-        <v>L</v>
+        <v>G</v>
       </c>
       <c r="L7" t="str">
-        <v>与官网同步</v>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>PO202011220714214427</v>
+        <v>PO202203231724001514</v>
       </c>
       <c r="B8" t="str">
-        <v>王晓</v>
+        <v>吴丽雯</v>
       </c>
       <c r="C8" t="str">
-        <v>RG01111-刘向阳</v>
+        <v>RG02139-方宁</v>
       </c>
       <c r="D8" t="str">
-        <v>聚(四氢呋喃)Poly(tetrahydrofuran) average Mn ~250</v>
+        <v>Corning? 盖玻片CORNING(R) COVER GLASS, NO. 1 1/2, BORO&amp;</v>
       </c>
       <c r="E8" t="str">
-        <v>TM210128-0247</v>
+        <v>TM220713-0503</v>
       </c>
       <c r="F8" t="str">
-        <v>345261-25ML</v>
+        <v>CLS285022-2000EA</v>
       </c>
       <c r="G8" t="str">
-        <v>25ML</v>
+        <v>2000.000G</v>
       </c>
       <c r="H8" t="str">
-        <v>564.41</v>
+        <v>601.87</v>
       </c>
       <c r="I8" t="str">
         <v>1.00</v>
       </c>
       <c r="J8" t="str">
-        <v>564.41</v>
+        <v>601.87</v>
       </c>
       <c r="K8" t="str">
         <v>EA</v>
       </c>
       <c r="L8" t="str">
-        <v/>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>PO202012091426188610</v>
+        <v>PO202203231724001514</v>
       </c>
       <c r="B9" t="str">
-        <v>黄路梅</v>
+        <v>吴丽雯</v>
       </c>
       <c r="C9" t="str">
-        <v>RG00950-张现忠</v>
+        <v>RG02139-方宁</v>
       </c>
       <c r="D9" t="str">
-        <v>过氧化氢酶Catalase from bovine liver powder, suitable for cell culture, 2,000-5,000 units/mg protein</v>
+        <v>Corning? 盖玻片CORNING(R) COVER GLASS, NO. 1 1/2, BORO&amp;</v>
       </c>
       <c r="E9" t="str">
-        <v>TM210128-0177</v>
+        <v>TM220713-0501</v>
       </c>
       <c r="F9" t="str">
-        <v>C1345-1G</v>
+        <v>CLS2980225-1000EA</v>
       </c>
       <c r="G9" t="str">
-        <v>1G</v>
+        <v>1000.000G</v>
       </c>
       <c r="H9" t="str">
-        <v>263.86</v>
+        <v>2363.52</v>
       </c>
       <c r="I9" t="str">
         <v>1.00</v>
       </c>
       <c r="J9" t="str">
-        <v>263.86</v>
+        <v>2363.52</v>
       </c>
       <c r="K9" t="str">
         <v>EA</v>
       </c>
       <c r="L9" t="str">
-        <v/>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>PO202104261319579313</v>
+        <v>PO202203231724001514</v>
       </c>
       <c r="B10" t="str">
-        <v>范聪</v>
+        <v>吴丽雯</v>
       </c>
       <c r="C10" t="str">
-        <v>RG00732-袁吉锋</v>
+        <v>RG02139-方宁</v>
       </c>
       <c r="D10" t="str">
-        <v>(±)-甲基苯丙胺标准液(+/-)-Methamphetamine solution</v>
+        <v>Corning? 盖玻片CORNING(R) COVER GLASS, NO. 1 1/2, BORO&amp;</v>
       </c>
       <c r="E10" t="str">
-        <v>TM210517-0823</v>
+        <v>TM220713-0501</v>
       </c>
       <c r="F10" t="str">
-        <v>M-009-1ML</v>
+        <v>CLS285018-2000EA</v>
       </c>
       <c r="G10" t="str">
-        <v>1ML</v>
+        <v>2000.000G</v>
       </c>
       <c r="H10" t="str">
-        <v>226.93</v>
+        <v>520.22</v>
       </c>
       <c r="I10" t="str">
         <v>1.00</v>
       </c>
       <c r="J10" t="str">
-        <v>226.93</v>
+        <v>520.22</v>
       </c>
       <c r="K10" t="str">
-        <v>ML</v>
+        <v>EA</v>
       </c>
       <c r="L10" t="str">
-        <v>与官网同步</v>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>PO202012161958431812</v>
+        <v>PO202202251512082717</v>
       </c>
       <c r="B11" t="str">
-        <v>张哲</v>
+        <v>杨玲</v>
       </c>
       <c r="C11" t="str">
-        <v>RG00950-张现忠</v>
+        <v>RG01156-邓小玲</v>
       </c>
       <c r="D11" t="str">
-        <v>Guanosine 5-[beta,gamma-imido]triphosphate trisodium salt hydrate =85% (HPLC), powder</v>
+        <v>Immobilon-P PVDF 膜Immobilon-P 26.5 x 3.75m Roll PVDF .45um</v>
       </c>
       <c r="E11" t="str">
-        <v>TM210104-0011</v>
+        <v>TM220714-0131</v>
       </c>
       <c r="F11" t="str">
-        <v>G0635-5MG</v>
+        <v>IPVH00010</v>
       </c>
       <c r="G11" t="str">
-        <v>5MG</v>
+        <v>435.200G</v>
       </c>
       <c r="H11" t="str">
-        <v>1217.97</v>
+        <v>1737.38</v>
       </c>
       <c r="I11" t="str">
         <v>1.00</v>
       </c>
       <c r="J11" t="str">
-        <v>1217.97</v>
+        <v>1737.38</v>
       </c>
       <c r="K11" t="str">
         <v>EA</v>
       </c>
       <c r="L11" t="str">
-        <v/>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>PO202102251113422254</v>
+        <v>PO202203081104186919</v>
       </c>
       <c r="B12" t="str">
-        <v>刘璐</v>
+        <v>张伊婷</v>
       </c>
       <c r="C12" t="str">
-        <v>RG01291-郑强</v>
+        <v>RG01681-于鑫</v>
       </c>
       <c r="D12" t="str">
-        <v>甲醇Methanol</v>
+        <v>碳酸钾POTASSIUM CARBONATE, VETEC</v>
       </c>
       <c r="E12" t="str">
-        <v>TM210325-0179</v>
+        <v>TM220325-0228</v>
       </c>
       <c r="F12" t="str">
-        <v>34860-1L-R</v>
+        <v>V900112-500G</v>
       </c>
       <c r="G12" t="str">
-        <v>1L</v>
+        <v>500.000G</v>
       </c>
       <c r="H12" t="str">
-        <v>173.70</v>
+        <v>165.23</v>
       </c>
       <c r="I12" t="str">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="J12" t="str">
-        <v>347.40</v>
+        <v>165.23</v>
       </c>
       <c r="K12" t="str">
-        <v>L</v>
+        <v>G</v>
       </c>
       <c r="L12" t="str">
-        <v>与官网同步</v>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>PO202104260535550119</v>
+        <v>PO202204181038559110</v>
       </c>
       <c r="B13" t="str">
-        <v>欧阳聪</v>
+        <v>黄香菇</v>
       </c>
       <c r="C13" t="str">
-        <v>RG00724-李勤喜</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D13" t="str">
-        <v>Diethyl oxalacetate sodium salt</v>
+        <v>X-tremeGENESUP?/SUP HP DNA转染试剂X-tremeGENE(TM) HP DNA Transfection Reagent</v>
       </c>
       <c r="E13" t="str">
-        <v>TM210517-0821</v>
+        <v>TM220620-0298</v>
       </c>
       <c r="F13" t="str">
-        <v>171263-100G</v>
+        <v>6366546001</v>
       </c>
       <c r="G13" t="str">
-        <v>100G</v>
+        <v>1EA</v>
       </c>
       <c r="H13" t="str">
-        <v>370.75</v>
+        <v>24743.44</v>
       </c>
       <c r="I13" t="str">
         <v>1.00</v>
       </c>
       <c r="J13" t="str">
-        <v>370.75</v>
+        <v>24743.44</v>
       </c>
       <c r="K13" t="str">
-        <v>G</v>
+        <v>EA</v>
       </c>
       <c r="L13" t="str">
-        <v>与官网同步</v>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>PO202012190954033116</v>
+        <v>PO202203281634552411</v>
       </c>
       <c r="B14" t="str">
-        <v>王世珍</v>
+        <v>陈福</v>
       </c>
       <c r="C14" t="str">
-        <v>RG00749-王世珍</v>
+        <v>RG01387-吴素琴</v>
       </c>
       <c r="D14" t="str">
-        <v>2-氧代-4-苯基丁酸乙酯Ethyl 2-oxo-4-phenylbutyrate 97%</v>
+        <v>用于校准微毛细管移液管的吸气管组件ASPIRATOR TUBE ASSEMBLY FORMICROCAPILLAR</v>
       </c>
       <c r="E14" t="str">
-        <v>TM210225-0208</v>
+        <v>TM220704-0459</v>
       </c>
       <c r="F14" t="str">
-        <v>375322-5ML</v>
+        <v>A5177-5EA</v>
       </c>
       <c r="G14" t="str">
-        <v>5ML</v>
+        <v>2.000G</v>
       </c>
       <c r="H14" t="str">
-        <v>798.97</v>
+        <v>206.87</v>
       </c>
       <c r="I14" t="str">
-        <v>1.00</v>
+        <v>2.00</v>
       </c>
       <c r="J14" t="str">
-        <v>798.97</v>
+        <v>413.74</v>
       </c>
       <c r="K14" t="str">
         <v>EA</v>
       </c>
       <c r="L14" t="str">
-        <v/>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>PO202101111519406713</v>
+        <v>PO202204181038559110</v>
       </c>
       <c r="B15" t="str">
-        <v>杜军婕</v>
+        <v>黄香菇</v>
       </c>
       <c r="C15" t="str">
-        <v>RG01274-谢素原</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D15" t="str">
-        <v>(1,5-Cyclooctadiene)(methoxy)iridium(I) dimer</v>
+        <v>羟乙基哌嗪乙硫磺酸HEPES</v>
       </c>
       <c r="E15" t="str">
-        <v>TM210128-0385</v>
+        <v>TM220620-0298</v>
       </c>
       <c r="F15" t="str">
-        <v>685062-250MG</v>
+        <v>H3375-1KG</v>
       </c>
       <c r="G15" t="str">
-        <v>250MG</v>
+        <v>1.000KG</v>
       </c>
       <c r="H15" t="str">
-        <v>494.03</v>
+        <v>5997.53</v>
       </c>
       <c r="I15" t="str">
         <v>1.00</v>
       </c>
       <c r="J15" t="str">
-        <v>494.03</v>
+        <v>5997.53</v>
       </c>
       <c r="K15" t="str">
-        <v>MG</v>
+        <v>KG</v>
       </c>
       <c r="L15" t="str">
-        <v>与官网同步</v>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>PO202105261551129810</v>
+        <v>PO202204181038559110</v>
       </c>
       <c r="B16" t="str">
-        <v>刘鑫源</v>
+        <v>黄香菇</v>
       </c>
       <c r="C16" t="str">
-        <v>RG00747-洪文晶</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D16" t="str">
-        <v>Propylene carbonate</v>
+        <v>4-二甲氨基安替比林4-DIMETHYLAMINOANTIPYRINE, REACTIVE&amp;amp;</v>
       </c>
       <c r="E16" t="str">
-        <v>TM210531-0152</v>
+        <v>TM220620-0298</v>
       </c>
       <c r="F16" t="str">
-        <v>310328-1L</v>
+        <v>D8015-25G</v>
       </c>
       <c r="G16" t="str">
-        <v>1L</v>
+        <v>25.000G</v>
       </c>
       <c r="H16" t="str">
-        <v>1144.00</v>
+        <v>336.91</v>
       </c>
       <c r="I16" t="str">
         <v>1.00</v>
       </c>
       <c r="J16" t="str">
-        <v>1144.00</v>
+        <v>336.91</v>
       </c>
       <c r="K16" t="str">
-        <v>LT</v>
+        <v>G</v>
       </c>
       <c r="L16" t="str">
-        <v>与官网同步</v>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>PO202105061022298416</v>
+        <v>PO202204181038559110</v>
       </c>
       <c r="B17" t="str">
-        <v>洪玮</v>
+        <v>黄香菇</v>
       </c>
       <c r="C17" t="str">
-        <v>RG01988-李梦琪</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D17" t="str">
-        <v>Clioquinol - CAS 130-26-7 - Calbiochem</v>
+        <v>二乙胺乙基葡聚糖 盐酸盐DEAE-DEXTRAN HYDROCHLORIDE</v>
       </c>
       <c r="E17" t="str">
-        <v>TM210615-0458</v>
+        <v>TM220620-0296</v>
       </c>
       <c r="F17" t="str">
-        <v>233165-1GM</v>
+        <v>D9885-10G</v>
       </c>
       <c r="G17" t="str">
-        <v>1GM</v>
+        <v>10.000G</v>
       </c>
       <c r="H17" t="str">
-        <v>771.26</v>
+        <v>551.88</v>
       </c>
       <c r="I17" t="str">
         <v>1.00</v>
       </c>
       <c r="J17" t="str">
-        <v>771.26</v>
+        <v>551.88</v>
       </c>
       <c r="K17" t="str">
-        <v>GM</v>
+        <v>G</v>
       </c>
       <c r="L17" t="str">
-        <v>与官网同步</v>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>PO202105241056072918</v>
+        <v>PO202204181038559110</v>
       </c>
       <c r="B18" t="str">
-        <v>李晶</v>
+        <v>黄香菇</v>
       </c>
       <c r="C18" t="str">
-        <v>RG00747-洪文晶</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D18" t="str">
-        <v>Palladium(II) chloride</v>
+        <v>肝素酶 I 和 III 混合物 来源于肝素黄杆菌HEPARINASE I AND III BLEND FROM FLAVOBA&amp;amp;</v>
       </c>
       <c r="E18" t="str">
-        <v>TM210531-0149</v>
+        <v>TM220620-0296</v>
       </c>
       <c r="F18" t="str">
-        <v>V900829-1G</v>
+        <v>H3917-100UN</v>
       </c>
       <c r="G18" t="str">
-        <v>1G</v>
+        <v>100.000MG</v>
       </c>
       <c r="H18" t="str">
-        <v>318.60</v>
+        <v>3478.67</v>
       </c>
       <c r="I18" t="str">
         <v>1.00</v>
       </c>
       <c r="J18" t="str">
-        <v>318.60</v>
+        <v>3478.67</v>
       </c>
       <c r="K18" t="str">
-        <v>G</v>
+        <v>EA</v>
       </c>
       <c r="L18" t="str">
-        <v>与官网同步</v>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>PO202106042031370817</v>
+        <v>PO202204181038559110</v>
       </c>
       <c r="B19" t="str">
-        <v>高恺旻</v>
+        <v>黄香菇</v>
       </c>
       <c r="C19" t="str">
-        <v>RG01436-颜晓梅</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D19" t="str">
-        <v>Eppendorf(R) Protein LoBind tubes</v>
+        <v>抗-FLAG? M2亲和凝胶ANTI-FLAG M2 AFFINITY GEL</v>
       </c>
       <c r="E19" t="str">
-        <v>TM210909-0228</v>
+        <v>TM220620-0296</v>
       </c>
       <c r="F19" t="str">
-        <v>EP0030108094-100EA</v>
+        <v>A2220-5ML</v>
       </c>
       <c r="G19" t="str">
-        <v>100EA</v>
+        <v>5.000G</v>
       </c>
       <c r="H19" t="str">
-        <v>150.74</v>
+        <v>13955.95</v>
       </c>
       <c r="I19" t="str">
         <v>1.00</v>
       </c>
       <c r="J19" t="str">
-        <v>150.74</v>
+        <v>13955.95</v>
       </c>
       <c r="K19" t="str">
-        <v>EA</v>
+        <v>ML</v>
       </c>
       <c r="L19" t="str">
-        <v>与官网同步</v>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>PO202103121220377317</v>
+        <v>PO202111191455194011</v>
       </c>
       <c r="B20" t="str">
-        <v>李学军</v>
+        <v>黄香菇</v>
       </c>
       <c r="C20" t="str">
-        <v>RG01593-李学军</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D20" t="str">
-        <v>Streptozocin</v>
+        <v>弹性蛋白酶 来源于猪胰腺ELASTASE TYPE IV FROM PORCINE PANCREAS</v>
       </c>
       <c r="E20" t="str">
-        <v>TM210325-0226</v>
+        <v>TM211122-0405</v>
       </c>
       <c r="F20" t="str">
-        <v>S0130-1G</v>
+        <v>E0258-20MG</v>
       </c>
       <c r="G20" t="str">
-        <v>1G</v>
+        <v>20.000MG</v>
       </c>
       <c r="H20" t="str">
-        <v>2922.01</v>
+        <v>4164.28</v>
       </c>
       <c r="I20" t="str">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="J20" t="str">
-        <v>5844.02</v>
+        <v>4164.28</v>
       </c>
       <c r="K20" t="str">
-        <v>G</v>
+        <v>MG</v>
       </c>
       <c r="L20" t="str">
-        <v>与官网同步</v>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>PO202106221158044028</v>
+        <v>PO202202221525004124</v>
       </c>
       <c r="B21" t="str">
-        <v>黄香菇</v>
+        <v>钟雨晨</v>
       </c>
       <c r="C21" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG01451-周伟</v>
       </c>
       <c r="D21" t="str">
-        <v>pIEx-10 DNA - Novagen</v>
+        <v>聚六亚甲基二异氰酸酯POLY(HEXAMETHYLENE DIISOCYANATE)       &amp;</v>
       </c>
       <c r="E21" t="str">
-        <v>TM210818-0344</v>
+        <v>TM220325-0173</v>
       </c>
       <c r="F21" t="str">
-        <v>71557-3</v>
+        <v>418005-100ML</v>
       </c>
       <c r="G21" t="str">
-        <v>1EA</v>
+        <v>112.000G</v>
       </c>
       <c r="H21" t="str">
-        <v>3963.90</v>
+        <v>480.87</v>
       </c>
       <c r="I21" t="str">
         <v>1.00</v>
       </c>
       <c r="J21" t="str">
-        <v>3963.90</v>
+        <v>480.87</v>
       </c>
       <c r="K21" t="str">
-        <v>EA</v>
+        <v>ML</v>
       </c>
       <c r="L21" t="str">
-        <v>与官网同步</v>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>PO202106221158044028</v>
+        <v>PO202204061521457214</v>
       </c>
       <c r="B22" t="str">
-        <v>黄香菇</v>
+        <v>张睿</v>
       </c>
       <c r="C22" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG02527-张睿</v>
       </c>
       <c r="D22" t="str">
-        <v>D-(+)-Glucose</v>
+        <v>牛血清白蛋白BOVINE SERUM ALBUMIN, LYOPHILIZED POWDE&amp;amp;</v>
       </c>
       <c r="E22" t="str">
-        <v>TM210802-0259</v>
+        <v>TM220713-0492</v>
       </c>
       <c r="F22" t="str">
-        <v>G7021-5KG</v>
+        <v>V900933-100G</v>
       </c>
       <c r="G22" t="str">
-        <v>5KG</v>
+        <v>100.000G</v>
       </c>
       <c r="H22" t="str">
-        <v>1287.32</v>
+        <v>891.00</v>
       </c>
       <c r="I22" t="str">
         <v>1.00</v>
       </c>
       <c r="J22" t="str">
-        <v>1287.32</v>
+        <v>891.00</v>
       </c>
       <c r="K22" t="str">
-        <v>KG</v>
+        <v>G</v>
       </c>
       <c r="L22" t="str">
-        <v>与官网同步</v>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>PO202011271504151111</v>
+        <v>PO202204201709004020</v>
       </c>
       <c r="B23" t="str">
-        <v>孙梦琪</v>
+        <v>黄香菇</v>
       </c>
       <c r="C23" t="str">
-        <v>RG00980-陈猛</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D23" t="str">
-        <v xml:space="preserve">海盐Sea salts </v>
+        <v>D-(?)-3-磷酸甘油酸 二钠盐D(-)3-PHOSPHOGLYCERIC ACID DISODIUM</v>
       </c>
       <c r="E23" t="str">
-        <v>TM210128-0197</v>
+        <v>TM220620-0306</v>
       </c>
       <c r="F23" t="str">
-        <v>S9883-1KG</v>
+        <v>P8877-10MG</v>
       </c>
       <c r="G23" t="str">
-        <v>1KG</v>
+        <v>10.000MG</v>
       </c>
       <c r="H23" t="str">
-        <v>918.54</v>
+        <v>181.97</v>
       </c>
       <c r="I23" t="str">
-        <v>2.00</v>
+        <v>10.00</v>
       </c>
       <c r="J23" t="str">
-        <v>1837.08</v>
+        <v>1819.70</v>
       </c>
       <c r="K23" t="str">
-        <v>EA</v>
+        <v>MG</v>
       </c>
       <c r="L23" t="str">
-        <v/>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>PO202103161717560556</v>
+        <v>PO202204201709004020</v>
       </c>
       <c r="B24" t="str">
-        <v>徐丽菊</v>
+        <v>黄香菇</v>
       </c>
       <c r="C24" t="str">
-        <v>RG00966-王团老</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D24" t="str">
-        <v>Dextran from Leuconostoc spp.</v>
+        <v>羟基丙酮酸磷酸酯 锂盐HYDROXYPYRUVIC ACID PHOSPHATE LITHIUM S&amp;amp;</v>
       </c>
       <c r="E24" t="str">
-        <v>TM210325-0051</v>
+        <v>TM220620-0305</v>
       </c>
       <c r="F24" t="str">
-        <v>31389-25G</v>
+        <v>02711-10MG</v>
       </c>
       <c r="G24" t="str">
-        <v>25G</v>
+        <v>10.000MG</v>
       </c>
       <c r="H24" t="str">
-        <v>895.01</v>
+        <v>795.28</v>
       </c>
       <c r="I24" t="str">
         <v>1.00</v>
       </c>
       <c r="J24" t="str">
-        <v>895.01</v>
+        <v>795.28</v>
       </c>
       <c r="K24" t="str">
-        <v>G</v>
+        <v>MG</v>
       </c>
       <c r="L24" t="str">
-        <v>与官网同步</v>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>PO202106171456414918</v>
+        <v>PO202204071129360613</v>
       </c>
       <c r="B25" t="str">
-        <v>许韧</v>
+        <v>彭錦雪</v>
       </c>
       <c r="C25" t="str">
-        <v>RG01089-许韧</v>
+        <v>RG00878-龚正良</v>
       </c>
       <c r="D25" t="str">
-        <v>Hyaluronidase from bovine testes</v>
+        <v>碘化锂LITHIUM IODIDE 99.9% TRACE METALS BASIS</v>
       </c>
       <c r="E25" t="str">
-        <v>TM210709-0230</v>
+        <v>TM220615-0490</v>
       </c>
       <c r="F25" t="str">
-        <v>H3506-1G</v>
+        <v>518018-10G</v>
       </c>
       <c r="G25" t="str">
-        <v>1G</v>
+        <v>10.000G</v>
       </c>
       <c r="H25" t="str">
-        <v>1097.63</v>
+        <v>635.12</v>
       </c>
       <c r="I25" t="str">
         <v>1.00</v>
       </c>
       <c r="J25" t="str">
-        <v>1097.63</v>
+        <v>635.12</v>
       </c>
       <c r="K25" t="str">
         <v>G</v>
       </c>
       <c r="L25" t="str">
-        <v>与官网同步</v>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>PO202107121116114011</v>
+        <v>PO202203231724001514</v>
       </c>
       <c r="B26" t="str">
-        <v>黄香菇</v>
+        <v>吴丽雯</v>
       </c>
       <c r="C26" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG02139-方宁</v>
       </c>
       <c r="D26" t="str">
-        <v>醛缩酶 来源于兔肌肉ALDOLASE TYPE X FROM RABBIT MUSCLE</v>
+        <v>Corning? 盖玻片CORNING(R) COVER GLASS, NO. 1 1/2, BORO&amp;</v>
       </c>
       <c r="E26" t="str">
-        <v>TM210804-0139</v>
+        <v>TM220713-0501</v>
       </c>
       <c r="F26" t="str">
-        <v>A2714-500UN</v>
+        <v>CLS285025-2000EA</v>
       </c>
       <c r="G26" t="str">
-        <v>4252.000MG</v>
+        <v>2000.000G</v>
       </c>
       <c r="H26" t="str">
-        <v>1183.46</v>
+        <v>2761.54</v>
       </c>
       <c r="I26" t="str">
         <v>1.00</v>
       </c>
       <c r="J26" t="str">
-        <v>1183.46</v>
+        <v>2761.54</v>
       </c>
       <c r="K26" t="str">
-        <v>UNITS</v>
+        <v>EA</v>
       </c>
       <c r="L26" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -1385,265 +1385,265 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>PO202107060946100017</v>
+        <v>PO202203281108344910</v>
       </c>
       <c r="B27" t="str">
-        <v>向宇轩</v>
+        <v>许韧</v>
       </c>
       <c r="C27" t="str">
-        <v>RG01283-杨勇</v>
+        <v>RG01089-许韧</v>
       </c>
       <c r="D27" t="str">
-        <v>碳酸乙烯酯-13C3</v>
+        <v>泰莫西芬TAMOXIFEN FREE BASE</v>
       </c>
       <c r="E27" t="str">
-        <v>TM210903-0233</v>
+        <v>TM220705-0210</v>
       </c>
       <c r="F27" t="str">
-        <v>570052-1g</v>
+        <v>T5648-1G</v>
       </c>
       <c r="G27" t="str">
-        <v>1g</v>
+        <v>1.000G</v>
       </c>
       <c r="H27" t="str">
-        <v>13200.00</v>
+        <v>2535.14</v>
       </c>
       <c r="I27" t="str">
         <v>1.00</v>
       </c>
       <c r="J27" t="str">
-        <v>13200.00</v>
+        <v>2535.14</v>
       </c>
       <c r="K27" t="str">
-        <v>瓶</v>
+        <v>G</v>
       </c>
       <c r="L27" t="str">
-        <v/>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>PO202107060946100017</v>
+        <v>PO202204091933599515</v>
       </c>
       <c r="B28" t="str">
-        <v>向宇轩</v>
+        <v>吴文威</v>
       </c>
       <c r="C28" t="str">
-        <v>RG01283-杨勇</v>
+        <v>RG00946-史大林</v>
       </c>
       <c r="D28" t="str">
-        <v>碳酸乙烯酯-d4</v>
+        <v>DAPI</v>
       </c>
       <c r="E28" t="str">
-        <v>TM210903-0165</v>
+        <v>TM220714-0309</v>
       </c>
       <c r="F28" t="str">
-        <v>573019-1g</v>
+        <v>D9542-10MG</v>
       </c>
       <c r="G28" t="str">
-        <v>1g</v>
+        <v>10.000MG</v>
       </c>
       <c r="H28" t="str">
-        <v>6050.00</v>
+        <v>962.29</v>
       </c>
       <c r="I28" t="str">
         <v>1.00</v>
       </c>
       <c r="J28" t="str">
-        <v>6050.00</v>
+        <v>962.29</v>
       </c>
       <c r="K28" t="str">
-        <v>瓶</v>
+        <v>MG</v>
       </c>
       <c r="L28" t="str">
-        <v/>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>PO202104271513284018</v>
+        <v>PO202203180940108711</v>
       </c>
       <c r="B29" t="str">
-        <v>黄香菇</v>
+        <v>吴素琴</v>
       </c>
       <c r="C29" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG01387-吴素琴</v>
       </c>
       <c r="D29" t="str">
-        <v>Anti-Mouse IgG (Fc specific) F(ab)2 fragment-FITC antibody produced in goat</v>
+        <v>透明质酸酶 来源于牛睾丸HYALURONIDASE TYPE IV-S FROM-BOVINE TEST</v>
       </c>
       <c r="E29" t="str">
-        <v>TM210802-0262</v>
+        <v>TM220704-0457</v>
       </c>
       <c r="F29" t="str">
-        <v>F2772-.5ML</v>
+        <v>H3884-100MG</v>
       </c>
       <c r="G29" t="str">
-        <v>.5ML</v>
+        <v>100.000MG</v>
       </c>
       <c r="H29" t="str">
-        <v>3238.00</v>
+        <v>1227.71</v>
       </c>
       <c r="I29" t="str">
-        <v>1.00</v>
+        <v>2.00</v>
       </c>
       <c r="J29" t="str">
-        <v>3238.00</v>
+        <v>2455.42</v>
       </c>
       <c r="K29" t="str">
-        <v>ML</v>
+        <v>MG</v>
       </c>
       <c r="L29" t="str">
-        <v>与官网同步</v>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>PO202107051441274910</v>
+        <v>PO202203291704394015</v>
       </c>
       <c r="B30" t="str">
-        <v>许韧</v>
+        <v>任胜男</v>
       </c>
       <c r="C30" t="str">
-        <v>RG01089-许韧</v>
+        <v>RG01087-王海滨</v>
       </c>
       <c r="D30" t="str">
-        <v>Fast Green FCF</v>
+        <v>丙酮酸钠PYRUVIC ACID SODIUM EMBRYO TESTED</v>
       </c>
       <c r="E30" t="str">
-        <v>TM210709-0231</v>
+        <v>TM220705-0145</v>
       </c>
       <c r="F30" t="str">
-        <v>F7252-5G</v>
+        <v>P4562-25G</v>
       </c>
       <c r="G30" t="str">
-        <v>5G</v>
+        <v>25.000G</v>
       </c>
       <c r="H30" t="str">
-        <v>280.24</v>
+        <v>347.02</v>
       </c>
       <c r="I30" t="str">
         <v>1.00</v>
       </c>
       <c r="J30" t="str">
-        <v>280.24</v>
+        <v>347.02</v>
       </c>
       <c r="K30" t="str">
         <v>G</v>
       </c>
       <c r="L30" t="str">
-        <v>与官网同步</v>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>PO202107091057482616</v>
+        <v>PO202204112021426514</v>
       </c>
       <c r="B31" t="str">
-        <v>刘文</v>
+        <v>参丹</v>
       </c>
       <c r="C31" t="str">
-        <v>RG00847-刘文</v>
+        <v>RG01092-张杰</v>
       </c>
       <c r="D31" t="str">
-        <v>Triton(TM) X-100</v>
+        <v>4-羟基他莫西芬4-HYDROXYTAMOXIFEN</v>
       </c>
       <c r="E31" t="str">
-        <v>TM210713-0281</v>
+        <v>TM220705-0113</v>
       </c>
       <c r="F31" t="str">
-        <v>T8787-250ML</v>
+        <v>H6278-10MG</v>
       </c>
       <c r="G31" t="str">
-        <v>250ML</v>
+        <v>10.000MG</v>
       </c>
       <c r="H31" t="str">
-        <v>878.95</v>
+        <v>837.54</v>
       </c>
       <c r="I31" t="str">
         <v>1.00</v>
       </c>
       <c r="J31" t="str">
-        <v>878.95</v>
+        <v>837.54</v>
       </c>
       <c r="K31" t="str">
-        <v>ML</v>
+        <v>MG</v>
       </c>
       <c r="L31" t="str">
-        <v>与官网同步</v>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>PO202104291344154719</v>
+        <v>PO202108171046304011</v>
       </c>
       <c r="B32" t="str">
-        <v>宗荣荣</v>
+        <v>黄香菇</v>
       </c>
       <c r="C32" t="str">
-        <v>RG01114-刘祖国</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D32" t="str">
-        <v>N-甲基-D-天冬氨酸N-Methyl-D-aspartic acid</v>
+        <v>N-ACETYL-ALPHA-D-GLUCOSAMINE 1-PHOS&amp;amp;</v>
       </c>
       <c r="E32" t="str">
-        <v>TM210908-0258</v>
+        <v>TM220620-0265</v>
       </c>
       <c r="F32" t="str">
-        <v>M3262-25MG</v>
+        <v>A2142-5MG</v>
       </c>
       <c r="G32" t="str">
-        <v>25MG</v>
+        <v>5.000MG</v>
       </c>
       <c r="H32" t="str">
-        <v>394.18</v>
+        <v>451.70</v>
       </c>
       <c r="I32" t="str">
         <v>1.00</v>
       </c>
       <c r="J32" t="str">
-        <v>394.18</v>
+        <v>451.70</v>
       </c>
       <c r="K32" t="str">
         <v>MG</v>
       </c>
       <c r="L32" t="str">
-        <v>与官网同步</v>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>PO202107132304334015</v>
+        <v>PO202112312322219615</v>
       </c>
       <c r="B33" t="str">
-        <v>黄香菇</v>
+        <v>洪华龙</v>
       </c>
       <c r="C33" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG01016-严重玲</v>
       </c>
       <c r="D33" t="str">
-        <v>脂多糖 来源于大肠杆菌 055:B5LIPOPOLYSACCHARIDE FROM ESCHERICHIA COL&amp;amp;</v>
+        <v>高氯酸镉 水合物CADMIUM PERCHLORATE HYDRATE, 99.999% ME&amp;amp;</v>
       </c>
       <c r="E33" t="str">
-        <v>TM210818-0345</v>
+        <v>TM220715-0154</v>
       </c>
       <c r="F33" t="str">
-        <v>L2880-100MG</v>
+        <v>529567-10G</v>
       </c>
       <c r="G33" t="str">
-        <v>100.000MG</v>
+        <v>10.000G</v>
       </c>
       <c r="H33" t="str">
-        <v>1673.24</v>
+        <v>704.95</v>
       </c>
       <c r="I33" t="str">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="J33" t="str">
-        <v>3346.48</v>
+        <v>704.95</v>
       </c>
       <c r="K33" t="str">
-        <v>MG</v>
+        <v>G</v>
       </c>
       <c r="L33" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -1651,197 +1651,197 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>PO202107132304334015</v>
+        <v>PO202204131027486530</v>
       </c>
       <c r="B34" t="str">
-        <v>黄香菇</v>
+        <v>参丹</v>
       </c>
       <c r="C34" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG01092-张杰</v>
       </c>
       <c r="D34" t="str">
-        <v>Anti-OTOR antibody produced in rabbit</v>
+        <v>5-溴-2′-脱氧尿苷5-BROMO-2-DEOXYURIDINE</v>
       </c>
       <c r="E34" t="str">
-        <v>TM210818-0331</v>
+        <v>TM220705-0114</v>
       </c>
       <c r="F34" t="str">
-        <v>HPA024335-25UL</v>
+        <v>B5002-1G</v>
       </c>
       <c r="G34" t="str">
-        <v>25UL</v>
+        <v>1.000G</v>
       </c>
       <c r="H34" t="str">
-        <v>1325.68</v>
+        <v>1167.69</v>
       </c>
       <c r="I34" t="str">
         <v>1.00</v>
       </c>
       <c r="J34" t="str">
-        <v>1325.68</v>
+        <v>1167.69</v>
       </c>
       <c r="K34" t="str">
-        <v>瓶</v>
+        <v>G</v>
       </c>
       <c r="L34" t="str">
-        <v/>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>PO202103180927514719</v>
+        <v>PO202203161106574015</v>
       </c>
       <c r="B35" t="str">
-        <v>宗荣荣</v>
+        <v>黄香菇</v>
       </c>
       <c r="C35" t="str">
-        <v>RG01114-刘祖国</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D35" t="str">
-        <v>L-Glutathione reduced</v>
+        <v>杜氏改良 Eagle 培养基 - 高葡萄糖DULBECCOS MODIFIED EAGLES MEDIUM - HIG</v>
       </c>
       <c r="E35" t="str">
-        <v>TM210426-0331</v>
+        <v>TM220606-0501</v>
       </c>
       <c r="F35" t="str">
-        <v>G4251-10G</v>
+        <v>D6429-500ML</v>
       </c>
       <c r="G35" t="str">
-        <v>10G</v>
+        <v>500.000G</v>
       </c>
       <c r="H35" t="str">
-        <v>715.34</v>
+        <v>41.00</v>
       </c>
       <c r="I35" t="str">
-        <v>1.00</v>
+        <v>400.00</v>
       </c>
       <c r="J35" t="str">
-        <v>715.34</v>
+        <v>16400.00</v>
       </c>
       <c r="K35" t="str">
-        <v>G</v>
+        <v>ML</v>
       </c>
       <c r="L35" t="str">
-        <v>与官网同步</v>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>PO202106071700356814</v>
+        <v>PO202204141504398716</v>
       </c>
       <c r="B36" t="str">
-        <v>余竞雄</v>
+        <v>吴素琴</v>
       </c>
       <c r="C36" t="str">
-        <v>RG01257-唐紫超</v>
+        <v>RG01387-吴素琴</v>
       </c>
       <c r="D36" t="str">
-        <v>聚(3,5 吡啶)POLY(3,5-PYRIDINEDIYL)</v>
+        <v>L -还原型谷胱甘肽L-GLUTATHIONE REDUCED</v>
       </c>
       <c r="E36" t="str">
-        <v>TM210721-0265</v>
+        <v>TM220704-0468</v>
       </c>
       <c r="F36" t="str">
-        <v>590487-250MG</v>
+        <v>G4251-5G</v>
       </c>
       <c r="G36" t="str">
-        <v>250MG</v>
+        <v>5.000G</v>
       </c>
       <c r="H36" t="str">
-        <v>2592.65</v>
+        <v>484.84</v>
       </c>
       <c r="I36" t="str">
         <v>1.00</v>
       </c>
       <c r="J36" t="str">
-        <v>2592.65</v>
+        <v>484.84</v>
       </c>
       <c r="K36" t="str">
-        <v>MG</v>
+        <v>G</v>
       </c>
       <c r="L36" t="str">
-        <v>与官网同步</v>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>PO202108101515264414</v>
+        <v>PO202204141414126514</v>
       </c>
       <c r="B37" t="str">
-        <v>谢国斌</v>
+        <v>参丹</v>
       </c>
       <c r="C37" t="str">
-        <v>RG02123-谢国斌</v>
+        <v>RG01092-张杰</v>
       </c>
       <c r="D37" t="str">
-        <v>Duolink(TM) In Situ Red Starter Kit Mouse/Rabbit</v>
+        <v>5-溴-2′-脱氧尿苷5-BROMO-2-DEOXYURIDINE</v>
       </c>
       <c r="E37" t="str">
-        <v>TM210908-0239</v>
+        <v>TM220705-0118</v>
       </c>
       <c r="F37" t="str">
-        <v>DUO92101-1KT</v>
+        <v>B5002-1G</v>
       </c>
       <c r="G37" t="str">
-        <v>1KT</v>
+        <v>1.000G</v>
       </c>
       <c r="H37" t="str">
-        <v>12372.64</v>
+        <v>1167.69</v>
       </c>
       <c r="I37" t="str">
         <v>1.00</v>
       </c>
       <c r="J37" t="str">
-        <v>12372.64</v>
+        <v>1167.69</v>
       </c>
       <c r="K37" t="str">
-        <v>KIT</v>
+        <v>G</v>
       </c>
       <c r="L37" t="str">
-        <v>与官网同步</v>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>PO202109162132343014</v>
+        <v>PO202203311345214020</v>
       </c>
       <c r="B38" t="str">
-        <v>吴丹丹</v>
+        <v>任胜男</v>
       </c>
       <c r="C38" t="str">
-        <v>RG00892-张晓坤</v>
+        <v>RG01087-王海滨</v>
       </c>
       <c r="D38" t="str">
-        <v>L-Glutathione reduced</v>
+        <v>杜氏磷酸盐缓冲盐水DULBECCOS PHOSPHATE BUFFERED SALINE, MO</v>
       </c>
       <c r="E38" t="str">
-        <v>TM210923-0115</v>
+        <v>TM220705-0148</v>
       </c>
       <c r="F38" t="str">
-        <v>G4251-25G</v>
+        <v>D8537-500ML</v>
       </c>
       <c r="G38" t="str">
-        <v>25G</v>
+        <v>500.000G</v>
       </c>
       <c r="H38" t="str">
-        <v>1257.72</v>
+        <v>53.00</v>
       </c>
       <c r="I38" t="str">
-        <v>1.00</v>
+        <v>100.00</v>
       </c>
       <c r="J38" t="str">
-        <v>1257.72</v>
+        <v>5300.00</v>
       </c>
       <c r="K38" t="str">
-        <v>G</v>
+        <v>ML</v>
       </c>
       <c r="L38" t="str">
-        <v>与官网同步</v>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>PO202108061529554014</v>
+        <v>PO202204201709004020</v>
       </c>
       <c r="B39" t="str">
         <v>黄香菇</v>
@@ -1850,28 +1850,28 @@
         <v>RG00901-夏宁邵</v>
       </c>
       <c r="D39" t="str">
-        <v>琼脂糖AGAROSE TYPE IX-A: ULTRA-LOW GELLING TE&amp;amp;</v>
+        <v>Alkaline Phosphatase (AP)酶Alkaline Phosphatase (AP)</v>
       </c>
       <c r="E39" t="str">
-        <v>TM210818-0348</v>
+        <v>TM220620-0300</v>
       </c>
       <c r="F39" t="str">
-        <v>A2576-25G</v>
+        <v>10108146001</v>
       </c>
       <c r="G39" t="str">
-        <v>25.000G</v>
+        <v>1EA</v>
       </c>
       <c r="H39" t="str">
-        <v>2927.86</v>
+        <v>1490.70</v>
       </c>
       <c r="I39" t="str">
         <v>1.00</v>
       </c>
       <c r="J39" t="str">
-        <v>2927.86</v>
+        <v>1490.70</v>
       </c>
       <c r="K39" t="str">
-        <v>G</v>
+        <v>EA</v>
       </c>
       <c r="L39" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>PO202108061529554014</v>
+        <v>PO202204201709004020</v>
       </c>
       <c r="B40" t="str">
         <v>黄香菇</v>
@@ -1888,28 +1888,28 @@
         <v>RG00901-夏宁邵</v>
       </c>
       <c r="D40" t="str">
-        <v>IGEPAL CA-630 MOLECULAR BIOLOGY GRADE</v>
+        <v>乙酸锂LITHIUM ACETATE, 99.95% TRACE METALS BA&amp;amp;</v>
       </c>
       <c r="E40" t="str">
-        <v>TM210818-0350</v>
+        <v>TM220620-0300</v>
       </c>
       <c r="F40" t="str">
-        <v>I8896-50ML</v>
+        <v>517992-100G</v>
       </c>
       <c r="G40" t="str">
-        <v>53.000G</v>
+        <v>100.000G</v>
       </c>
       <c r="H40" t="str">
-        <v>513.12</v>
+        <v>1148.52</v>
       </c>
       <c r="I40" t="str">
         <v>1.00</v>
       </c>
       <c r="J40" t="str">
-        <v>513.12</v>
+        <v>1148.52</v>
       </c>
       <c r="K40" t="str">
-        <v>ML</v>
+        <v>G</v>
       </c>
       <c r="L40" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>PO202108061529554014</v>
+        <v>PO202204201709004020</v>
       </c>
       <c r="B41" t="str">
         <v>黄香菇</v>
@@ -1926,28 +1926,28 @@
         <v>RG00901-夏宁邵</v>
       </c>
       <c r="D41" t="str">
-        <v>氯化铯CESIUM CHLORIDE, FOR MOLECULAR BIOLOGY</v>
+        <v>1-硫代甘油1-THIOGLYCEROL</v>
       </c>
       <c r="E41" t="str">
-        <v>TM210818-0350</v>
+        <v>TM220620-0300</v>
       </c>
       <c r="F41" t="str">
-        <v>C4036-1KG</v>
+        <v>88640-100ML</v>
       </c>
       <c r="G41" t="str">
-        <v>1.000KG</v>
+        <v>124.700G</v>
       </c>
       <c r="H41" t="str">
-        <v>4961.05</v>
+        <v>1300.69</v>
       </c>
       <c r="I41" t="str">
         <v>1.00</v>
       </c>
       <c r="J41" t="str">
-        <v>4961.05</v>
+        <v>1300.69</v>
       </c>
       <c r="K41" t="str">
-        <v>KG</v>
+        <v>ML</v>
       </c>
       <c r="L41" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -1955,7 +1955,7 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>PO202108061529554014</v>
+        <v>PO202204201709004020</v>
       </c>
       <c r="B42" t="str">
         <v>黄香菇</v>
@@ -1964,28 +1964,28 @@
         <v>RG00901-夏宁邵</v>
       </c>
       <c r="D42" t="str">
-        <v>转铁蛋白 人TRANSFERRIN HUMAN PARTIALLY IRON- SATURA</v>
+        <v>硫酸葡聚糖 钠盐DEXTRAN SULFATE SODIUM SALT, MR APPROX.&amp;amp;</v>
       </c>
       <c r="E42" t="str">
-        <v>TM210818-0350</v>
+        <v>TM220620-0300</v>
       </c>
       <c r="F42" t="str">
-        <v>T8158-100MG</v>
+        <v>42867-100G</v>
       </c>
       <c r="G42" t="str">
-        <v>100.000MG</v>
+        <v>100.000G</v>
       </c>
       <c r="H42" t="str">
-        <v>1019.96</v>
+        <v>15155.04</v>
       </c>
       <c r="I42" t="str">
         <v>1.00</v>
       </c>
       <c r="J42" t="str">
-        <v>1019.96</v>
+        <v>15155.04</v>
       </c>
       <c r="K42" t="str">
-        <v>MG</v>
+        <v>G</v>
       </c>
       <c r="L42" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -1993,7 +1993,7 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>PO202108061529554014</v>
+        <v>PO202204201709004020</v>
       </c>
       <c r="B43" t="str">
         <v>黄香菇</v>
@@ -2002,28 +2002,28 @@
         <v>RG00901-夏宁邵</v>
       </c>
       <c r="D43" t="str">
-        <v>重组人表皮细胞生长因子EPIDERMAL GROWTH FACTOR HUMAN, EGF&amp;amp;</v>
+        <v>聚（乙二醇）POLY(ETHYLENE GLYCOL), AVERAGE MN 6,000</v>
       </c>
       <c r="E43" t="str">
-        <v>TM210818-0350</v>
+        <v>TM220620-0300</v>
       </c>
       <c r="F43" t="str">
-        <v>E9644-.5MG</v>
+        <v>81260-5KG</v>
       </c>
       <c r="G43" t="str">
-        <v>0.500MG</v>
+        <v>5.000KG</v>
       </c>
       <c r="H43" t="str">
-        <v>3387.11</v>
+        <v>3205.70</v>
       </c>
       <c r="I43" t="str">
-        <v>1.00</v>
+        <v>2.00</v>
       </c>
       <c r="J43" t="str">
-        <v>3387.11</v>
+        <v>6411.40</v>
       </c>
       <c r="K43" t="str">
-        <v>MG</v>
+        <v>KG</v>
       </c>
       <c r="L43" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -2031,189 +2031,189 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>PO202108061529554014</v>
+        <v>PO202204131121504213</v>
       </c>
       <c r="B44" t="str">
-        <v>黄香菇</v>
+        <v>刘敏</v>
       </c>
       <c r="C44" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG01082-刘敏</v>
       </c>
       <c r="D44" t="str">
-        <v>Aprotinin</v>
+        <v>抗 β-肌动蛋白抗体,小鼠单克隆ANTI-BETA-ACTIN ANTIBODY, MOUSE MONO&amp;amp;</v>
       </c>
       <c r="E44" t="str">
-        <v>TM210818-0350</v>
+        <v>TM220705-0078</v>
       </c>
       <c r="F44" t="str">
-        <v>10236624001</v>
+        <v>A1978-200UL</v>
       </c>
       <c r="G44" t="str">
-        <v>1EA</v>
+        <v>200.000MG</v>
       </c>
       <c r="H44" t="str">
-        <v>743.61</v>
+        <v>5176.27</v>
       </c>
       <c r="I44" t="str">
         <v>1.00</v>
       </c>
       <c r="J44" t="str">
-        <v>743.61</v>
+        <v>5176.27</v>
       </c>
       <c r="K44" t="str">
         <v>EA</v>
       </c>
       <c r="L44" t="str">
-        <v>与官网同步</v>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>PO202108061529554014</v>
+        <v>PO202204191310119119</v>
       </c>
       <c r="B45" t="str">
-        <v>黄香菇</v>
+        <v>陈毅歆</v>
       </c>
       <c r="C45" t="str">
         <v>RG00901-夏宁邵</v>
       </c>
       <c r="D45" t="str">
-        <v>Pepstatin</v>
+        <v>吸头PIPETTE TIPS, 200 UL, YELLOW</v>
       </c>
       <c r="E45" t="str">
-        <v>TM210906-0384</v>
+        <v>TM220712-0258</v>
       </c>
       <c r="F45" t="str">
-        <v>10253286001</v>
+        <v>AXYT200Y</v>
       </c>
       <c r="G45" t="str">
-        <v>1EA</v>
+        <v>6360.300G</v>
       </c>
       <c r="H45" t="str">
-        <v>679.03</v>
+        <v>1247.40</v>
       </c>
       <c r="I45" t="str">
         <v>1.00</v>
       </c>
       <c r="J45" t="str">
-        <v>679.03</v>
+        <v>1247.40</v>
       </c>
       <c r="K45" t="str">
         <v>EA</v>
       </c>
       <c r="L45" t="str">
-        <v>与官网同步</v>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>PO202108061529554014</v>
+        <v>PO202204191310119119</v>
       </c>
       <c r="B46" t="str">
-        <v>黄香菇</v>
+        <v>陈毅歆</v>
       </c>
       <c r="C46" t="str">
         <v>RG00901-夏宁邵</v>
       </c>
       <c r="D46" t="str">
-        <v>Leupeptin</v>
+        <v>12排管MINITUBE, INDIVIDUAL, 1.1 ML, PP, RACKED</v>
       </c>
       <c r="E46" t="str">
-        <v>TM210818-0350</v>
+        <v>TM220620-0299</v>
       </c>
       <c r="F46" t="str">
-        <v>11017101001</v>
+        <v>AXYMTS11CR</v>
       </c>
       <c r="G46" t="str">
-        <v>1EA</v>
+        <v>6204.600G</v>
       </c>
       <c r="H46" t="str">
-        <v>946.99</v>
+        <v>1385.56</v>
       </c>
       <c r="I46" t="str">
         <v>1.00</v>
       </c>
       <c r="J46" t="str">
-        <v>946.99</v>
+        <v>1385.56</v>
       </c>
       <c r="K46" t="str">
         <v>EA</v>
       </c>
       <c r="L46" t="str">
-        <v>与官网同步</v>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>PO202107060946100017</v>
+        <v>PO202204071142074919</v>
       </c>
       <c r="B47" t="str">
-        <v>向宇轩</v>
+        <v>许韧</v>
       </c>
       <c r="C47" t="str">
-        <v>RG01283-杨勇</v>
+        <v>RG01089-许韧</v>
       </c>
       <c r="D47" t="str">
-        <v>碳酸乙烯酯-13C</v>
+        <v>矿物油MINERAL OIL FOR MOLECULAR BIOLOGY, BIOR&amp;amp;</v>
       </c>
       <c r="E47" t="str">
-        <v>TM210903-0165</v>
+        <v>TM220705-0211</v>
       </c>
       <c r="F47" t="str">
-        <v>658634-1g</v>
+        <v>M5904-500ML</v>
       </c>
       <c r="G47" t="str">
-        <v>1g</v>
+        <v>420.000G</v>
       </c>
       <c r="H47" t="str">
-        <v>12500.00</v>
+        <v>574.93</v>
       </c>
       <c r="I47" t="str">
         <v>1.00</v>
       </c>
       <c r="J47" t="str">
-        <v>12500.00</v>
+        <v>574.93</v>
       </c>
       <c r="K47" t="str">
-        <v>瓶</v>
+        <v>ML</v>
       </c>
       <c r="L47" t="str">
-        <v/>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>PO202108011818524913</v>
+        <v>PO202204261451598716</v>
       </c>
       <c r="B48" t="str">
-        <v>许韧</v>
+        <v>吴素琴</v>
       </c>
       <c r="C48" t="str">
-        <v>RG01089-许韧</v>
+        <v>RG01387-吴素琴</v>
       </c>
       <c r="D48" t="str">
-        <v>聚乙烯吡咯烷酮POLYVINYLPYRROLIDONE AV. MOL. WT. 40,000</v>
+        <v>矿物油MINERAL OIL SUITABLE FOR MOUSE EMBRYO C&amp;amp;</v>
       </c>
       <c r="E48" t="str">
-        <v>TM210906-0329</v>
+        <v>TM220704-0470</v>
       </c>
       <c r="F48" t="str">
-        <v>PVP40-500G</v>
+        <v>M8410-1L</v>
       </c>
       <c r="G48" t="str">
-        <v>500.000G</v>
+        <v>0.840KG</v>
       </c>
       <c r="H48" t="str">
-        <v>1415.86</v>
+        <v>433.31</v>
       </c>
       <c r="I48" t="str">
-        <v>1.00</v>
+        <v>80.00</v>
       </c>
       <c r="J48" t="str">
-        <v>1415.86</v>
+        <v>34664.80</v>
       </c>
       <c r="K48" t="str">
-        <v>G</v>
+        <v>L</v>
       </c>
       <c r="L48" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -2221,34 +2221,34 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>PO202108061529554014</v>
+        <v>PO202204191338509410</v>
       </c>
       <c r="B49" t="str">
-        <v>黄香菇</v>
+        <v>林智勇</v>
       </c>
       <c r="C49" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG00913-王克坚</v>
       </c>
       <c r="D49" t="str">
-        <v>弹性蛋白酶 来源于猪胰腺ELASTASE TYPE IV FROM PORCINE PANCREAS</v>
+        <v>脂磷壁酸 来源于金黄色葡萄球菌LIPOTEICHOIC ACID FROM STAPHYLOCOCCUS A&amp;amp;</v>
       </c>
       <c r="E49" t="str">
-        <v>TM210818-0348</v>
+        <v>TM220714-0316</v>
       </c>
       <c r="F49" t="str">
-        <v>E0258-10MG</v>
+        <v>L2515-5MG</v>
       </c>
       <c r="G49" t="str">
-        <v>10.000MG</v>
+        <v>5.000MG</v>
       </c>
       <c r="H49" t="str">
-        <v>2244.09</v>
+        <v>1933.76</v>
       </c>
       <c r="I49" t="str">
         <v>1.00</v>
       </c>
       <c r="J49" t="str">
-        <v>2244.09</v>
+        <v>1933.76</v>
       </c>
       <c r="K49" t="str">
         <v>MG</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>PO202108061529554014</v>
+        <v>PO202204181038559110</v>
       </c>
       <c r="B50" t="str">
         <v>黄香菇</v>
@@ -2268,28 +2268,28 @@
         <v>RG00901-夏宁邵</v>
       </c>
       <c r="D50" t="str">
-        <v>N-EPSILON-2-4-DNP-L-LYSINE HYDROCHLORIDE</v>
+        <v>SSYPRO? Orange蛋白凝胶染色剂SYPRO ORANGE PROTEIN GEL STAIN</v>
       </c>
       <c r="E50" t="str">
-        <v>TM210818-0350</v>
+        <v>TM220620-0296</v>
       </c>
       <c r="F50" t="str">
-        <v>D0380-1G</v>
+        <v>S5692-500UL</v>
       </c>
       <c r="G50" t="str">
-        <v>1.000G</v>
+        <v>550.000MG</v>
       </c>
       <c r="H50" t="str">
-        <v>993.88</v>
+        <v>2142.16</v>
       </c>
       <c r="I50" t="str">
         <v>1.00</v>
       </c>
       <c r="J50" t="str">
-        <v>993.88</v>
+        <v>2142.16</v>
       </c>
       <c r="K50" t="str">
-        <v>G</v>
+        <v>EA</v>
       </c>
       <c r="L50" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -2297,37 +2297,37 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>PO202108061529554014</v>
+        <v>PO202204021314212118</v>
       </c>
       <c r="B51" t="str">
-        <v>黄香菇</v>
+        <v>邹文彬</v>
       </c>
       <c r="C51" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG01019-高树基</v>
       </c>
       <c r="D51" t="str">
-        <v>D-(+)-海藻糖 二水合物D(+)TREHALOSE REDUCED METAL ION CONTENT&amp;amp;</v>
+        <v>氧化氘DEUTERIUM OXIDE, 99.9 ATOM % D</v>
       </c>
       <c r="E51" t="str">
-        <v>TM210810-0163</v>
+        <v>TM220714-0377</v>
       </c>
       <c r="F51" t="str">
-        <v>T9531-100G</v>
+        <v>151882-10X1ML</v>
       </c>
       <c r="G51" t="str">
-        <v>100.000G</v>
+        <v>11.070G</v>
       </c>
       <c r="H51" t="str">
-        <v>6636.74</v>
+        <v>467.00</v>
       </c>
       <c r="I51" t="str">
         <v>1.00</v>
       </c>
       <c r="J51" t="str">
-        <v>6636.74</v>
+        <v>467.00</v>
       </c>
       <c r="K51" t="str">
-        <v>G</v>
+        <v>EA</v>
       </c>
       <c r="L51" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>PO202108061529554014</v>
+        <v>PO202204181038559110</v>
       </c>
       <c r="B52" t="str">
         <v>黄香菇</v>
@@ -2344,28 +2344,28 @@
         <v>RG00901-夏宁邵</v>
       </c>
       <c r="D52" t="str">
-        <v>葡聚糖 来源于明串珠菌 属DEXTRAN FROM LEUCONOSTOC SSP.&amp;amp;</v>
+        <v>X-tremeGENESUP?/SUP HP DNA转染试剂X-tremeGENE(TM) HP DNA Transfection Reagent</v>
       </c>
       <c r="E52" t="str">
-        <v>TM210818-0350</v>
+        <v>TM220620-0295</v>
       </c>
       <c r="F52" t="str">
-        <v>31389-100G</v>
+        <v>6366236001</v>
       </c>
       <c r="G52" t="str">
-        <v>100.000G</v>
+        <v>1EA</v>
       </c>
       <c r="H52" t="str">
-        <v>3009.56</v>
+        <v>5114.66</v>
       </c>
       <c r="I52" t="str">
         <v>1.00</v>
       </c>
       <c r="J52" t="str">
-        <v>3009.56</v>
+        <v>5114.66</v>
       </c>
       <c r="K52" t="str">
-        <v>G</v>
+        <v>EA</v>
       </c>
       <c r="L52" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -2373,75 +2373,75 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>PO202108061529554014</v>
+        <v>PO202204201500374111</v>
       </c>
       <c r="B53" t="str">
-        <v>黄香菇</v>
+        <v>王倩</v>
       </c>
       <c r="C53" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG00980-陈猛</v>
       </c>
       <c r="D53" t="str">
-        <v>抗-FLAG? M2亲和凝胶ANTI-FLAG M2 AFFINITY GEL</v>
+        <v>SUPELCLEAN ENVI-CARB SPE小柱（石墨化碳黑),500mg/6mlSupelclean(TM) ENVI-Carb(TM) SPE Tube</v>
       </c>
       <c r="E53" t="str">
-        <v>TM210818-0350</v>
+        <v>TM220705-0054</v>
       </c>
       <c r="F53" t="str">
-        <v>A2220-1ML</v>
+        <v>57094</v>
       </c>
       <c r="G53" t="str">
-        <v>1.000G</v>
+        <v>1EA</v>
       </c>
       <c r="H53" t="str">
-        <v>5486.72</v>
+        <v>1155.55</v>
       </c>
       <c r="I53" t="str">
-        <v>2.00</v>
+        <v>5.00</v>
       </c>
       <c r="J53" t="str">
-        <v>10973.44</v>
+        <v>5777.75</v>
       </c>
       <c r="K53" t="str">
-        <v>ML</v>
+        <v>EA</v>
       </c>
       <c r="L53" t="str">
-        <v>现货一周内，期货咨询销售</v>
+        <v>与官网同步</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>PO202108061529554014</v>
+        <v>PO202204201500374111</v>
       </c>
       <c r="B54" t="str">
-        <v>黄香菇</v>
+        <v>王倩</v>
       </c>
       <c r="C54" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG00980-陈猛</v>
       </c>
       <c r="D54" t="str">
-        <v>诺布尔琼脂NOBLE AGAR</v>
+        <v>Supelclean? LC-NH2 固相萃取管PK30 SUPELCLEAN LC-NH2 6ML/500MG SPE</v>
       </c>
       <c r="E54" t="str">
-        <v>TM210818-0348</v>
+        <v>TM220705-0054</v>
       </c>
       <c r="F54" t="str">
-        <v>A5431-250G</v>
+        <v>54059-U</v>
       </c>
       <c r="G54" t="str">
-        <v>250.000G</v>
+        <v>170.000G</v>
       </c>
       <c r="H54" t="str">
-        <v>3375.32</v>
+        <v>1013.16</v>
       </c>
       <c r="I54" t="str">
-        <v>1.00</v>
+        <v>5.00</v>
       </c>
       <c r="J54" t="str">
-        <v>3375.32</v>
+        <v>5065.80</v>
       </c>
       <c r="K54" t="str">
-        <v>G</v>
+        <v>EA</v>
       </c>
       <c r="L54" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -2449,37 +2449,37 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>PO202108061529554014</v>
+        <v>PO202204211711162819</v>
       </c>
       <c r="B55" t="str">
-        <v>黄香菇</v>
+        <v>张凌娟</v>
       </c>
       <c r="C55" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG00849-张凌娟</v>
       </c>
       <c r="D55" t="str">
-        <v>胃蛋白酶 来源于猪胃粘膜PEPSIN FROM PORCINE GASTRIC MUCOSA</v>
+        <v>TRI试剂?TRI REAGENT</v>
       </c>
       <c r="E55" t="str">
-        <v>TM210818-0348</v>
+        <v>TM220609-0226</v>
       </c>
       <c r="F55" t="str">
-        <v>P6887-250MG</v>
+        <v>T9424-200ML</v>
       </c>
       <c r="G55" t="str">
-        <v>250.000MG</v>
+        <v>217.200G</v>
       </c>
       <c r="H55" t="str">
-        <v>612.95</v>
+        <v>1829.84</v>
       </c>
       <c r="I55" t="str">
-        <v>6.00</v>
+        <v>5.00</v>
       </c>
       <c r="J55" t="str">
-        <v>3677.70</v>
+        <v>9149.20</v>
       </c>
       <c r="K55" t="str">
-        <v>MG</v>
+        <v>ML</v>
       </c>
       <c r="L55" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -2487,37 +2487,37 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>PO202108041811056018</v>
+        <v>PO202204191338509410</v>
       </c>
       <c r="B56" t="str">
-        <v>李苗</v>
+        <v>林智勇</v>
       </c>
       <c r="C56" t="str">
-        <v>RG01752-张桥保</v>
+        <v>RG00913-王克坚</v>
       </c>
       <c r="D56" t="str">
-        <v>聚环氧乙烷POLY(ETHYLENE OXIDE), MV CA. 600,000</v>
+        <v>脂多糖 来源于大肠杆菌 055:B5LIPOPOLYSACCHARIDE FROM ESCHERICHIA COL&amp;amp;</v>
       </c>
       <c r="E56" t="str">
-        <v>TM210903-0242</v>
+        <v>TM220714-0316</v>
       </c>
       <c r="F56" t="str">
-        <v>182028-250G</v>
+        <v>L2880-10MG</v>
       </c>
       <c r="G56" t="str">
-        <v>250.000G</v>
+        <v>10.000MG</v>
       </c>
       <c r="H56" t="str">
-        <v>1325.21</v>
+        <v>429.76</v>
       </c>
       <c r="I56" t="str">
         <v>1.00</v>
       </c>
       <c r="J56" t="str">
-        <v>1325.21</v>
+        <v>429.76</v>
       </c>
       <c r="K56" t="str">
-        <v>G</v>
+        <v>MG</v>
       </c>
       <c r="L56" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -2525,151 +2525,151 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>PO202108061529554014</v>
+        <v>PO202204211416056519</v>
       </c>
       <c r="B57" t="str">
-        <v>黄香菇</v>
+        <v>参丹</v>
       </c>
       <c r="C57" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG01092-张杰</v>
       </c>
       <c r="D57" t="str">
-        <v>十二烷基硫酸钠An ionic detergent useful in electrophoretic separation of proteins and lipids.</v>
+        <v>甘氨酸GLYCINE, VETEC</v>
       </c>
       <c r="E57" t="str">
-        <v>TM210810-0164</v>
+        <v>TM220705-0120</v>
       </c>
       <c r="F57" t="str">
-        <v>428015-1KG</v>
+        <v>V900144-5KG</v>
       </c>
       <c r="G57" t="str">
-        <v>1KG</v>
+        <v>5.000KG</v>
       </c>
       <c r="H57" t="str">
-        <v>1578.05</v>
+        <v>700.57</v>
       </c>
       <c r="I57" t="str">
-        <v>5.00</v>
+        <v>2.00</v>
       </c>
       <c r="J57" t="str">
-        <v>7890.25</v>
+        <v>1401.14</v>
       </c>
       <c r="K57" t="str">
-        <v>EA</v>
+        <v>KG</v>
       </c>
       <c r="L57" t="str">
-        <v>与官网同步</v>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>PO202108061529554014</v>
+        <v>PO202204241421384116</v>
       </c>
       <c r="B58" t="str">
-        <v>黄香菇</v>
+        <v>王倩</v>
       </c>
       <c r="C58" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG00980-陈猛</v>
       </c>
       <c r="D58" t="str">
-        <v>cOmplete(TM), EDTA-free Protease Inhibitor Cocktail抗体Roche cOmpleteSUP?/SUP Protease Inhibitor Cocktail EDTA-free tablets contain an optimized mix of protease inhibitors to inhibit a broad range of proteases</v>
+        <v>SUPELCLEAN ENVI-18 SPE小柱 (含碳量17%),2g/12mlSupelclean(TM) ENVI(TM)-18 SPE Tube</v>
       </c>
       <c r="E58" t="str">
-        <v>TM210818-0348</v>
+        <v>TM220705-0055</v>
       </c>
       <c r="F58" t="str">
-        <v>4693132001</v>
+        <v>57114</v>
       </c>
       <c r="G58" t="str">
         <v>1EA</v>
       </c>
       <c r="H58" t="str">
-        <v>3381.92</v>
+        <v>1213.92</v>
       </c>
       <c r="I58" t="str">
-        <v>1.00</v>
+        <v>2.00</v>
       </c>
       <c r="J58" t="str">
-        <v>3381.92</v>
+        <v>2427.84</v>
       </c>
       <c r="K58" t="str">
         <v>EA</v>
       </c>
       <c r="L58" t="str">
-        <v>现货一周内，期货咨询销售</v>
+        <v>与官网同步</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>PO202106300928459810</v>
+        <v>PO202204270931284016</v>
       </c>
       <c r="B59" t="str">
-        <v>朱奕轩</v>
+        <v>郭宁</v>
       </c>
       <c r="C59" t="str">
-        <v>RG00747-洪文晶</v>
+        <v>RG01087-王海滨</v>
       </c>
       <c r="D59" t="str">
-        <v>1,2,4-三氯苯1,2,4-Trichlorobenzene</v>
+        <v>乙二醇-双（2-氨基乙醚）-N,N,N′,N′-四乙酸ETHYLENE GLYCOL-BIS(2-AMINOETHYLETHER)-&amp;</v>
       </c>
       <c r="E59" t="str">
-        <v>TM210706-0320</v>
+        <v>TM220705-0151</v>
       </c>
       <c r="F59" t="str">
-        <v>256412-1L</v>
+        <v>E3889-100G</v>
       </c>
       <c r="G59" t="str">
-        <v>1L</v>
+        <v>100.000G</v>
       </c>
       <c r="H59" t="str">
-        <v>1417.32</v>
+        <v>1603.50</v>
       </c>
       <c r="I59" t="str">
         <v>1.00</v>
       </c>
       <c r="J59" t="str">
-        <v>1417.32</v>
+        <v>1603.50</v>
       </c>
       <c r="K59" t="str">
-        <v>L</v>
+        <v>G</v>
       </c>
       <c r="L59" t="str">
-        <v>与官网同步</v>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>PO202108091133452817</v>
+        <v>PO202205171244564010</v>
       </c>
       <c r="B60" t="str">
-        <v>林雅滢</v>
+        <v>黄香菇</v>
       </c>
       <c r="C60" t="str">
-        <v>RG00780-林泓域</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D60" t="str">
-        <v>三苯基膦,聚合物键合TRIPHENYLPHOSPHINE, POLYMER-BOUND, 100-&amp;amp;</v>
+        <v>DNase I酶DNase I</v>
       </c>
       <c r="E60" t="str">
-        <v>TM210827-0124</v>
+        <v>TM220620-0307</v>
       </c>
       <c r="F60" t="str">
-        <v>366455-5G</v>
+        <v>11284932001</v>
       </c>
       <c r="G60" t="str">
-        <v>5.000G</v>
+        <v>100mg</v>
       </c>
       <c r="H60" t="str">
-        <v>1232.13</v>
+        <v>1638.61</v>
       </c>
       <c r="I60" t="str">
-        <v>1.00</v>
+        <v>5.00</v>
       </c>
       <c r="J60" t="str">
-        <v>1232.13</v>
+        <v>8193.05</v>
       </c>
       <c r="K60" t="str">
-        <v>G</v>
+        <v>EA</v>
       </c>
       <c r="L60" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -2677,37 +2677,37 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>PO202108101110124714</v>
+        <v>PO202205171244564010</v>
       </c>
       <c r="B61" t="str">
-        <v>宗荣荣</v>
+        <v>黄香菇</v>
       </c>
       <c r="C61" t="str">
-        <v>RG01114-刘祖国</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D61" t="str">
-        <v>Ames培养基AMES MEDIUM, WITH L-GLUTAMINE, WITHOUT</v>
+        <v>磷酸肌酸 二钠盐 水合物PHOSPHOCREATINE DISODIUM HYDRATE</v>
       </c>
       <c r="E61" t="str">
-        <v>TM210903-0230</v>
+        <v>TM220620-0401</v>
       </c>
       <c r="F61" t="str">
-        <v>A1420-10X1L</v>
+        <v>P7936-1G</v>
       </c>
       <c r="G61" t="str">
-        <v>88.320G</v>
+        <v>1.000G</v>
       </c>
       <c r="H61" t="str">
-        <v>696.49</v>
+        <v>840.37</v>
       </c>
       <c r="I61" t="str">
         <v>1.00</v>
       </c>
       <c r="J61" t="str">
-        <v>696.49</v>
+        <v>840.37</v>
       </c>
       <c r="K61" t="str">
-        <v>X</v>
+        <v>G</v>
       </c>
       <c r="L61" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -2715,37 +2715,37 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>PO202107311455443613</v>
+        <v>PO202205171244564010</v>
       </c>
       <c r="B62" t="str">
-        <v>尹坤</v>
+        <v>黄香菇</v>
       </c>
       <c r="C62" t="str">
-        <v>RG01349-杨朝勇</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D62" t="str">
-        <v>两性离子缓冲剂TRICINE</v>
+        <v>明胶 来源于冷水鱼类的皮肤GELATIN FROM COLD WATER FISH SKIN</v>
       </c>
       <c r="E62" t="str">
-        <v>TM210906-0319</v>
+        <v>TM220704-0395</v>
       </c>
       <c r="F62" t="str">
-        <v>T0377-100G</v>
+        <v>G7765-1L</v>
       </c>
       <c r="G62" t="str">
-        <v>100.000G</v>
+        <v>1.000KG</v>
       </c>
       <c r="H62" t="str">
-        <v>767.97</v>
+        <v>1493.14</v>
       </c>
       <c r="I62" t="str">
-        <v>1.00</v>
+        <v>5.00</v>
       </c>
       <c r="J62" t="str">
-        <v>767.97</v>
+        <v>7465.70</v>
       </c>
       <c r="K62" t="str">
-        <v>G</v>
+        <v>L</v>
       </c>
       <c r="L62" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -2753,45 +2753,45 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>PO202108061847278216</v>
+        <v>PO202205171244564010</v>
       </c>
       <c r="B63" t="str">
-        <v>李岩</v>
+        <v>黄香菇</v>
       </c>
       <c r="C63" t="str">
-        <v>RG01447-罗学涛</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D63" t="str">
-        <v>顺铂CIS-PLATINUM(II)DIAMMINE DICHLORIDE</v>
+        <v>脱氧核糖核酸 钠盐</v>
       </c>
       <c r="E63" t="str">
-        <v>TM210827-0145</v>
+        <v>TM220620-0399</v>
       </c>
       <c r="F63" t="str">
-        <v>P4394-100MG</v>
+        <v>D1626-1g</v>
       </c>
       <c r="G63" t="str">
-        <v>100.000MG</v>
+        <v>1g</v>
       </c>
       <c r="H63" t="str">
-        <v>856.46</v>
+        <v>1253.95</v>
       </c>
       <c r="I63" t="str">
         <v>1.00</v>
       </c>
       <c r="J63" t="str">
-        <v>856.46</v>
+        <v>1253.95</v>
       </c>
       <c r="K63" t="str">
-        <v>MG</v>
+        <v>EA</v>
       </c>
       <c r="L63" t="str">
-        <v>现货一周内，期货咨询销售</v>
+        <v/>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>PO202108251027264010</v>
+        <v>PO202205171244564010</v>
       </c>
       <c r="B64" t="str">
         <v>黄香菇</v>
@@ -2800,28 +2800,28 @@
         <v>RG00901-夏宁邵</v>
       </c>
       <c r="D64" t="str">
-        <v>环亮氨酸1-AMINO-1-CYCLOPENTANECARBOXYLIC ACID, &amp;amp;</v>
+        <v>TRITON X-100 MOLECULAR BIOLOGY REAGENT</v>
       </c>
       <c r="E64" t="str">
-        <v>TM210906-0389</v>
+        <v>TM220620-0399</v>
       </c>
       <c r="F64" t="str">
-        <v>A48105-5G</v>
+        <v>T8787-100ML</v>
       </c>
       <c r="G64" t="str">
-        <v>5.000G</v>
+        <v>108.200G</v>
       </c>
       <c r="H64" t="str">
-        <v>1348.06</v>
+        <v>477.18</v>
       </c>
       <c r="I64" t="str">
         <v>1.00</v>
       </c>
       <c r="J64" t="str">
-        <v>1348.06</v>
+        <v>477.18</v>
       </c>
       <c r="K64" t="str">
-        <v>G</v>
+        <v>ML</v>
       </c>
       <c r="L64" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -2829,7 +2829,7 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>PO202108061529554014</v>
+        <v>PO202205171244564010</v>
       </c>
       <c r="B65" t="str">
         <v>黄香菇</v>
@@ -2838,28 +2838,28 @@
         <v>RG00901-夏宁邵</v>
       </c>
       <c r="D65" t="str">
-        <v>RPMI-1640 培养基RPMI-1640 MEDIUM, WITH L-GLUTAMINE AND S</v>
+        <v>X-tremeGENESUP?/SUP HP DNA转染试剂X-tremeGENE(TM) HP DNA Transfection Reagent</v>
       </c>
       <c r="E65" t="str">
-        <v>TM210902-0348</v>
+        <v>TM220620-0399</v>
       </c>
       <c r="F65" t="str">
-        <v>R8758-500ML</v>
+        <v>6366236001</v>
       </c>
       <c r="G65" t="str">
-        <v>500.000G</v>
+        <v>1EA</v>
       </c>
       <c r="H65" t="str">
-        <v>39.00</v>
+        <v>5114.66</v>
       </c>
       <c r="I65" t="str">
-        <v>20.00</v>
+        <v>2.00</v>
       </c>
       <c r="J65" t="str">
-        <v>780.00</v>
+        <v>10229.32</v>
       </c>
       <c r="K65" t="str">
-        <v>ML</v>
+        <v>EA</v>
       </c>
       <c r="L65" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>PO202108251044194018</v>
+        <v>PO202205171244564010</v>
       </c>
       <c r="B66" t="str">
         <v>黄香菇</v>
@@ -2876,28 +2876,28 @@
         <v>RG00901-夏宁邵</v>
       </c>
       <c r="D66" t="str">
-        <v>乙酰乙酸锂LITHIUM ACETOACETATE =90% (HPLC)</v>
+        <v>Dispase II (neutral protease, grade II)酶DispaseSUP?/SUP II (neutral protease, grade II)</v>
       </c>
       <c r="E66" t="str">
-        <v>TM210906-0393</v>
+        <v>TM220620-0399</v>
       </c>
       <c r="F66" t="str">
-        <v>A8509-10MG</v>
+        <v>4942078001</v>
       </c>
       <c r="G66" t="str">
-        <v>10.000MG</v>
+        <v>1EA</v>
       </c>
       <c r="H66" t="str">
-        <v>334.89</v>
+        <v>6172.17</v>
       </c>
       <c r="I66" t="str">
         <v>1.00</v>
       </c>
       <c r="J66" t="str">
-        <v>334.89</v>
+        <v>6172.17</v>
       </c>
       <c r="K66" t="str">
-        <v>MG</v>
+        <v>EA</v>
       </c>
       <c r="L66" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>PO202108251044194018</v>
+        <v>PO202205171244564010</v>
       </c>
       <c r="B67" t="str">
         <v>黄香菇</v>
@@ -2914,28 +2914,28 @@
         <v>RG00901-夏宁邵</v>
       </c>
       <c r="D67" t="str">
-        <v>4-甲基-2-氧戊酸4-Methyl-2-oxovaleric acid, = 98.0 % T&amp;amp;</v>
+        <v>MPLA (PHAD (R))</v>
       </c>
       <c r="E67" t="str">
-        <v>TM210906-0393</v>
+        <v>TM220620-0395</v>
       </c>
       <c r="F67" t="str">
-        <v>68255-1G</v>
+        <v>699800P-5MG</v>
       </c>
       <c r="G67" t="str">
-        <v>1.000G</v>
+        <v>5.000MG</v>
       </c>
       <c r="H67" t="str">
-        <v>664.09</v>
+        <v>6456.39</v>
       </c>
       <c r="I67" t="str">
-        <v>1.00</v>
+        <v>2.00</v>
       </c>
       <c r="J67" t="str">
-        <v>664.09</v>
+        <v>12912.78</v>
       </c>
       <c r="K67" t="str">
-        <v>G</v>
+        <v>MG</v>
       </c>
       <c r="L67" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -2943,37 +2943,37 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>PO202108251027264010</v>
+        <v>PO202204191310119119</v>
       </c>
       <c r="B68" t="str">
-        <v>黄香菇</v>
+        <v>陈毅歆</v>
       </c>
       <c r="C68" t="str">
         <v>RG00901-夏宁邵</v>
       </c>
       <c r="D68" t="str">
-        <v>2′-脱氧腺苷-5′-单磷酸2-DEOXYADENOSINE 5-MONOPHOSPHATE FREE</v>
+        <v>SCREW CAPS WITH O-RINGS, WHITE</v>
       </c>
       <c r="E68" t="str">
-        <v>TM210906-0389</v>
+        <v>TM220712-0262</v>
       </c>
       <c r="F68" t="str">
-        <v>D6375-100MG</v>
+        <v>AXYSCOW</v>
       </c>
       <c r="G68" t="str">
-        <v>100.000MG</v>
+        <v>2.500KG</v>
       </c>
       <c r="H68" t="str">
-        <v>402.49</v>
+        <v>1851.07</v>
       </c>
       <c r="I68" t="str">
-        <v>1.00</v>
+        <v>7.00</v>
       </c>
       <c r="J68" t="str">
-        <v>402.49</v>
+        <v>12957.49</v>
       </c>
       <c r="K68" t="str">
-        <v>MG</v>
+        <v>EA</v>
       </c>
       <c r="L68" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -2981,37 +2981,37 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>PO202108251027264010</v>
+        <v>PO202204191310119119</v>
       </c>
       <c r="B69" t="str">
-        <v>黄香菇</v>
+        <v>陈毅歆</v>
       </c>
       <c r="C69" t="str">
         <v>RG00901-夏宁邵</v>
       </c>
       <c r="D69" t="str">
-        <v>DL-DIHYDROOROTIC ACID</v>
+        <v>Corning? Transwell? 聚碳酸酯膜细胞培养插入物CORNING(R) TRANSWELL(R) POLYCARBONATE M&amp;amp;</v>
       </c>
       <c r="E69" t="str">
-        <v>TM210906-0389</v>
+        <v>TM220620-0383</v>
       </c>
       <c r="F69" t="str">
-        <v>D7003-100MG</v>
+        <v>CLS3413-48EA</v>
       </c>
       <c r="G69" t="str">
-        <v>100.000MG</v>
+        <v>48.000G</v>
       </c>
       <c r="H69" t="str">
-        <v>645.86</v>
+        <v>1197.07</v>
       </c>
       <c r="I69" t="str">
-        <v>1.00</v>
+        <v>2.00</v>
       </c>
       <c r="J69" t="str">
-        <v>645.86</v>
+        <v>2394.14</v>
       </c>
       <c r="K69" t="str">
-        <v>MG</v>
+        <v>EA</v>
       </c>
       <c r="L69" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -3019,37 +3019,37 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>PO202108251027264010</v>
+        <v>PO202205031755239516</v>
       </c>
       <c r="B70" t="str">
-        <v>黄香菇</v>
+        <v>吴文威</v>
       </c>
       <c r="C70" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG00946-史大林</v>
       </c>
       <c r="D70" t="str">
-        <v>D-葡萄糖胺6-磷酸D-GLUCOSAMINE 6-PHOSPHATE FREE ACID</v>
+        <v>四硼酸钠 十水合物SODIUM TETRABORATE-10-HYDRATE R. G.,BUFF</v>
       </c>
       <c r="E70" t="str">
-        <v>TM210906-0394</v>
+        <v>TM220714-0310</v>
       </c>
       <c r="F70" t="str">
-        <v>G5509-100MG</v>
+        <v>31457-100G</v>
       </c>
       <c r="G70" t="str">
-        <v>100.000MG</v>
+        <v>100.000G</v>
       </c>
       <c r="H70" t="str">
-        <v>852.94</v>
+        <v>175.25</v>
       </c>
       <c r="I70" t="str">
         <v>1.00</v>
       </c>
       <c r="J70" t="str">
-        <v>852.94</v>
+        <v>175.25</v>
       </c>
       <c r="K70" t="str">
-        <v>MG</v>
+        <v>G</v>
       </c>
       <c r="L70" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>PO202108251044194018</v>
+        <v>PO202204181038559110</v>
       </c>
       <c r="B71" t="str">
         <v>黄香菇</v>
@@ -3066,28 +3066,28 @@
         <v>RG00901-夏宁邵</v>
       </c>
       <c r="D71" t="str">
-        <v>2,3-吡啶二甲酸2,3-PYRIDINEDICARBOXYLIC ACID, 99%</v>
+        <v>X-tremeGENESUP?/SUP HP DNA转染试剂X-tremeGENE(TM) HP DNA Transfection Reagent</v>
       </c>
       <c r="E71" t="str">
-        <v>TM210906-0393</v>
+        <v>TM220620-0296</v>
       </c>
       <c r="F71" t="str">
-        <v>P63204-25G</v>
+        <v>6366236001</v>
       </c>
       <c r="G71" t="str">
-        <v>25.000G</v>
+        <v>1EA</v>
       </c>
       <c r="H71" t="str">
-        <v>196.06</v>
+        <v>5114.66</v>
       </c>
       <c r="I71" t="str">
         <v>1.00</v>
       </c>
       <c r="J71" t="str">
-        <v>196.06</v>
+        <v>5114.66</v>
       </c>
       <c r="K71" t="str">
-        <v>G</v>
+        <v>EA</v>
       </c>
       <c r="L71" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -3095,75 +3095,75 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>PO202108251044194018</v>
+        <v>PO202205051139564116</v>
       </c>
       <c r="B72" t="str">
-        <v>黄香菇</v>
+        <v>王倩</v>
       </c>
       <c r="C72" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG00980-陈猛</v>
       </c>
       <c r="D72" t="str">
-        <v>2,5-二羟基苯甲酸2,5-Dihydroxybenzoic acid, 98%</v>
+        <v>Supelclean LC-WCX 固相萃取小柱PK54 SUPELCLEAN LC-WCX 500MG/3MLSupelclean(TM) LC-WCX SPE Tube</v>
       </c>
       <c r="E72" t="str">
-        <v>TM210906-0393</v>
+        <v>TM220705-0058</v>
       </c>
       <c r="F72" t="str">
-        <v>149357-10G</v>
+        <v>57061</v>
       </c>
       <c r="G72" t="str">
-        <v>10.000G</v>
+        <v>1EA</v>
       </c>
       <c r="H72" t="str">
-        <v>225.77</v>
+        <v>1354.00</v>
       </c>
       <c r="I72" t="str">
-        <v>1.00</v>
+        <v>2.00</v>
       </c>
       <c r="J72" t="str">
-        <v>225.77</v>
+        <v>2708.00</v>
       </c>
       <c r="K72" t="str">
-        <v>G</v>
+        <v>EA</v>
       </c>
       <c r="L72" t="str">
-        <v>现货一周内，期货咨询销售</v>
+        <v>与官网同步</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>PO202108251044194018</v>
+        <v>PO202205061708064716</v>
       </c>
       <c r="B73" t="str">
-        <v>黄香菇</v>
+        <v>宗荣荣</v>
       </c>
       <c r="C73" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG01114-刘祖国</v>
       </c>
       <c r="D73" t="str">
-        <v>2-羟基异己酸2-HYDROXYISOCAPROIC ACID, 99%</v>
+        <v>脂多糖 来源于大肠杆菌 055:B5LIPOPOLYSACCHARIDE FROM ESCHERICHIA COL&amp;</v>
       </c>
       <c r="E73" t="str">
-        <v>TM210906-0393</v>
+        <v>TM220714-0363</v>
       </c>
       <c r="F73" t="str">
-        <v>219819-1G</v>
+        <v>L2880-25MG</v>
       </c>
       <c r="G73" t="str">
-        <v>1.000G</v>
+        <v>25.000MG</v>
       </c>
       <c r="H73" t="str">
-        <v>762.85</v>
+        <v>848.35</v>
       </c>
       <c r="I73" t="str">
         <v>1.00</v>
       </c>
       <c r="J73" t="str">
-        <v>762.85</v>
+        <v>848.35</v>
       </c>
       <c r="K73" t="str">
-        <v>G</v>
+        <v>MG</v>
       </c>
       <c r="L73" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -3171,151 +3171,151 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>PO202108171046304011</v>
+        <v>PO202204282008228111</v>
       </c>
       <c r="B74" t="str">
-        <v>黄香菇</v>
+        <v>李光</v>
       </c>
       <c r="C74" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG01294-李光</v>
       </c>
       <c r="D74" t="str">
-        <v>ATP</v>
+        <v>DIG RNA Labeling Mix</v>
       </c>
       <c r="E74" t="str">
-        <v>TM210819-0076</v>
+        <v>TM220617-0327</v>
       </c>
       <c r="F74" t="str">
-        <v>11140965001</v>
+        <v>11277073910</v>
       </c>
       <c r="G74" t="str">
-        <v>400ul</v>
+        <v>1EA</v>
       </c>
       <c r="H74" t="str">
-        <v>1065.34</v>
+        <v>2035.18</v>
       </c>
       <c r="I74" t="str">
         <v>1.00</v>
       </c>
       <c r="J74" t="str">
-        <v>1065.34</v>
+        <v>2035.18</v>
       </c>
       <c r="K74" t="str">
-        <v>瓶</v>
+        <v>EA</v>
       </c>
       <c r="L74" t="str">
-        <v/>
+        <v>与官网同步</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>PO202108171046304011</v>
+        <v>PO202205091657324611</v>
       </c>
       <c r="B75" t="str">
-        <v>黄香菇</v>
+        <v>林文芳</v>
       </c>
       <c r="C75" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG00946-史大林</v>
       </c>
       <c r="D75" t="str">
-        <v>L -氧化谷胱甘肽</v>
+        <v>还原型 β-烟酰胺腺嘌呤二核苷酸 二钠盐 水合物B-NICOTINAMIDE ADENINE DINUCLEOTIDE</v>
       </c>
       <c r="E75" t="str">
-        <v>TM210819-0076</v>
+        <v>TM220714-0322</v>
       </c>
       <c r="F75" t="str">
-        <v>G4376-250MG</v>
+        <v>N8129-50MG</v>
       </c>
       <c r="G75" t="str">
-        <v>250mg</v>
+        <v>50.000MG</v>
       </c>
       <c r="H75" t="str">
-        <v>461.04</v>
+        <v>246.62</v>
       </c>
       <c r="I75" t="str">
         <v>1.00</v>
       </c>
       <c r="J75" t="str">
-        <v>461.04</v>
+        <v>246.62</v>
       </c>
       <c r="K75" t="str">
-        <v>瓶</v>
+        <v>MG</v>
       </c>
       <c r="L75" t="str">
-        <v/>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>PO202108171046304011</v>
+        <v>PO202205091657324611</v>
       </c>
       <c r="B76" t="str">
-        <v>黄香菇</v>
+        <v>林文芳</v>
       </c>
       <c r="C76" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG00946-史大林</v>
       </c>
       <c r="D76" t="str">
-        <v>N-乙酰-D-甘露糖胺</v>
+        <v>还原型 β-烟酰胺腺嘌呤二核苷酸磷酸 四环己铵盐B-NICOTINAMIDE ADENINE DINUCLEOTIDE PHOS</v>
       </c>
       <c r="E76" t="str">
-        <v>TM210819-0079</v>
+        <v>TM220714-0322</v>
       </c>
       <c r="F76" t="str">
-        <v>PHG0017-10G</v>
+        <v>N5130-25MG</v>
       </c>
       <c r="G76" t="str">
-        <v>10g</v>
+        <v>25.000MG</v>
       </c>
       <c r="H76" t="str">
-        <v>2404.64</v>
+        <v>1391.84</v>
       </c>
       <c r="I76" t="str">
         <v>1.00</v>
       </c>
       <c r="J76" t="str">
-        <v>2404.64</v>
+        <v>1391.84</v>
       </c>
       <c r="K76" t="str">
-        <v>瓶</v>
+        <v>MG</v>
       </c>
       <c r="L76" t="str">
-        <v/>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>PO202108031259054719</v>
+        <v>PO202205171244564010</v>
       </c>
       <c r="B77" t="str">
-        <v>宗荣荣</v>
+        <v>黄香菇</v>
       </c>
       <c r="C77" t="str">
-        <v>RG01114-刘祖国</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D77" t="str">
-        <v>矿物油MINERAL OIL, WHITE, LIGHT</v>
+        <v>胰蛋白酶 来源于牛胰腺TRYPSIN TPCK TREATED FROM BOVINE PANCREA</v>
       </c>
       <c r="E77" t="str">
-        <v>TM210903-0228</v>
+        <v>TM220620-0407</v>
       </c>
       <c r="F77" t="str">
-        <v>330779-1L</v>
+        <v>T1426-1G</v>
       </c>
       <c r="G77" t="str">
-        <v>0.838KG</v>
+        <v>1.000G</v>
       </c>
       <c r="H77" t="str">
-        <v>327.93</v>
+        <v>3784.43</v>
       </c>
       <c r="I77" t="str">
         <v>1.00</v>
       </c>
       <c r="J77" t="str">
-        <v>327.93</v>
+        <v>3784.43</v>
       </c>
       <c r="K77" t="str">
-        <v>L</v>
+        <v>G</v>
       </c>
       <c r="L77" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -3323,37 +3323,37 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>PO202108061421512110</v>
+        <v>PO202205171244564010</v>
       </c>
       <c r="B78" t="str">
-        <v>邹文彬</v>
+        <v>黄香菇</v>
       </c>
       <c r="C78" t="str">
-        <v>RG01242-鲍红艳</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D78" t="str">
-        <v>氯化钠SODIUM CHLORIDE BIOXTRA</v>
+        <v>抗 兔 IgG（全分子）-TRITC 山羊抗ANTI-RABBIT IGG (WHOLE MOLECULE) TRITC &amp;</v>
       </c>
       <c r="E78" t="str">
-        <v>TM210903-0204</v>
+        <v>TM220620-0407</v>
       </c>
       <c r="F78" t="str">
-        <v>S7653-1KG</v>
+        <v>T6778-1ML</v>
       </c>
       <c r="G78" t="str">
-        <v>1.000KG</v>
+        <v>1.000G</v>
       </c>
       <c r="H78" t="str">
-        <v>883.73</v>
+        <v>2627.97</v>
       </c>
       <c r="I78" t="str">
-        <v>1.00</v>
+        <v>2.00</v>
       </c>
       <c r="J78" t="str">
-        <v>883.73</v>
+        <v>5255.94</v>
       </c>
       <c r="K78" t="str">
-        <v>KG</v>
+        <v>ML</v>
       </c>
       <c r="L78" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -3361,37 +3361,37 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>PO202108220946495116</v>
+        <v>PO202205171244564010</v>
       </c>
       <c r="B79" t="str">
-        <v>尤鹏耀</v>
+        <v>黄香菇</v>
       </c>
       <c r="C79" t="str">
-        <v>RG00748-郑南峰</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D79" t="str">
-        <v>聚（乙二醇）- 嵌段 - 聚（丙二醇）- 嵌段 - 聚（乙二醇）POLY(ETHYLENE GLYCOL)-B-POLY(PROPYLENE &amp;amp;</v>
+        <v>Duolink? In Situ Red小鼠/兔启动装试剂盒DUOLINK IN SITU RED STARTER KIT MOUSE/RA</v>
       </c>
       <c r="E79" t="str">
-        <v>TM210902-0291</v>
+        <v>TM220704-0379</v>
       </c>
       <c r="F79" t="str">
-        <v>435465-250ML</v>
+        <v>DUO92101-1KT</v>
       </c>
       <c r="G79" t="str">
-        <v>254.500G</v>
+        <v>65.000G</v>
       </c>
       <c r="H79" t="str">
-        <v>568.61</v>
+        <v>13804.69</v>
       </c>
       <c r="I79" t="str">
         <v>1.00</v>
       </c>
       <c r="J79" t="str">
-        <v>568.61</v>
+        <v>13804.69</v>
       </c>
       <c r="K79" t="str">
-        <v>ML</v>
+        <v>EA</v>
       </c>
       <c r="L79" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>PO202108251027264010</v>
+        <v>PO202205171244564010</v>
       </c>
       <c r="B80" t="str">
         <v>黄香菇</v>
@@ -3408,28 +3408,28 @@
         <v>RG00901-夏宁邵</v>
       </c>
       <c r="D80" t="str">
-        <v>D-葡糖醛酸D-GLUCURONIC ACID</v>
+        <v>TERGITOL(TM), TYPE NP-9</v>
       </c>
       <c r="E80" t="str">
-        <v>TM210906-0394</v>
+        <v>TM220620-0407</v>
       </c>
       <c r="F80" t="str">
-        <v>G5269-10MG</v>
+        <v>NP9-100ML</v>
       </c>
       <c r="G80" t="str">
-        <v>10.000MG</v>
+        <v>104.900G</v>
       </c>
       <c r="H80" t="str">
-        <v>239.23</v>
+        <v>397.84</v>
       </c>
       <c r="I80" t="str">
         <v>1.00</v>
       </c>
       <c r="J80" t="str">
-        <v>239.23</v>
+        <v>397.84</v>
       </c>
       <c r="K80" t="str">
-        <v>MG</v>
+        <v>ML</v>
       </c>
       <c r="L80" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>PO202108251027264010</v>
+        <v>PO202205171244564010</v>
       </c>
       <c r="B81" t="str">
         <v>黄香菇</v>
@@ -3446,28 +3446,28 @@
         <v>RG00901-夏宁邵</v>
       </c>
       <c r="D81" t="str">
-        <v>肌苷-5′-单磷酸 二钠盐 水合物INOSINE 5-MONOPHOSPHATE DISODIUM SALT&amp;amp;</v>
+        <v>EDU-CLICK 488</v>
       </c>
       <c r="E81" t="str">
-        <v>TM210906-0405</v>
+        <v>TM220620-0399</v>
       </c>
       <c r="F81" t="str">
-        <v>I4625-5G</v>
+        <v>BCK-EDU488</v>
       </c>
       <c r="G81" t="str">
-        <v>5.000G</v>
+        <v>130.000G</v>
       </c>
       <c r="H81" t="str">
-        <v>442.18</v>
+        <v>5788.68</v>
       </c>
       <c r="I81" t="str">
         <v>1.00</v>
       </c>
       <c r="J81" t="str">
-        <v>442.18</v>
+        <v>5788.68</v>
       </c>
       <c r="K81" t="str">
-        <v>G</v>
+        <v>EA</v>
       </c>
       <c r="L81" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -3475,7 +3475,7 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>PO202108251027264010</v>
+        <v>PO202205171244564010</v>
       </c>
       <c r="B82" t="str">
         <v>黄香菇</v>
@@ -3484,28 +3484,28 @@
         <v>RG00901-夏宁邵</v>
       </c>
       <c r="D82" t="str">
-        <v>(±)-α-硫辛酸(+/-)-A-LIPOIC ACID, BIOREAGENT, = 99&amp;amp;</v>
+        <v>DL-二硫代苏糖醇 溶液DL-DITHIOTHREITOL SOLUTION, BIOULTRA, FO</v>
       </c>
       <c r="E82" t="str">
-        <v>TM210906-0405</v>
+        <v>TM220620-0407</v>
       </c>
       <c r="F82" t="str">
-        <v>T1395-1G</v>
+        <v>43816-10ML</v>
       </c>
       <c r="G82" t="str">
-        <v>1.000G</v>
+        <v>10.400G</v>
       </c>
       <c r="H82" t="str">
-        <v>434.05</v>
+        <v>332.28</v>
       </c>
       <c r="I82" t="str">
         <v>1.00</v>
       </c>
       <c r="J82" t="str">
-        <v>434.05</v>
+        <v>332.28</v>
       </c>
       <c r="K82" t="str">
-        <v>G</v>
+        <v>ML</v>
       </c>
       <c r="L82" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>PO202108251044194018</v>
+        <v>PO202205171244564010</v>
       </c>
       <c r="B83" t="str">
         <v>黄香菇</v>
@@ -3522,28 +3522,28 @@
         <v>RG00901-夏宁邵</v>
       </c>
       <c r="D83" t="str">
-        <v>2-酮己酸 钠盐A-KETOCAPROIC ACID SODIUM</v>
+        <v>丙氨酸-谷氨酰胺ALA-GLN, =98% (HPLC)</v>
       </c>
       <c r="E83" t="str">
-        <v>TM210906-0393</v>
+        <v>TM220704-0397</v>
       </c>
       <c r="F83" t="str">
-        <v>K6625-250MG</v>
+        <v>A0550-5G</v>
       </c>
       <c r="G83" t="str">
-        <v>250.000MG</v>
+        <v>5.000G</v>
       </c>
       <c r="H83" t="str">
-        <v>3304.90</v>
+        <v>776.85</v>
       </c>
       <c r="I83" t="str">
         <v>1.00</v>
       </c>
       <c r="J83" t="str">
-        <v>3304.90</v>
+        <v>776.85</v>
       </c>
       <c r="K83" t="str">
-        <v>MG</v>
+        <v>G</v>
       </c>
       <c r="L83" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>PO202108251044194018</v>
+        <v>PO202205191300544013</v>
       </c>
       <c r="B84" t="str">
         <v>黄香菇</v>
@@ -3560,28 +3560,28 @@
         <v>RG00901-夏宁邵</v>
       </c>
       <c r="D84" t="str">
-        <v>3,4-二羟基苯乙酸3,4-DIHYDROXYPHENYLACETIC ACID, 98%</v>
+        <v>X-tremeGENESUP?/SUP HP DNA转染试剂X-tremeGENE(TM) HP DNA Transfection Reagent</v>
       </c>
       <c r="E84" t="str">
-        <v>TM210906-0393</v>
+        <v>TM220620-0412</v>
       </c>
       <c r="F84" t="str">
-        <v>850217-1G</v>
+        <v>6366546001</v>
       </c>
       <c r="G84" t="str">
-        <v>1.000G</v>
+        <v>1EA</v>
       </c>
       <c r="H84" t="str">
-        <v>225.77</v>
+        <v>24743.44</v>
       </c>
       <c r="I84" t="str">
         <v>1.00</v>
       </c>
       <c r="J84" t="str">
-        <v>225.77</v>
+        <v>24743.44</v>
       </c>
       <c r="K84" t="str">
-        <v>G</v>
+        <v>EA</v>
       </c>
       <c r="L84" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>PO202108251044194018</v>
+        <v>PO202205191300544013</v>
       </c>
       <c r="B85" t="str">
         <v>黄香菇</v>
@@ -3598,25 +3598,25 @@
         <v>RG00901-夏宁邵</v>
       </c>
       <c r="D85" t="str">
-        <v>D-(?)-3-磷酸甘油酸 二钠盐D(-)3-PHOSPHOGLYCERIC ACID DISODIUM</v>
+        <v>氨基蝶呤AMINOPTERIN BIOREAGENT, SUITABLE FOR CE&amp;</v>
       </c>
       <c r="E85" t="str">
-        <v>TM210906-0393</v>
+        <v>TM220704-0386</v>
       </c>
       <c r="F85" t="str">
-        <v>P8877-10MG</v>
+        <v>A3411-25MG</v>
       </c>
       <c r="G85" t="str">
-        <v>10.000MG</v>
+        <v>25.000MG</v>
       </c>
       <c r="H85" t="str">
-        <v>164.54</v>
+        <v>1319.70</v>
       </c>
       <c r="I85" t="str">
-        <v>1.00</v>
+        <v>5.00</v>
       </c>
       <c r="J85" t="str">
-        <v>164.54</v>
+        <v>6598.50</v>
       </c>
       <c r="K85" t="str">
         <v>MG</v>
@@ -3627,37 +3627,37 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>PO202108251027264010</v>
+        <v>PO202205101048227413</v>
       </c>
       <c r="B86" t="str">
-        <v>黄香菇</v>
+        <v>解兴伟</v>
       </c>
       <c r="C86" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG01940-吕永龙</v>
       </c>
       <c r="D86" t="str">
-        <v>烟酸腺嘌呤二核苷酸 钠盐NICOTINIC ACID ADENINE DINUCLEOTIDE    &amp;amp;</v>
+        <v>氢氧化钠SODIUM HYDROXIDE, PELLETS, 97+%, A.C.S.&amp;</v>
       </c>
       <c r="E86" t="str">
-        <v>TM210906-0405</v>
+        <v>TM220716-0183</v>
       </c>
       <c r="F86" t="str">
-        <v>N4256-25MG</v>
+        <v>221465-25G</v>
       </c>
       <c r="G86" t="str">
-        <v>25.000MG</v>
+        <v>25.000G</v>
       </c>
       <c r="H86" t="str">
-        <v>1035.23</v>
+        <v>209.74</v>
       </c>
       <c r="I86" t="str">
-        <v>1.00</v>
+        <v>2.00</v>
       </c>
       <c r="J86" t="str">
-        <v>1035.23</v>
+        <v>419.48</v>
       </c>
       <c r="K86" t="str">
-        <v>MG</v>
+        <v>G</v>
       </c>
       <c r="L86" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -3665,37 +3665,37 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>PO202108251027264010</v>
+        <v>PO202205171039234116</v>
       </c>
       <c r="B87" t="str">
-        <v>黄香菇</v>
+        <v>吴雅颖</v>
       </c>
       <c r="C87" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG00860-韩家淮</v>
       </c>
       <c r="D87" t="str">
-        <v>Nα-乙酰基-L-鸟氨酸N-A-ACETYL-L-ORNITHINE CRYSTALLINE</v>
+        <v>豆甾醇STIGMASTEROL</v>
       </c>
       <c r="E87" t="str">
-        <v>TM210906-0405</v>
+        <v>TM220615-0459</v>
       </c>
       <c r="F87" t="str">
-        <v>A3626-500MG</v>
+        <v>S2424-1G</v>
       </c>
       <c r="G87" t="str">
-        <v>500.000MG</v>
+        <v>1.000G</v>
       </c>
       <c r="H87" t="str">
-        <v>2169.94</v>
+        <v>620.23</v>
       </c>
       <c r="I87" t="str">
         <v>1.00</v>
       </c>
       <c r="J87" t="str">
-        <v>2169.94</v>
+        <v>620.23</v>
       </c>
       <c r="K87" t="str">
-        <v>MG</v>
+        <v>G</v>
       </c>
       <c r="L87" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -3703,37 +3703,37 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>PO202108251027264010</v>
+        <v>PO202205171036234117</v>
       </c>
       <c r="B88" t="str">
-        <v>黄香菇</v>
+        <v>吴雅颖</v>
       </c>
       <c r="C88" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG00860-韩家淮</v>
       </c>
       <c r="D88" t="str">
-        <v>吡哆醛5-磷酸盐 水合物PYRIDOXAL 5-PHOSPHATE HYDRATE, =98%</v>
+        <v>22 (R)-羟基胆固醇22(R)-HYDROXYCHOLESTEROL</v>
       </c>
       <c r="E88" t="str">
-        <v>TM210906-0391</v>
+        <v>TM220615-0460</v>
       </c>
       <c r="F88" t="str">
-        <v>P9255-1G</v>
+        <v>H9384-1MG</v>
       </c>
       <c r="G88" t="str">
-        <v>1.000G</v>
+        <v>1.000MG</v>
       </c>
       <c r="H88" t="str">
-        <v>411.32</v>
+        <v>979.73</v>
       </c>
       <c r="I88" t="str">
         <v>1.00</v>
       </c>
       <c r="J88" t="str">
-        <v>411.32</v>
+        <v>979.73</v>
       </c>
       <c r="K88" t="str">
-        <v>G</v>
+        <v>MG</v>
       </c>
       <c r="L88" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -3741,37 +3741,37 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>PO202108251027264010</v>
+        <v>PO202205051418134023</v>
       </c>
       <c r="B89" t="str">
-        <v>黄香菇</v>
+        <v>郭宁</v>
       </c>
       <c r="C89" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG01087-王海滨</v>
       </c>
       <c r="D89" t="str">
-        <v>sn -甘油 3-磷酸 锂盐SN-GLYCEROL 3-PHOSPHATE LITHIUM SALT</v>
+        <v>乙二胺四乙酸 二钠盐 二水合物ETHYLENEDIAMINETETRAACETIC ACID DISOD&amp;amp;</v>
       </c>
       <c r="E89" t="str">
-        <v>TM210906-0391</v>
+        <v>TM220705-0153</v>
       </c>
       <c r="F89" t="str">
-        <v>94124-10MG</v>
+        <v>E6635-100G</v>
       </c>
       <c r="G89" t="str">
-        <v>10.000MG</v>
+        <v>100.000G</v>
       </c>
       <c r="H89" t="str">
-        <v>616.14</v>
+        <v>576.92</v>
       </c>
       <c r="I89" t="str">
         <v>1.00</v>
       </c>
       <c r="J89" t="str">
-        <v>616.14</v>
+        <v>576.92</v>
       </c>
       <c r="K89" t="str">
-        <v>MG</v>
+        <v>G</v>
       </c>
       <c r="L89" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -3779,37 +3779,37 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>PO202108251027264010</v>
+        <v>PO202205171030534112</v>
       </c>
       <c r="B90" t="str">
-        <v>黄香菇</v>
+        <v>吴雅颖</v>
       </c>
       <c r="C90" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG00860-韩家淮</v>
       </c>
       <c r="D90" t="str">
-        <v>硫胺素焦磷酸THIAMINE PYROPHOSPHATE, =95%</v>
+        <v>DIHYDROLANOSTEROL</v>
       </c>
       <c r="E90" t="str">
-        <v>TM210906-0405</v>
+        <v>TM220615-0427</v>
       </c>
       <c r="F90" t="str">
-        <v>C8754-1G</v>
+        <v>700067P-1MG</v>
       </c>
       <c r="G90" t="str">
-        <v>1.000G</v>
+        <v>1.000MG</v>
       </c>
       <c r="H90" t="str">
-        <v>208.78</v>
+        <v>1288.30</v>
       </c>
       <c r="I90" t="str">
         <v>1.00</v>
       </c>
       <c r="J90" t="str">
-        <v>208.78</v>
+        <v>1288.30</v>
       </c>
       <c r="K90" t="str">
-        <v>G</v>
+        <v>MG</v>
       </c>
       <c r="L90" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -3817,34 +3817,34 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>PO202108251027264010</v>
+        <v>PO202205171039234116</v>
       </c>
       <c r="B91" t="str">
-        <v>黄香菇</v>
+        <v>吴雅颖</v>
       </c>
       <c r="C91" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG00860-韩家淮</v>
       </c>
       <c r="D91" t="str">
-        <v>尿苷-5′-二磷酸 二钠盐 水合物URIDINE 5-DIPHOSPHATE DISODIUM S&amp;amp;</v>
+        <v>去氢胆甾醇DESMOSTEROL</v>
       </c>
       <c r="E91" t="str">
-        <v>TM210906-0405</v>
+        <v>TM220615-0443</v>
       </c>
       <c r="F91" t="str">
-        <v>94330-100MG</v>
+        <v>700060P-5MG</v>
       </c>
       <c r="G91" t="str">
-        <v>100.000MG</v>
+        <v>5.000MG</v>
       </c>
       <c r="H91" t="str">
-        <v>850.14</v>
+        <v>1724.17</v>
       </c>
       <c r="I91" t="str">
         <v>1.00</v>
       </c>
       <c r="J91" t="str">
-        <v>850.14</v>
+        <v>1724.17</v>
       </c>
       <c r="K91" t="str">
         <v>MG</v>
@@ -3855,37 +3855,37 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>PO202108251027264010</v>
+        <v>PO202205171036234117</v>
       </c>
       <c r="B92" t="str">
-        <v>黄香菇</v>
+        <v>吴雅颖</v>
       </c>
       <c r="C92" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG00860-韩家淮</v>
       </c>
       <c r="D92" t="str">
-        <v>尿苷5-单磷酸URIDINE 5-MONOPHOSPHATE, =98%</v>
+        <v>7 ALPHA-HYDROXYCHOLESTEROL</v>
       </c>
       <c r="E92" t="str">
-        <v>TM210902-0344</v>
+        <v>TM220615-0460</v>
       </c>
       <c r="F92" t="str">
-        <v>U1752-1G</v>
+        <v>700034P-5MG</v>
       </c>
       <c r="G92" t="str">
-        <v>1.000G</v>
+        <v>5.000MG</v>
       </c>
       <c r="H92" t="str">
-        <v>1517.31</v>
+        <v>1406.02</v>
       </c>
       <c r="I92" t="str">
         <v>1.00</v>
       </c>
       <c r="J92" t="str">
-        <v>1517.31</v>
+        <v>1406.02</v>
       </c>
       <c r="K92" t="str">
-        <v>G</v>
+        <v>MG</v>
       </c>
       <c r="L92" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -3893,37 +3893,37 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>PO202108251027264010</v>
+        <v>PO202205171032404113</v>
       </c>
       <c r="B93" t="str">
-        <v>黄香菇</v>
+        <v>吴雅颖</v>
       </c>
       <c r="C93" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG00860-韩家淮</v>
       </c>
       <c r="D93" t="str">
-        <v>5-METHOXY-L-TRYPTOPHAN</v>
+        <v>6 ALPHA-HYDROXY-5 ALPHA-CHOLESTANOL</v>
       </c>
       <c r="E93" t="str">
-        <v>TM210906-0402</v>
+        <v>TM220615-0454</v>
       </c>
       <c r="F93" t="str">
-        <v>SMB00930-100MG</v>
+        <v>700030P-5MG</v>
       </c>
       <c r="G93" t="str">
-        <v>100.000MG</v>
+        <v>5.000MG</v>
       </c>
       <c r="H93" t="str">
-        <v>1146.38</v>
+        <v>754.08</v>
       </c>
       <c r="I93" t="str">
         <v>1.00</v>
       </c>
       <c r="J93" t="str">
-        <v>1146.38</v>
+        <v>754.08</v>
       </c>
       <c r="K93" t="str">
-        <v>EA</v>
+        <v>MG</v>
       </c>
       <c r="L93" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -3931,37 +3931,37 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>PO202108251027264010</v>
+        <v>PO202205171032404113</v>
       </c>
       <c r="B94" t="str">
-        <v>黄香菇</v>
+        <v>吴雅颖</v>
       </c>
       <c r="C94" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG00860-韩家淮</v>
       </c>
       <c r="D94" t="str">
-        <v>甜菜碱BETAINE FREE BASE ANHYDROUS</v>
+        <v>15 ALPHA-HYDROXYCHOLESTENE</v>
       </c>
       <c r="E94" t="str">
-        <v>TM210906-0391</v>
+        <v>TM220615-0456</v>
       </c>
       <c r="F94" t="str">
-        <v>B2629-50G</v>
+        <v>700010P-5MG</v>
       </c>
       <c r="G94" t="str">
-        <v>50.000G</v>
+        <v>5.000MG</v>
       </c>
       <c r="H94" t="str">
-        <v>314.24</v>
+        <v>2534.91</v>
       </c>
       <c r="I94" t="str">
         <v>1.00</v>
       </c>
       <c r="J94" t="str">
-        <v>314.24</v>
+        <v>2534.91</v>
       </c>
       <c r="K94" t="str">
-        <v>G</v>
+        <v>MG</v>
       </c>
       <c r="L94" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -3969,34 +3969,34 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>PO202108251027264010</v>
+        <v>PO202205171032404113</v>
       </c>
       <c r="B95" t="str">
-        <v>黄香菇</v>
+        <v>吴雅颖</v>
       </c>
       <c r="C95" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG00860-韩家淮</v>
       </c>
       <c r="D95" t="str">
-        <v>CYTIDINE 5-MONOPHOSPHATE DISODIUM&amp;amp;</v>
+        <v>7α-羟基-4-胆甾烯-3-酮7ALPHA-HYDROXY-4-CHOLESTEN-3-ONE</v>
       </c>
       <c r="E95" t="str">
-        <v>TM210906-0391</v>
+        <v>TM220615-0456</v>
       </c>
       <c r="F95" t="str">
-        <v>C1006-500MG</v>
+        <v>52853-1MG</v>
       </c>
       <c r="G95" t="str">
-        <v>500.000MG</v>
+        <v>1.000MG</v>
       </c>
       <c r="H95" t="str">
-        <v>349.75</v>
+        <v>3691.21</v>
       </c>
       <c r="I95" t="str">
         <v>1.00</v>
       </c>
       <c r="J95" t="str">
-        <v>349.75</v>
+        <v>3691.21</v>
       </c>
       <c r="K95" t="str">
         <v>MG</v>
@@ -4007,34 +4007,34 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>PO202108251027264010</v>
+        <v>PO202205171032404113</v>
       </c>
       <c r="B96" t="str">
-        <v>黄香菇</v>
+        <v>吴雅颖</v>
       </c>
       <c r="C96" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG00860-韩家淮</v>
       </c>
       <c r="D96" t="str">
-        <v>羟脯氨酸HYDROXYPROLINE</v>
+        <v>3 BETA-HYDROXY-5-CHOLESTENOIC ACID</v>
       </c>
       <c r="E96" t="str">
-        <v>TM210906-0389</v>
+        <v>TM220615-0450</v>
       </c>
       <c r="F96" t="str">
-        <v>PHR1939-500MG</v>
+        <v>700082P-1MG</v>
       </c>
       <c r="G96" t="str">
-        <v>500.000MG</v>
+        <v>1.000MG</v>
       </c>
       <c r="H96" t="str">
-        <v>1393.68</v>
+        <v>2699.13</v>
       </c>
       <c r="I96" t="str">
         <v>1.00</v>
       </c>
       <c r="J96" t="str">
-        <v>1393.68</v>
+        <v>2699.13</v>
       </c>
       <c r="K96" t="str">
         <v>MG</v>
@@ -4045,37 +4045,37 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>PO202108251027264010</v>
+        <v>PO202205171032404113</v>
       </c>
       <c r="B97" t="str">
-        <v>黄香菇</v>
+        <v>吴雅颖</v>
       </c>
       <c r="C97" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG00860-韩家淮</v>
       </c>
       <c r="D97" t="str">
-        <v>烟酸NICOTINIC ACID</v>
+        <v>7 ALPHA-HYDROXY-3-OXO-4-CHOLESTENOIC AC&amp;</v>
       </c>
       <c r="E97" t="str">
-        <v>TM210906-0389</v>
+        <v>TM220615-0450</v>
       </c>
       <c r="F97" t="str">
-        <v>72309-100G</v>
+        <v>700027P-1MG</v>
       </c>
       <c r="G97" t="str">
-        <v>100.000G</v>
+        <v>1.000MG</v>
       </c>
       <c r="H97" t="str">
-        <v>373.43</v>
+        <v>3537.65</v>
       </c>
       <c r="I97" t="str">
         <v>1.00</v>
       </c>
       <c r="J97" t="str">
-        <v>373.43</v>
+        <v>3537.65</v>
       </c>
       <c r="K97" t="str">
-        <v>G</v>
+        <v>MG</v>
       </c>
       <c r="L97" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -4083,34 +4083,34 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>PO202108251027264010</v>
+        <v>PO202205170920284110</v>
       </c>
       <c r="B98" t="str">
-        <v>黄香菇</v>
+        <v>吴雅颖</v>
       </c>
       <c r="C98" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG00860-韩家淮</v>
       </c>
       <c r="D98" t="str">
-        <v>β-烟酰胺单核苷酸B-NICOTINAMIDE MONONUCLEOTIDE</v>
+        <v>SITOSTANOL</v>
       </c>
       <c r="E98" t="str">
-        <v>TM210906-0391</v>
+        <v>TM220615-0446</v>
       </c>
       <c r="F98" t="str">
-        <v>N3501-25MG</v>
+        <v>700121P-5MG</v>
       </c>
       <c r="G98" t="str">
-        <v>25.000MG</v>
+        <v>5.000MG</v>
       </c>
       <c r="H98" t="str">
-        <v>937.30</v>
+        <v>1406.02</v>
       </c>
       <c r="I98" t="str">
         <v>1.00</v>
       </c>
       <c r="J98" t="str">
-        <v>937.30</v>
+        <v>1406.02</v>
       </c>
       <c r="K98" t="str">
         <v>MG</v>
@@ -4121,37 +4121,37 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>PO202108251027264010</v>
+        <v>PO202205170920284110</v>
       </c>
       <c r="B99" t="str">
-        <v>黄香菇</v>
+        <v>吴雅颖</v>
       </c>
       <c r="C99" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG00860-韩家淮</v>
       </c>
       <c r="D99" t="str">
-        <v>叶酸FOLIC ACID</v>
+        <v>环阿屯醇CYCLOARTENOL</v>
       </c>
       <c r="E99" t="str">
-        <v>TM210906-0391</v>
+        <v>TM220617-0311</v>
       </c>
       <c r="F99" t="str">
-        <v>F7876-1G</v>
+        <v>08172-5MG</v>
       </c>
       <c r="G99" t="str">
-        <v>1.000G</v>
+        <v>5.000MG</v>
       </c>
       <c r="H99" t="str">
-        <v>168.86</v>
+        <v>3088.48</v>
       </c>
       <c r="I99" t="str">
         <v>1.00</v>
       </c>
       <c r="J99" t="str">
-        <v>168.86</v>
+        <v>3088.48</v>
       </c>
       <c r="K99" t="str">
-        <v>G</v>
+        <v>MG</v>
       </c>
       <c r="L99" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -4159,34 +4159,34 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>PO202108251027264010</v>
+        <v>PO202205170920284110</v>
       </c>
       <c r="B100" t="str">
-        <v>黄香菇</v>
+        <v>吴雅颖</v>
       </c>
       <c r="C100" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG00860-韩家淮</v>
       </c>
       <c r="D100" t="str">
-        <v>二氢叶酸DIHYDROFOLIC ACID</v>
+        <v>芜莆甾醇BRASSICASTEROL</v>
       </c>
       <c r="E100" t="str">
-        <v>TM210906-0391</v>
+        <v>TM220617-0311</v>
       </c>
       <c r="F100" t="str">
-        <v>D7006-10MG</v>
+        <v>B4936-5MG</v>
       </c>
       <c r="G100" t="str">
-        <v>10.000MG</v>
+        <v>5.000MG</v>
       </c>
       <c r="H100" t="str">
-        <v>855.09</v>
+        <v>4369.36</v>
       </c>
       <c r="I100" t="str">
         <v>1.00</v>
       </c>
       <c r="J100" t="str">
-        <v>855.09</v>
+        <v>4369.36</v>
       </c>
       <c r="K100" t="str">
         <v>MG</v>
@@ -4197,34 +4197,34 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>PO202108251027264010</v>
+        <v>PO202205171030534112</v>
       </c>
       <c r="B101" t="str">
-        <v>黄香菇</v>
+        <v>吴雅颖</v>
       </c>
       <c r="C101" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG00860-韩家淮</v>
       </c>
       <c r="D101" t="str">
-        <v>四氢叶酸TETRAHYDROFOLIC ACID SEALED AMPULE</v>
+        <v>FF-MAS</v>
       </c>
       <c r="E101" t="str">
-        <v>TM210906-0389</v>
+        <v>TM220615-0478</v>
       </c>
       <c r="F101" t="str">
-        <v>T3125-25MG</v>
+        <v>700077P-1MG</v>
       </c>
       <c r="G101" t="str">
-        <v>25.000MG</v>
+        <v>1.000MG</v>
       </c>
       <c r="H101" t="str">
-        <v>464.90</v>
+        <v>6352.66</v>
       </c>
       <c r="I101" t="str">
         <v>1.00</v>
       </c>
       <c r="J101" t="str">
-        <v>464.90</v>
+        <v>6352.66</v>
       </c>
       <c r="K101" t="str">
         <v>MG</v>
@@ -4235,37 +4235,37 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>PO202108251027264010</v>
+        <v>PO202205171030534112</v>
       </c>
       <c r="B102" t="str">
-        <v>黄香菇</v>
+        <v>吴雅颖</v>
       </c>
       <c r="C102" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG00860-韩家淮</v>
       </c>
       <c r="D102" t="str">
-        <v>氨基葡萄糖GLUCOSAMINE HYDROCHLORIDE</v>
+        <v>7-脱氢胆固醇7-DEHYDROCHOLESTEROL</v>
       </c>
       <c r="E102" t="str">
-        <v>TM210906-0389</v>
+        <v>TM220615-0424</v>
       </c>
       <c r="F102" t="str">
-        <v>PHR1199-500MG</v>
+        <v>30800-5G-F</v>
       </c>
       <c r="G102" t="str">
-        <v>500.000MG</v>
+        <v>5.000G</v>
       </c>
       <c r="H102" t="str">
-        <v>792.52</v>
+        <v>567.21</v>
       </c>
       <c r="I102" t="str">
         <v>1.00</v>
       </c>
       <c r="J102" t="str">
-        <v>792.52</v>
+        <v>567.21</v>
       </c>
       <c r="K102" t="str">
-        <v>MG</v>
+        <v>G</v>
       </c>
       <c r="L102" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -4273,34 +4273,34 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>PO202108251027264010</v>
+        <v>PO202205171030534112</v>
       </c>
       <c r="B103" t="str">
-        <v>黄香菇</v>
+        <v>吴雅颖</v>
       </c>
       <c r="C103" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG00860-韩家淮</v>
       </c>
       <c r="D103" t="str">
-        <v>N -乙酰基- D -氨基葡萄糖N-ACETYL-D-GLUCOSAMINE =&amp;amp;</v>
+        <v>β-谷甾醇B-SITOSTEROL SYNTHETIC APPROX. 95%</v>
       </c>
       <c r="E103" t="str">
-        <v>TM210906-0389</v>
+        <v>TM220615-0424</v>
       </c>
       <c r="F103" t="str">
-        <v>A8625-10MG</v>
+        <v>S1270-10MG</v>
       </c>
       <c r="G103" t="str">
         <v>10.000MG</v>
       </c>
       <c r="H103" t="str">
-        <v>211.09</v>
+        <v>1795.66</v>
       </c>
       <c r="I103" t="str">
         <v>1.00</v>
       </c>
       <c r="J103" t="str">
-        <v>211.09</v>
+        <v>1795.66</v>
       </c>
       <c r="K103" t="str">
         <v>MG</v>
@@ -4311,34 +4311,34 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>PO202108171046304011</v>
+        <v>PO202205171030534112</v>
       </c>
       <c r="B104" t="str">
-        <v>黄香菇</v>
+        <v>吴雅颖</v>
       </c>
       <c r="C104" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG00860-韩家淮</v>
       </c>
       <c r="D104" t="str">
-        <v>N-乙酰神经氨酸N-ACETYLNEURAMINIC ACID, SYNTHETIC</v>
+        <v>5α-胆甾烷溶液5A-CHOLESTANE, =97%(HPLC)</v>
       </c>
       <c r="E104" t="str">
-        <v>TM210819-0076</v>
+        <v>TM220615-0478</v>
       </c>
       <c r="F104" t="str">
-        <v>A0812-25MG</v>
+        <v>C8003-100MG</v>
       </c>
       <c r="G104" t="str">
-        <v>25.000MG</v>
+        <v>100.000MG</v>
       </c>
       <c r="H104" t="str">
-        <v>473.02</v>
+        <v>447.74</v>
       </c>
       <c r="I104" t="str">
         <v>1.00</v>
       </c>
       <c r="J104" t="str">
-        <v>473.02</v>
+        <v>447.74</v>
       </c>
       <c r="K104" t="str">
         <v>MG</v>
@@ -4349,34 +4349,34 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>PO202108171046304011</v>
+        <v>PO202205171030534112</v>
       </c>
       <c r="B105" t="str">
-        <v>黄香菇</v>
+        <v>吴雅颖</v>
       </c>
       <c r="C105" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG00860-韩家淮</v>
       </c>
       <c r="D105" t="str">
-        <v>胞苷-5 &amp;amp; # 8242;-单磷氮乙酰神经氨酸 钠盐CYTIDINE 5-MONOPHOSPHO-N-             &amp;amp;</v>
+        <v>5β-胆甾烷-3α-醇EPICOPROSTANOL</v>
       </c>
       <c r="E105" t="str">
-        <v>TM210819-0076</v>
+        <v>TM220615-0483</v>
       </c>
       <c r="F105" t="str">
-        <v>C8271-1MG</v>
+        <v>1236663-200MG</v>
       </c>
       <c r="G105" t="str">
-        <v>1.000MG</v>
+        <v>200.000MG</v>
       </c>
       <c r="H105" t="str">
-        <v>673.66</v>
+        <v>3571.04</v>
       </c>
       <c r="I105" t="str">
         <v>1.00</v>
       </c>
       <c r="J105" t="str">
-        <v>673.66</v>
+        <v>3571.04</v>
       </c>
       <c r="K105" t="str">
         <v>MG</v>
@@ -4387,37 +4387,37 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>PO202108171046304011</v>
+        <v>PO202205171030534112</v>
       </c>
       <c r="B106" t="str">
-        <v>黄香菇</v>
+        <v>吴雅颖</v>
       </c>
       <c r="C106" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG00860-韩家淮</v>
       </c>
       <c r="D106" t="str">
-        <v>D -(+)-半乳糖D-(+)-GALACTOSE, = 99%</v>
+        <v>(+)-4-胆甾烯-3-酮(+)-4-CHOLESTEN-3-ONE, 98%</v>
       </c>
       <c r="E106" t="str">
-        <v>TM210819-0076</v>
+        <v>TM220615-0452</v>
       </c>
       <c r="F106" t="str">
-        <v>G0750-10MG</v>
+        <v>188174-1G</v>
       </c>
       <c r="G106" t="str">
-        <v>10.000MG</v>
+        <v>1.000G</v>
       </c>
       <c r="H106" t="str">
-        <v>192.68</v>
+        <v>348.55</v>
       </c>
       <c r="I106" t="str">
         <v>1.00</v>
       </c>
       <c r="J106" t="str">
-        <v>192.68</v>
+        <v>348.55</v>
       </c>
       <c r="K106" t="str">
-        <v>MG</v>
+        <v>G</v>
       </c>
       <c r="L106" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -4425,37 +4425,37 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>PO202108171046304011</v>
+        <v>PO202205170920284110</v>
       </c>
       <c r="B107" t="str">
-        <v>黄香菇</v>
+        <v>吴雅颖</v>
       </c>
       <c r="C107" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG00860-韩家淮</v>
       </c>
       <c r="D107" t="str">
-        <v>D-MANNITOL 1-PHOSPHATE LITHIUM SALT</v>
+        <v>皮质酮标准液 溶液CORTICOSTERONE</v>
       </c>
       <c r="E107" t="str">
-        <v>TM210819-0076</v>
+        <v>TM220615-0432</v>
       </c>
       <c r="F107" t="str">
-        <v>92416-10MG</v>
+        <v>C-117-1ML</v>
       </c>
       <c r="G107" t="str">
-        <v>0.010G</v>
+        <v>3.400G</v>
       </c>
       <c r="H107" t="str">
-        <v>4606.16</v>
+        <v>989.20</v>
       </c>
       <c r="I107" t="str">
         <v>1.00</v>
       </c>
       <c r="J107" t="str">
-        <v>4606.16</v>
+        <v>989.20</v>
       </c>
       <c r="K107" t="str">
-        <v>MG</v>
+        <v>ML</v>
       </c>
       <c r="L107" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -4463,37 +4463,37 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>PO202108171046304011</v>
+        <v>PO202205170920284110</v>
       </c>
       <c r="B108" t="str">
-        <v>黄香菇</v>
+        <v>吴雅颖</v>
       </c>
       <c r="C108" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG00860-韩家淮</v>
       </c>
       <c r="D108" t="str">
-        <v>4-羟肉桂酸for synthesis</v>
+        <v>皮质醇标准液 溶液CORTISOL</v>
       </c>
       <c r="E108" t="str">
-        <v>TM210906-0388</v>
+        <v>TM220617-0311</v>
       </c>
       <c r="F108" t="str">
-        <v>8002370010</v>
+        <v>C-106-1ML</v>
       </c>
       <c r="G108" t="str">
-        <v>1EA</v>
+        <v>3.400G</v>
       </c>
       <c r="H108" t="str">
-        <v>350.60</v>
+        <v>1058.63</v>
       </c>
       <c r="I108" t="str">
         <v>1.00</v>
       </c>
       <c r="J108" t="str">
-        <v>350.60</v>
+        <v>1058.63</v>
       </c>
       <c r="K108" t="str">
-        <v>EA</v>
+        <v>ML</v>
       </c>
       <c r="L108" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -4501,37 +4501,37 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>PO202108171046304011</v>
+        <v>PO202205170920284110</v>
       </c>
       <c r="B109" t="str">
-        <v>黄香菇</v>
+        <v>吴雅颖</v>
       </c>
       <c r="C109" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG00860-韩家淮</v>
       </c>
       <c r="D109" t="str">
-        <v>吲哚-3-丙酮酸INDOLE-3-PYRUVIC ACID, =97%</v>
+        <v>可的松标准液 溶液CORTISONE</v>
       </c>
       <c r="E109" t="str">
-        <v>TM210819-0079</v>
+        <v>TM220617-0311</v>
       </c>
       <c r="F109" t="str">
-        <v>I7017-1G</v>
+        <v>C-130-1ML</v>
       </c>
       <c r="G109" t="str">
-        <v>1.000G</v>
+        <v>0.791G</v>
       </c>
       <c r="H109" t="str">
-        <v>1640.14</v>
+        <v>737.33</v>
       </c>
       <c r="I109" t="str">
         <v>1.00</v>
       </c>
       <c r="J109" t="str">
-        <v>1640.14</v>
+        <v>737.33</v>
       </c>
       <c r="K109" t="str">
-        <v>G</v>
+        <v>ML</v>
       </c>
       <c r="L109" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -4539,110 +4539,110 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>PO202107021729584914</v>
+        <v>PO202205170920284110</v>
       </c>
       <c r="B110" t="str">
-        <v>许韧</v>
+        <v>吴雅颖</v>
       </c>
       <c r="C110" t="str">
-        <v>RG01089-许韧</v>
+        <v>RG00860-韩家淮</v>
       </c>
       <c r="D110" t="str">
-        <v>Phosphatase substrate</v>
+        <v>11-脱氧皮质酮 溶液11-DEOXYCORTICOSTERONE</v>
       </c>
       <c r="E110" t="str">
-        <v>TM210906-0328</v>
+        <v>TM220617-0311</v>
       </c>
       <c r="F110" t="str">
-        <v>S0942-100TAB</v>
+        <v>D-105-1ML</v>
       </c>
       <c r="G110" t="str">
-        <v>100TAB</v>
+        <v>0.791G</v>
       </c>
       <c r="H110" t="str">
-        <v>731.29</v>
+        <v>1341.79</v>
       </c>
       <c r="I110" t="str">
         <v>1.00</v>
       </c>
       <c r="J110" t="str">
-        <v>731.29</v>
+        <v>1341.79</v>
       </c>
       <c r="K110" t="str">
-        <v>TAB</v>
+        <v>ML</v>
       </c>
       <c r="L110" t="str">
-        <v>与官网同步</v>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>PO202107132304334015</v>
+        <v>PO202205170920284110</v>
       </c>
       <c r="B111" t="str">
-        <v>黄香菇</v>
+        <v>吴雅颖</v>
       </c>
       <c r="C111" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG00860-韩家淮</v>
       </c>
       <c r="D111" t="str">
-        <v>MCDB 153 Medium</v>
+        <v>11-脱氧皮质激素标准液 溶液11-DEOXYCORTISOL</v>
       </c>
       <c r="E111" t="str">
-        <v>TM210805-0275</v>
+        <v>TM220617-0311</v>
       </c>
       <c r="F111" t="str">
-        <v>M7403-10X1L</v>
+        <v>D-061-1ML</v>
       </c>
       <c r="G111" t="str">
-        <v>10X1L</v>
+        <v>3.400G</v>
       </c>
       <c r="H111" t="str">
-        <v>1683.43</v>
+        <v>1425.33</v>
       </c>
       <c r="I111" t="str">
         <v>1.00</v>
       </c>
       <c r="J111" t="str">
-        <v>1683.43</v>
+        <v>1425.33</v>
       </c>
       <c r="K111" t="str">
-        <v>LT</v>
+        <v>ML</v>
       </c>
       <c r="L111" t="str">
-        <v>与官网同步</v>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>PO202108161017435111</v>
+        <v>PO202205170920284110</v>
       </c>
       <c r="B112" t="str">
-        <v>杨奇兵</v>
+        <v>吴雅颖</v>
       </c>
       <c r="C112" t="str">
-        <v>RG01091-曹彬</v>
+        <v>RG00860-韩家淮</v>
       </c>
       <c r="D112" t="str">
-        <v>甲基乙二醛 溶液METHYLGLYOXAL</v>
+        <v>醛固酮标准液 溶液ALDOSTERONE</v>
       </c>
       <c r="E112" t="str">
-        <v>TM210903-0222</v>
+        <v>TM220615-0447</v>
       </c>
       <c r="F112" t="str">
-        <v>M0252-25ML</v>
+        <v>A-096-1ML</v>
       </c>
       <c r="G112" t="str">
-        <v>29.750G</v>
+        <v>3.400G</v>
       </c>
       <c r="H112" t="str">
-        <v>890.02</v>
+        <v>2290.27</v>
       </c>
       <c r="I112" t="str">
         <v>1.00</v>
       </c>
       <c r="J112" t="str">
-        <v>890.02</v>
+        <v>2290.27</v>
       </c>
       <c r="K112" t="str">
         <v>ML</v>
@@ -4653,37 +4653,37 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>PO202108161041216550</v>
+        <v>PO202205170918164115</v>
       </c>
       <c r="B113" t="str">
-        <v>参丹</v>
+        <v>吴雅颖</v>
       </c>
       <c r="C113" t="str">
-        <v>RG01092-张杰</v>
+        <v>RG00860-韩家淮</v>
       </c>
       <c r="D113" t="str">
-        <v>氯化铯CESIUM CHLORIDE, REAGENTPLUS(R), 99.9%</v>
+        <v>雌酚酮 溶液ESTRONE</v>
       </c>
       <c r="E113" t="str">
-        <v>TM210908-0255</v>
+        <v>TM220615-0448</v>
       </c>
       <c r="F113" t="str">
-        <v>289329-25G</v>
+        <v>E-075-1ML</v>
       </c>
       <c r="G113" t="str">
-        <v>25.000G</v>
+        <v>3.400G</v>
       </c>
       <c r="H113" t="str">
-        <v>626.17</v>
+        <v>1327.88</v>
       </c>
       <c r="I113" t="str">
         <v>1.00</v>
       </c>
       <c r="J113" t="str">
-        <v>626.17</v>
+        <v>1327.88</v>
       </c>
       <c r="K113" t="str">
-        <v>G</v>
+        <v>ML</v>
       </c>
       <c r="L113" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -4691,37 +4691,37 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>PO202108161041216550</v>
+        <v>PO202205170918164115</v>
       </c>
       <c r="B114" t="str">
-        <v>参丹</v>
+        <v>吴雅颖</v>
       </c>
       <c r="C114" t="str">
-        <v>RG01092-张杰</v>
+        <v>RG00860-韩家淮</v>
       </c>
       <c r="D114" t="str">
-        <v>N -甲基- D -葡胺N-METHYL-D-GLUCAMINE</v>
+        <v>β-雌二醇B-ESTRADIOL BIOREAGENT, SUITABLE FOR CE&amp;</v>
       </c>
       <c r="E114" t="str">
-        <v>TM210908-0255</v>
+        <v>TM220615-0466</v>
       </c>
       <c r="F114" t="str">
-        <v>M2004-500G</v>
+        <v>E2758-250MG</v>
       </c>
       <c r="G114" t="str">
-        <v>500.000G</v>
+        <v>250.000MG</v>
       </c>
       <c r="H114" t="str">
-        <v>669.35</v>
+        <v>655.59</v>
       </c>
       <c r="I114" t="str">
         <v>1.00</v>
       </c>
       <c r="J114" t="str">
-        <v>669.35</v>
+        <v>655.59</v>
       </c>
       <c r="K114" t="str">
-        <v>G</v>
+        <v>MG</v>
       </c>
       <c r="L114" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -4729,37 +4729,37 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>PO202108161041216550</v>
+        <v>PO202205170918164115</v>
       </c>
       <c r="B115" t="str">
-        <v>参丹</v>
+        <v>吴雅颖</v>
       </c>
       <c r="C115" t="str">
-        <v>RG01092-张杰</v>
+        <v>RG00860-韩家淮</v>
       </c>
       <c r="D115" t="str">
-        <v>N-乙酰基-L-半胱氨酸N-ACETYL-L-CYSTEINE SIGMA GRADE</v>
+        <v>雌三醇 溶液ESTRIOL</v>
       </c>
       <c r="E115" t="str">
-        <v>TM210908-0255</v>
+        <v>TM220615-0466</v>
       </c>
       <c r="F115" t="str">
-        <v>A7250-10G</v>
+        <v>E-074-1ML</v>
       </c>
       <c r="G115" t="str">
-        <v>10.000G</v>
+        <v>3.400G</v>
       </c>
       <c r="H115" t="str">
-        <v>341.40</v>
+        <v>1498.42</v>
       </c>
       <c r="I115" t="str">
         <v>1.00</v>
       </c>
       <c r="J115" t="str">
-        <v>341.40</v>
+        <v>1498.42</v>
       </c>
       <c r="K115" t="str">
-        <v>G</v>
+        <v>ML</v>
       </c>
       <c r="L115" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -4767,37 +4767,37 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>PO202108131252384855</v>
+        <v>PO202205170918164115</v>
       </c>
       <c r="B116" t="str">
-        <v>陈青花</v>
+        <v>吴雅颖</v>
       </c>
       <c r="C116" t="str">
-        <v>RG00893-周大旺</v>
+        <v>RG00860-韩家淮</v>
       </c>
       <c r="D116" t="str">
-        <v>SYLGARD(R) 184, 10 G CLIP-PACK</v>
+        <v>黄体酮PROGESTERONE</v>
       </c>
       <c r="E116" t="str">
-        <v>TM210903-0187</v>
+        <v>TM220615-0466</v>
       </c>
       <c r="F116" t="str">
-        <v>761036-5EA</v>
+        <v>P0130-25G</v>
       </c>
       <c r="G116" t="str">
-        <v>5.000G</v>
+        <v>25.000G</v>
       </c>
       <c r="H116" t="str">
-        <v>2095.43</v>
+        <v>1677.34</v>
       </c>
       <c r="I116" t="str">
         <v>1.00</v>
       </c>
       <c r="J116" t="str">
-        <v>2095.43</v>
+        <v>1677.34</v>
       </c>
       <c r="K116" t="str">
-        <v>EA</v>
+        <v>G</v>
       </c>
       <c r="L116" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -4805,37 +4805,37 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>PO202108131529402812</v>
+        <v>PO202205170918164115</v>
       </c>
       <c r="B117" t="str">
-        <v>林雅滢</v>
+        <v>吴雅颖</v>
       </c>
       <c r="C117" t="str">
-        <v>RG00780-林泓域</v>
+        <v>RG00860-韩家淮</v>
       </c>
       <c r="D117" t="str">
-        <v>硫酸铜COPPER(II) SULFATE ANHYDROUS</v>
+        <v>5α-二氢睾酮(DHT)标准液 溶液5ALPHA-DIHYDROTESTOSTERONE (DHT)</v>
       </c>
       <c r="E117" t="str">
-        <v>TM210827-0124</v>
+        <v>TM220615-0472</v>
       </c>
       <c r="F117" t="str">
-        <v>61230-100G-F</v>
+        <v>D-073-1ML</v>
       </c>
       <c r="G117" t="str">
-        <v>100.000G</v>
+        <v>3.400G</v>
       </c>
       <c r="H117" t="str">
-        <v>589.28</v>
+        <v>1425.33</v>
       </c>
       <c r="I117" t="str">
         <v>1.00</v>
       </c>
       <c r="J117" t="str">
-        <v>589.28</v>
+        <v>1425.33</v>
       </c>
       <c r="K117" t="str">
-        <v>G</v>
+        <v>ML</v>
       </c>
       <c r="L117" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -4843,37 +4843,37 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>PO202108161127340113</v>
+        <v>PO202205170918164115</v>
       </c>
       <c r="B118" t="str">
-        <v>江彬</v>
+        <v>吴雅颖</v>
       </c>
       <c r="C118" t="str">
-        <v>RG00724-李勤喜</v>
+        <v>RG00860-韩家淮</v>
       </c>
       <c r="D118" t="str">
-        <v>胞嘧啶β-D-呋喃阿拉伯糖苷 盐酸盐CYTOSINE-B-D-ARABINOFURANOSIDE HYDROCHLO</v>
+        <v>脱氢表雄酮（DHEA）标准液 溶液DEHYDROEPIANDROSTERONE (DHEA)</v>
       </c>
       <c r="E118" t="str">
-        <v>TM210827-0114</v>
+        <v>TM220615-0466</v>
       </c>
       <c r="F118" t="str">
-        <v>C6645-100MG</v>
+        <v>D-063-1ML</v>
       </c>
       <c r="G118" t="str">
-        <v>100.000MG</v>
+        <v>3.400G</v>
       </c>
       <c r="H118" t="str">
-        <v>518.04</v>
+        <v>1135.41</v>
       </c>
       <c r="I118" t="str">
         <v>1.00</v>
       </c>
       <c r="J118" t="str">
-        <v>518.04</v>
+        <v>1135.41</v>
       </c>
       <c r="K118" t="str">
-        <v>MG</v>
+        <v>ML</v>
       </c>
       <c r="L118" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -4881,34 +4881,34 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>PO202108251044194018</v>
+        <v>PO202205091657324611</v>
       </c>
       <c r="B119" t="str">
-        <v>黄香菇</v>
+        <v>林文芳</v>
       </c>
       <c r="C119" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG00946-史大林</v>
       </c>
       <c r="D119" t="str">
-        <v>6-磷酸葡萄糖酸 三钠盐6-PHOSPHOGLUCONIC ACID TRISODIUM SALT &amp;amp;&amp;amp;</v>
+        <v>β-烟酰胺腺嘌呤二核苷酸 水合物BETA-NICOTINAMIDE ADENINE DINUCLEOTIDE&amp;</v>
       </c>
       <c r="E119" t="str">
-        <v>TM210906-0393</v>
+        <v>TM220714-0322</v>
       </c>
       <c r="F119" t="str">
-        <v>P7877-100MG</v>
+        <v>N7004-250MG</v>
       </c>
       <c r="G119" t="str">
-        <v>100.000MG</v>
+        <v>250.000MG</v>
       </c>
       <c r="H119" t="str">
-        <v>402.66</v>
+        <v>353.75</v>
       </c>
       <c r="I119" t="str">
         <v>1.00</v>
       </c>
       <c r="J119" t="str">
-        <v>402.66</v>
+        <v>353.75</v>
       </c>
       <c r="K119" t="str">
         <v>MG</v>
@@ -4919,37 +4919,37 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>PO202108131700355513</v>
+        <v>PO202205171039234116</v>
       </c>
       <c r="B120" t="str">
-        <v>卢颖</v>
+        <v>吴雅颖</v>
       </c>
       <c r="C120" t="str">
-        <v>RG00948-柯才焕</v>
+        <v>RG00860-韩家淮</v>
       </c>
       <c r="D120" t="str">
-        <v>多聚甲醛PARAFORMALDEHYDE, REAGENT GRADE</v>
+        <v>DIHYDROLANOSTEROL</v>
       </c>
       <c r="E120" t="str">
-        <v>TM210827-0144</v>
+        <v>TM220615-0455</v>
       </c>
       <c r="F120" t="str">
-        <v>P6148-500G</v>
+        <v>700067P-1MG</v>
       </c>
       <c r="G120" t="str">
-        <v>500.000G</v>
+        <v>1.000MG</v>
       </c>
       <c r="H120" t="str">
-        <v>418.64</v>
+        <v>1288.30</v>
       </c>
       <c r="I120" t="str">
         <v>1.00</v>
       </c>
       <c r="J120" t="str">
-        <v>418.64</v>
+        <v>1288.30</v>
       </c>
       <c r="K120" t="str">
-        <v>G</v>
+        <v>MG</v>
       </c>
       <c r="L120" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -4957,34 +4957,34 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>PO202108161352319912</v>
+        <v>PO202205191300544013</v>
       </c>
       <c r="B121" t="str">
-        <v>刘祥忠</v>
+        <v>黄香菇</v>
       </c>
       <c r="C121" t="str">
-        <v>RG00855-陈海峰</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D121" t="str">
-        <v>四甲基乙二胺N,N,N,N-TETRAMETHYLETHYLE&amp;amp;</v>
+        <v>杜氏改良 Eagle 培养基 - 高葡萄糖DULBECCOS MODIFIED EAGLES MEDIUM - HIG</v>
       </c>
       <c r="E121" t="str">
-        <v>TM210902-0294</v>
+        <v>TM220606-0492</v>
       </c>
       <c r="F121" t="str">
-        <v>T9281-100ML</v>
+        <v>D6429-500ML</v>
       </c>
       <c r="G121" t="str">
-        <v>77.000G</v>
+        <v>500.000G</v>
       </c>
       <c r="H121" t="str">
-        <v>437.66</v>
+        <v>41.00</v>
       </c>
       <c r="I121" t="str">
-        <v>1.00</v>
+        <v>32.00</v>
       </c>
       <c r="J121" t="str">
-        <v>437.66</v>
+        <v>1312.00</v>
       </c>
       <c r="K121" t="str">
         <v>ML</v>
@@ -4995,37 +4995,37 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>PO202108041936486015</v>
+        <v>PO202205170920284110</v>
       </c>
       <c r="B122" t="str">
-        <v>李苗</v>
+        <v>吴雅颖</v>
       </c>
       <c r="C122" t="str">
-        <v>RG01752-张桥保</v>
+        <v>RG00860-韩家淮</v>
       </c>
       <c r="D122" t="str">
-        <v>丁二腈SUCCINONITRILE, 99%</v>
+        <v>岩藻甾醇FUCOSTEROL</v>
       </c>
       <c r="E122" t="str">
-        <v>TM210903-0248</v>
+        <v>TM220615-0446</v>
       </c>
       <c r="F122" t="str">
-        <v>160962-25G</v>
+        <v>F5379-5MG</v>
       </c>
       <c r="G122" t="str">
-        <v>25.000G</v>
+        <v>5.000MG</v>
       </c>
       <c r="H122" t="str">
-        <v>148.75</v>
+        <v>3303.54</v>
       </c>
       <c r="I122" t="str">
         <v>1.00</v>
       </c>
       <c r="J122" t="str">
-        <v>148.75</v>
+        <v>3303.54</v>
       </c>
       <c r="K122" t="str">
-        <v>G</v>
+        <v>MG</v>
       </c>
       <c r="L122" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -5033,151 +5033,151 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>PO202108152255568419</v>
+        <v>PO202205231738568712</v>
       </c>
       <c r="B123" t="str">
-        <v>叶峰</v>
+        <v>吴素琴</v>
       </c>
       <c r="C123" t="str">
-        <v>RG02023-叶峰</v>
+        <v>RG01387-吴素琴</v>
       </c>
       <c r="D123" t="str">
-        <v>伴刀豆球蛋白A 来源于洋刀豆 （刀豆）CONCANAVALIN A-SEPHAROSE 4B CONTAINING 2</v>
+        <v>EmbryoMax Nucleosides (100X)</v>
       </c>
       <c r="E123" t="str">
-        <v>TM210906-0274</v>
+        <v>TM220704-0465</v>
       </c>
       <c r="F123" t="str">
-        <v>C9017-25ML</v>
+        <v>ES-008-D</v>
       </c>
       <c r="G123" t="str">
-        <v>25.000G</v>
+        <v>1EA</v>
       </c>
       <c r="H123" t="str">
-        <v>3606.15</v>
+        <v>241.98</v>
       </c>
       <c r="I123" t="str">
-        <v>1.00</v>
+        <v>2.00</v>
       </c>
       <c r="J123" t="str">
-        <v>3606.15</v>
+        <v>483.96</v>
       </c>
       <c r="K123" t="str">
-        <v>ML</v>
+        <v>EA</v>
       </c>
       <c r="L123" t="str">
-        <v>现货一周内，期货咨询销售</v>
+        <v>与官网同步</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>PO202108171017325417</v>
+        <v>PO202205231740298713</v>
       </c>
       <c r="B124" t="str">
-        <v>马鑫涛</v>
+        <v>吴素琴</v>
       </c>
       <c r="C124" t="str">
-        <v>RG01649-赖伟坤</v>
+        <v>RG01387-吴素琴</v>
       </c>
       <c r="D124" t="str">
-        <v>聚乙烯吡咯烷酮POLYVINYLPYRROLIDONE AV. MOL.*WT. 360,00</v>
+        <v>EmbryoMax MEM, Non Essential Amino Acids (100X)</v>
       </c>
       <c r="E124" t="str">
-        <v>TM210909-0215</v>
+        <v>TM220704-0467</v>
       </c>
       <c r="F124" t="str">
-        <v>PVP360-100G</v>
+        <v>TMS-001-C</v>
       </c>
       <c r="G124" t="str">
-        <v>100.000G</v>
+        <v>1EA</v>
       </c>
       <c r="H124" t="str">
-        <v>371.86</v>
+        <v>195.08</v>
       </c>
       <c r="I124" t="str">
         <v>1.00</v>
       </c>
       <c r="J124" t="str">
-        <v>371.86</v>
+        <v>195.08</v>
       </c>
       <c r="K124" t="str">
-        <v>G</v>
+        <v>EA</v>
       </c>
       <c r="L124" t="str">
-        <v>现货一周内，期货咨询销售</v>
+        <v>与官网同步</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>PO202106110926258313</v>
+        <v>PO202205170918164115</v>
       </c>
       <c r="B125" t="str">
-        <v>汤雨辰</v>
+        <v>吴雅颖</v>
       </c>
       <c r="C125" t="str">
-        <v>RG00869-王野</v>
+        <v>RG00860-韩家淮</v>
       </c>
       <c r="D125" t="str">
-        <v>Deuterium oxide</v>
+        <v>胆固醇d7CHOLESTEROL-D7</v>
       </c>
       <c r="E125" t="str">
-        <v>TM210615-0363</v>
+        <v>TM220615-0466</v>
       </c>
       <c r="F125" t="str">
-        <v>151882-100G</v>
+        <v>700041P-10MG</v>
       </c>
       <c r="G125" t="str">
-        <v>100G</v>
+        <v>10.000MG</v>
       </c>
       <c r="H125" t="str">
-        <v>564.30</v>
+        <v>1288.30</v>
       </c>
       <c r="I125" t="str">
         <v>1.00</v>
       </c>
       <c r="J125" t="str">
-        <v>564.30</v>
+        <v>1288.30</v>
       </c>
       <c r="K125" t="str">
-        <v>G</v>
+        <v>MG</v>
       </c>
       <c r="L125" t="str">
-        <v>与官网同步</v>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>PO202108151621454814</v>
+        <v>PO202205191300544013</v>
       </c>
       <c r="B126" t="str">
-        <v>程书语</v>
+        <v>黄香菇</v>
       </c>
       <c r="C126" t="str">
-        <v>RG01309-刘国彦</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D126" t="str">
-        <v>2"-羟基-4"-甲氧基苯乙酮2"-HYDROXY-4"-METHOXYACETOPHENONE, 99%</v>
+        <v>MPLA (PHAD (R))</v>
       </c>
       <c r="E126" t="str">
-        <v>TM210923-0147</v>
+        <v>TM220620-0410</v>
       </c>
       <c r="F126" t="str">
-        <v>H35803-1G</v>
+        <v>699800P-5MG</v>
       </c>
       <c r="G126" t="str">
-        <v>1.000G</v>
+        <v>5.000MG</v>
       </c>
       <c r="H126" t="str">
-        <v>311.55</v>
+        <v>6876.05</v>
       </c>
       <c r="I126" t="str">
-        <v>1.00</v>
+        <v>2.00</v>
       </c>
       <c r="J126" t="str">
-        <v>311.55</v>
+        <v>13752.10</v>
       </c>
       <c r="K126" t="str">
-        <v>G</v>
+        <v>MG</v>
       </c>
       <c r="L126" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -5185,37 +5185,37 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>PO202108181253264860</v>
+        <v>PO202205240920151018</v>
       </c>
       <c r="B127" t="str">
-        <v>陈青花</v>
+        <v>吴鹤鸣</v>
       </c>
       <c r="C127" t="str">
-        <v>RG00893-周大旺</v>
+        <v>RG00731-欧阳高亮</v>
       </c>
       <c r="D127" t="str">
-        <v>弗氏完全佐剂FREUNDS ADJUVANT COMPLETE</v>
+        <v>硫脲THIOUREA, REAGENTPLUS TM, = 99.0%</v>
       </c>
       <c r="E127" t="str">
-        <v>TM210820-0160</v>
+        <v>TM220611-0075</v>
       </c>
       <c r="F127" t="str">
-        <v>F5881-6X10ML</v>
+        <v>T7875-100G</v>
       </c>
       <c r="G127" t="str">
-        <v>60.000G</v>
+        <v>100.000G</v>
       </c>
       <c r="H127" t="str">
-        <v>1119.99</v>
+        <v>231.20</v>
       </c>
       <c r="I127" t="str">
         <v>1.00</v>
       </c>
       <c r="J127" t="str">
-        <v>1119.99</v>
+        <v>231.20</v>
       </c>
       <c r="K127" t="str">
-        <v>X</v>
+        <v>G</v>
       </c>
       <c r="L127" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -5223,37 +5223,37 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>PO202108101824004918</v>
+        <v>PO202205171039234116</v>
       </c>
       <c r="B128" t="str">
-        <v>许韧</v>
+        <v>吴雅颖</v>
       </c>
       <c r="C128" t="str">
-        <v>RG01089-许韧</v>
+        <v>RG00860-韩家淮</v>
       </c>
       <c r="D128" t="str">
-        <v>β-甘油磷酸盐 二钠盐 水合物BETA-GLYCEROPHOSPHATE DISODIUM SALT&amp;amp;</v>
+        <v>SITOSTEROL</v>
       </c>
       <c r="E128" t="str">
-        <v>TM210906-0330</v>
+        <v>TM220615-0449</v>
       </c>
       <c r="F128" t="str">
-        <v>G5422-25G</v>
+        <v>700095P-5MG</v>
       </c>
       <c r="G128" t="str">
-        <v>25.000G</v>
+        <v>5.000MG</v>
       </c>
       <c r="H128" t="str">
-        <v>377.56</v>
+        <v>1406.02</v>
       </c>
       <c r="I128" t="str">
         <v>1.00</v>
       </c>
       <c r="J128" t="str">
-        <v>377.56</v>
+        <v>1406.02</v>
       </c>
       <c r="K128" t="str">
-        <v>G</v>
+        <v>MG</v>
       </c>
       <c r="L128" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -5261,34 +5261,34 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>PO202108112238440830</v>
+        <v>PO202205171039234116</v>
       </c>
       <c r="B129" t="str">
-        <v>田野</v>
+        <v>吴雅颖</v>
       </c>
       <c r="C129" t="str">
-        <v>RG00788-程喆</v>
+        <v>RG00860-韩家淮</v>
       </c>
       <c r="D129" t="str">
-        <v>碘化丙啶PROPIDIUM IODIDE, = 94.0% (HPLC)</v>
+        <v>菜油甾醇CAMPESTEROL FROM SOYBEAN</v>
       </c>
       <c r="E129" t="str">
-        <v>TM210827-0131</v>
+        <v>TM220615-0459</v>
       </c>
       <c r="F129" t="str">
-        <v>P4170-10MG</v>
+        <v>C5157-1MG</v>
       </c>
       <c r="G129" t="str">
-        <v>10.000MG</v>
+        <v>1.000MG</v>
       </c>
       <c r="H129" t="str">
-        <v>253.03</v>
+        <v>1077.17</v>
       </c>
       <c r="I129" t="str">
         <v>1.00</v>
       </c>
       <c r="J129" t="str">
-        <v>253.03</v>
+        <v>1077.17</v>
       </c>
       <c r="K129" t="str">
         <v>MG</v>
@@ -5299,37 +5299,37 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>PO202108182004226218</v>
+        <v>PO202206081550084011</v>
       </c>
       <c r="B130" t="str">
-        <v>张成锟</v>
+        <v>黄香菇</v>
       </c>
       <c r="C130" t="str">
-        <v>RG00825-彭栋梁</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D130" t="str">
-        <v>聚环氧乙烷POLY(ETHYLENE OXIDE), MV CA. 600,000</v>
+        <v>PERCOLL CELL CULTURE TESTED</v>
       </c>
       <c r="E130" t="str">
-        <v>TM210827-0133</v>
+        <v>TM220620-0417</v>
       </c>
       <c r="F130" t="str">
-        <v>182028-250G</v>
+        <v>P4937-500ML</v>
       </c>
       <c r="G130" t="str">
-        <v>250.000G</v>
+        <v>565.000G</v>
       </c>
       <c r="H130" t="str">
-        <v>1325.21</v>
+        <v>4998.07</v>
       </c>
       <c r="I130" t="str">
-        <v>1.00</v>
+        <v>2.00</v>
       </c>
       <c r="J130" t="str">
-        <v>1325.21</v>
+        <v>9996.14</v>
       </c>
       <c r="K130" t="str">
-        <v>G</v>
+        <v>ML</v>
       </c>
       <c r="L130" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -5337,34 +5337,34 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>PO202108161131242915</v>
+        <v>PO202206081550084011</v>
       </c>
       <c r="B131" t="str">
-        <v>孔嘉琦</v>
+        <v>黄香菇</v>
       </c>
       <c r="C131" t="str">
-        <v>RG00761-李鑫</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D131" t="str">
-        <v>碘化铷RUBIDIUM IODIDE, 99.9%</v>
+        <v>d-脱硫生物素D-DESTHIOBIOTIN</v>
       </c>
       <c r="E131" t="str">
-        <v>TM210824-0186</v>
+        <v>TM220712-0263</v>
       </c>
       <c r="F131" t="str">
-        <v>251445-10G</v>
+        <v>D1411-1G</v>
       </c>
       <c r="G131" t="str">
-        <v>10.000G</v>
+        <v>1.000G</v>
       </c>
       <c r="H131" t="str">
-        <v>547.09</v>
+        <v>2410.40</v>
       </c>
       <c r="I131" t="str">
-        <v>1.00</v>
+        <v>2.00</v>
       </c>
       <c r="J131" t="str">
-        <v>547.09</v>
+        <v>4820.80</v>
       </c>
       <c r="K131" t="str">
         <v>G</v>
@@ -5375,72 +5375,72 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>PO202108181308563915</v>
+        <v>PO202206081550084011</v>
       </c>
       <c r="B132" t="str">
-        <v>尤鹏耀</v>
+        <v>黄香菇</v>
       </c>
       <c r="C132" t="str">
-        <v>RG00748-郑南峰</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D132" t="str">
-        <v>Palladium(II) acetate</v>
+        <v>丁酸钠SODIUM BUTYRATE</v>
       </c>
       <c r="E132" t="str">
-        <v>TM210902-0291</v>
+        <v>TM220712-0264</v>
       </c>
       <c r="F132" t="str">
-        <v>V900826-5G</v>
+        <v>B5887-5G</v>
       </c>
       <c r="G132" t="str">
-        <v>5G</v>
+        <v>5.000G</v>
       </c>
       <c r="H132" t="str">
-        <v>1421.93</v>
+        <v>2963.03</v>
       </c>
       <c r="I132" t="str">
-        <v>1.00</v>
+        <v>2.00</v>
       </c>
       <c r="J132" t="str">
-        <v>1421.93</v>
+        <v>5926.06</v>
       </c>
       <c r="K132" t="str">
         <v>G</v>
       </c>
       <c r="L132" t="str">
-        <v>与官网同步</v>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>PO202108201735046515</v>
+        <v>PO202206081550084011</v>
       </c>
       <c r="B133" t="str">
-        <v>参丹</v>
+        <v>黄香菇</v>
       </c>
       <c r="C133" t="str">
-        <v>RG01092-张杰</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D133" t="str">
-        <v>羟乙基哌嗪乙硫磺酸HEPES</v>
+        <v>视黄酸RETINOIC ACID</v>
       </c>
       <c r="E133" t="str">
-        <v>TM210908-0257</v>
+        <v>TM220712-0267</v>
       </c>
       <c r="F133" t="str">
-        <v>H3375-100G</v>
+        <v>R2625-1G</v>
       </c>
       <c r="G133" t="str">
-        <v>100.000G</v>
+        <v>1.000G</v>
       </c>
       <c r="H133" t="str">
-        <v>792.30</v>
+        <v>1825.97</v>
       </c>
       <c r="I133" t="str">
         <v>1.00</v>
       </c>
       <c r="J133" t="str">
-        <v>792.30</v>
+        <v>1825.97</v>
       </c>
       <c r="K133" t="str">
         <v>G</v>
@@ -5451,34 +5451,34 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>PO202108161042336514</v>
+        <v>PO202206081550084011</v>
       </c>
       <c r="B134" t="str">
-        <v>参丹</v>
+        <v>黄香菇</v>
       </c>
       <c r="C134" t="str">
-        <v>RG01092-张杰</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D134" t="str">
-        <v>硫脲THIOUREA ACS REAGENT</v>
+        <v>生物素BIOTIN, =99% (HPLC), LYOPHILIZED POWDER</v>
       </c>
       <c r="E134" t="str">
-        <v>TM210908-0256</v>
+        <v>TM220712-0272</v>
       </c>
       <c r="F134" t="str">
-        <v>T8656-50G</v>
+        <v>B4501-10G</v>
       </c>
       <c r="G134" t="str">
-        <v>50.000G</v>
+        <v>10.000G</v>
       </c>
       <c r="H134" t="str">
-        <v>452.91</v>
+        <v>4755.78</v>
       </c>
       <c r="I134" t="str">
         <v>1.00</v>
       </c>
       <c r="J134" t="str">
-        <v>452.91</v>
+        <v>4755.78</v>
       </c>
       <c r="K134" t="str">
         <v>G</v>
@@ -5489,37 +5489,37 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>PO202108181124430212</v>
+        <v>PO202206081550084011</v>
       </c>
       <c r="B135" t="str">
-        <v>谭语</v>
+        <v>黄香菇</v>
       </c>
       <c r="C135" t="str">
-        <v>RG00888-林丽榕</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D135" t="str">
-        <v>3-(全氟丁酰)-(+)-樟脑3-(PERFLUOROBUTYRYL)-(+)-CAMPHOR, 96%</v>
+        <v>蛋白酶 K 来源于林伯氏白色念球菌Proteinase K, Tritirachium album</v>
       </c>
       <c r="E135" t="str">
-        <v>TM210903-0184</v>
+        <v>TM220712-0274</v>
       </c>
       <c r="F135" t="str">
-        <v>195936-5G</v>
+        <v>539480-100MG</v>
       </c>
       <c r="G135" t="str">
-        <v>5.000G</v>
+        <v>100MG</v>
       </c>
       <c r="H135" t="str">
-        <v>1281.02</v>
+        <v>1262.41</v>
       </c>
       <c r="I135" t="str">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="J135" t="str">
-        <v>2562.04</v>
+        <v>1262.41</v>
       </c>
       <c r="K135" t="str">
-        <v>G</v>
+        <v>EA</v>
       </c>
       <c r="L135" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -5527,37 +5527,37 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>PO202108201524259411</v>
+        <v>PO202205311840204027</v>
       </c>
       <c r="B136" t="str">
-        <v>蒋莱</v>
+        <v>任胜男</v>
       </c>
       <c r="C136" t="str">
-        <v>RG00759-刘刚</v>
+        <v>RG01087-王海滨</v>
       </c>
       <c r="D136" t="str">
-        <v>MES 水合物MES HYDRATE</v>
+        <v>双苯并咪唑 H 33342 三盐酸盐BISBENZIMIDE HOECHST NO 33342 TRIHYDROCH</v>
       </c>
       <c r="E136" t="str">
-        <v>TM210903-0185</v>
+        <v>TM220705-0158</v>
       </c>
       <c r="F136" t="str">
-        <v>M8250-25G</v>
+        <v>B2261-25MG</v>
       </c>
       <c r="G136" t="str">
-        <v>25.000G</v>
+        <v>25.000MG</v>
       </c>
       <c r="H136" t="str">
-        <v>401.42</v>
+        <v>387.26</v>
       </c>
       <c r="I136" t="str">
         <v>1.00</v>
       </c>
       <c r="J136" t="str">
-        <v>401.42</v>
+        <v>387.26</v>
       </c>
       <c r="K136" t="str">
-        <v>G</v>
+        <v>MG</v>
       </c>
       <c r="L136" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -5565,37 +5565,37 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>PO202108171046304011</v>
+        <v>PO202205161336415835</v>
       </c>
       <c r="B137" t="str">
-        <v>黄香菇</v>
+        <v>刘灵珂</v>
       </c>
       <c r="C137" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG00914-刘海鹏</v>
       </c>
       <c r="D137" t="str">
-        <v>花生四烯酸ARACHIDONIC ACID, 95.0% GC</v>
+        <v>抗-FLAG? M2磁珠ANTI-FLAG(R) M2 MAGNETIC BEADS</v>
       </c>
       <c r="E137" t="str">
-        <v>TM210819-0079</v>
+        <v>TM220714-0324</v>
       </c>
       <c r="F137" t="str">
-        <v>10931-250MG</v>
+        <v>M8823-5ML</v>
       </c>
       <c r="G137" t="str">
-        <v>250.000MG</v>
+        <v>5.000G</v>
       </c>
       <c r="H137" t="str">
-        <v>1373.80</v>
+        <v>15205.23</v>
       </c>
       <c r="I137" t="str">
         <v>1.00</v>
       </c>
       <c r="J137" t="str">
-        <v>1373.80</v>
+        <v>15205.23</v>
       </c>
       <c r="K137" t="str">
-        <v>MG</v>
+        <v>ML</v>
       </c>
       <c r="L137" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -5603,37 +5603,37 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>PO202108181111522621</v>
+        <v>PO202206081550084011</v>
       </c>
       <c r="B138" t="str">
-        <v>游学</v>
+        <v>黄香菇</v>
       </c>
       <c r="C138" t="str">
-        <v>RG01841-Zenobi Renato</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D138" t="str">
-        <v>邻苯二甲酸二辛酯DIOCTYL PHTHALATE, =99.5%</v>
+        <v>甲基纤维素METHYL CELLULOSE,  VISCOSITY 15 CP</v>
       </c>
       <c r="E138" t="str">
-        <v>TM210820-0154</v>
+        <v>TM220620-0417</v>
       </c>
       <c r="F138" t="str">
-        <v>D201154-5ML</v>
+        <v>M7140-100G</v>
       </c>
       <c r="G138" t="str">
-        <v>4.900G</v>
+        <v>100.000G</v>
       </c>
       <c r="H138" t="str">
-        <v>176.26</v>
+        <v>595.10</v>
       </c>
       <c r="I138" t="str">
         <v>1.00</v>
       </c>
       <c r="J138" t="str">
-        <v>176.26</v>
+        <v>595.10</v>
       </c>
       <c r="K138" t="str">
-        <v>ML</v>
+        <v>G</v>
       </c>
       <c r="L138" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -5641,37 +5641,37 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>PO202108240954039924</v>
+        <v>PO202206081550084011</v>
       </c>
       <c r="B139" t="str">
-        <v>刘祥忠</v>
+        <v>黄香菇</v>
       </c>
       <c r="C139" t="str">
-        <v>RG00855-陈海峰</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D139" t="str">
-        <v>别嘌醇ALLOPURINOL</v>
+        <v>伴刀豆球蛋白A 来源于洋刀豆 （刀豆）CONCANAVALIN A TYPE IV</v>
       </c>
       <c r="E139" t="str">
-        <v>TM210902-0295</v>
+        <v>TM220620-0417</v>
       </c>
       <c r="F139" t="str">
-        <v>A8003-5G</v>
+        <v>C2010-100MG</v>
       </c>
       <c r="G139" t="str">
-        <v>5.000G</v>
+        <v>100.000MG</v>
       </c>
       <c r="H139" t="str">
-        <v>557.14</v>
+        <v>725.93</v>
       </c>
       <c r="I139" t="str">
         <v>1.00</v>
       </c>
       <c r="J139" t="str">
-        <v>557.14</v>
+        <v>725.93</v>
       </c>
       <c r="K139" t="str">
-        <v>G</v>
+        <v>MG</v>
       </c>
       <c r="L139" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -5679,37 +5679,37 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>PO202108171336592614</v>
+        <v>PO202206081550084011</v>
       </c>
       <c r="B140" t="str">
-        <v>王骁勇</v>
+        <v>黄香菇</v>
       </c>
       <c r="C140" t="str">
-        <v>RG02135-黄子成</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D140" t="str">
-        <v>二甲基亚砜DIMETHYL SULFOXIDE, FOR MOLECULAR BIOL&amp;amp;</v>
+        <v>甘氨酸GLYCINE, NON-ANIMAL SOURCE, CELL CULTURE</v>
       </c>
       <c r="E140" t="str">
-        <v>TM210819-0326</v>
+        <v>TM220704-0374</v>
       </c>
       <c r="F140" t="str">
-        <v>D8418-1L</v>
+        <v>G8790-100G</v>
       </c>
       <c r="G140" t="str">
-        <v>1.100KG</v>
+        <v>100.000G</v>
       </c>
       <c r="H140" t="str">
-        <v>3126.08</v>
+        <v>434.10</v>
       </c>
       <c r="I140" t="str">
         <v>1.00</v>
       </c>
       <c r="J140" t="str">
-        <v>3126.08</v>
+        <v>434.10</v>
       </c>
       <c r="K140" t="str">
-        <v>L</v>
+        <v>G</v>
       </c>
       <c r="L140" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -5717,37 +5717,37 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>PO202108191149505112</v>
+        <v>PO202206081550084011</v>
       </c>
       <c r="B141" t="str">
-        <v>陈春艳</v>
+        <v>黄香菇</v>
       </c>
       <c r="C141" t="str">
-        <v>RG01091-曹彬</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D141" t="str">
-        <v>水WATERNUCLEASE-FREE WATER FOR MOLECULAR&amp;amp;</v>
+        <v>三甲胺N-氧化物TRIMETHYLAMINE N-OXIDE, 95%</v>
       </c>
       <c r="E141" t="str">
-        <v>TM210903-0223</v>
+        <v>TM220620-0419</v>
       </c>
       <c r="F141" t="str">
-        <v>W4502-1L</v>
+        <v>317594-1G</v>
       </c>
       <c r="G141" t="str">
-        <v>1.000KG</v>
+        <v>1.000G</v>
       </c>
       <c r="H141" t="str">
-        <v>568.29</v>
+        <v>535.40</v>
       </c>
       <c r="I141" t="str">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="J141" t="str">
-        <v>1136.58</v>
+        <v>535.40</v>
       </c>
       <c r="K141" t="str">
-        <v>L</v>
+        <v>G</v>
       </c>
       <c r="L141" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -5755,37 +5755,37 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>PO202108250941319413</v>
+        <v>PO202206081550084011</v>
       </c>
       <c r="B142" t="str">
-        <v>蒋莱</v>
+        <v>黄香菇</v>
       </c>
       <c r="C142" t="str">
-        <v>RG00759-刘刚</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D142" t="str">
-        <v>多粘菌素 B 硫酸盐POLYMYXIN B SULFATE</v>
+        <v>RESOMER? RG 502 H,聚（d,L-丙交酯-共-乙交酯）RESOMER(R) RG 502 H, POLY(D,L-LACTIDE-CO</v>
       </c>
       <c r="E142" t="str">
-        <v>TM210903-0186</v>
+        <v>TM220620-0419</v>
       </c>
       <c r="F142" t="str">
-        <v>P1004-1MU</v>
+        <v>719897-5G</v>
       </c>
       <c r="G142" t="str">
-        <v>127.000MG</v>
+        <v>5.000G</v>
       </c>
       <c r="H142" t="str">
-        <v>693.38</v>
+        <v>2832.59</v>
       </c>
       <c r="I142" t="str">
         <v>1.00</v>
       </c>
       <c r="J142" t="str">
-        <v>693.38</v>
+        <v>2832.59</v>
       </c>
       <c r="K142" t="str">
-        <v>UNITS</v>
+        <v>G</v>
       </c>
       <c r="L142" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -5793,34 +5793,34 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>PO202108171714536911</v>
+        <v>PO202206081550084011</v>
       </c>
       <c r="B143" t="str">
-        <v>张文瀚</v>
+        <v>黄香菇</v>
       </c>
       <c r="C143" t="str">
-        <v>RG01369-毛秉伟</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D143" t="str">
-        <v>N,N-二甲基甲酰胺N,N-DIMETHYLFORMAMIDE, ANHYDROUS, 99.8%</v>
+        <v>杜氏改良 Eagle 培养基 - 高葡萄糖DULBECCOS MODIFIED EAGLES MEDIUM - HIG</v>
       </c>
       <c r="E143" t="str">
-        <v>TM210909-0225</v>
+        <v>TM220620-0413</v>
       </c>
       <c r="F143" t="str">
-        <v>227056-250ML</v>
+        <v>D6429-500ML</v>
       </c>
       <c r="G143" t="str">
-        <v>236.000G</v>
+        <v>500.000G</v>
       </c>
       <c r="H143" t="str">
-        <v>965.83</v>
+        <v>41.00</v>
       </c>
       <c r="I143" t="str">
-        <v>1.00</v>
+        <v>400.00</v>
       </c>
       <c r="J143" t="str">
-        <v>965.83</v>
+        <v>16400.00</v>
       </c>
       <c r="K143" t="str">
         <v>ML</v>
@@ -5831,37 +5831,37 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>PO202108211833388417</v>
+        <v>PO202205251707114715</v>
       </c>
       <c r="B144" t="str">
-        <v>叶峰</v>
+        <v>宗荣荣</v>
       </c>
       <c r="C144" t="str">
-        <v>RG02023-叶峰</v>
+        <v>RG01114-刘祖国</v>
       </c>
       <c r="D144" t="str">
-        <v>RNase A</v>
+        <v>N-甲基- D -天冬氨酸N-METHYL-D-ASPARTIC ACID</v>
       </c>
       <c r="E144" t="str">
-        <v>TM210906-0275</v>
+        <v>TM220714-0365</v>
       </c>
       <c r="F144" t="str">
-        <v>10109169001</v>
+        <v>M3262-25MG</v>
       </c>
       <c r="G144" t="str">
-        <v>1EA</v>
+        <v>25.000MG</v>
       </c>
       <c r="H144" t="str">
-        <v>1037.83</v>
+        <v>439.09</v>
       </c>
       <c r="I144" t="str">
         <v>1.00</v>
       </c>
       <c r="J144" t="str">
-        <v>1037.83</v>
+        <v>439.09</v>
       </c>
       <c r="K144" t="str">
-        <v>EA</v>
+        <v>MG</v>
       </c>
       <c r="L144" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -5869,34 +5869,34 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>PO202108261157364612</v>
+        <v>PO202206060949414012</v>
       </c>
       <c r="B145" t="str">
-        <v>阿尧林</v>
+        <v>郭宁</v>
       </c>
       <c r="C145" t="str">
-        <v>RG01383-董金超</v>
+        <v>RG01087-王海滨</v>
       </c>
       <c r="D145" t="str">
-        <v>乙酰丙酮钯 (II)PALLADIUM(II) ACETYLACETONATE, 99%</v>
+        <v>氯化锂LITHIUM CHLORIDE MOLECULAR BIOLOGY REAGE</v>
       </c>
       <c r="E145" t="str">
-        <v>TM210909-0226</v>
+        <v>TM220705-0159</v>
       </c>
       <c r="F145" t="str">
-        <v>209015-1G</v>
+        <v>L9650-100G</v>
       </c>
       <c r="G145" t="str">
-        <v>1.000G</v>
+        <v>100.000G</v>
       </c>
       <c r="H145" t="str">
-        <v>912.93</v>
+        <v>355.02</v>
       </c>
       <c r="I145" t="str">
         <v>1.00</v>
       </c>
       <c r="J145" t="str">
-        <v>912.93</v>
+        <v>355.02</v>
       </c>
       <c r="K145" t="str">
         <v>G</v>
@@ -5907,37 +5907,37 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>PO202109020952490012</v>
+        <v>PO202206061821543015</v>
       </c>
       <c r="B146" t="str">
-        <v>杨宇</v>
+        <v>吴丹丹</v>
       </c>
       <c r="C146" t="str">
-        <v>RG00796-尤涵</v>
+        <v>RG00892-张晓坤</v>
       </c>
       <c r="D146" t="str">
-        <v>过硫酸铵AMMONIUM PERSULFATE, FOR MOLECULAR BIOL&amp;amp;</v>
+        <v>PRE-DESIGNED SIRNA -2 OD (5 NMOL DUPLEX)</v>
       </c>
       <c r="E146" t="str">
-        <v>TM210908-0227</v>
+        <v>TM220714-0313</v>
       </c>
       <c r="F146" t="str">
-        <v>A3678-100G</v>
+        <v>PDSIRNA-2OD</v>
       </c>
       <c r="G146" t="str">
-        <v>100.000G</v>
+        <v>0.500G</v>
       </c>
       <c r="H146" t="str">
-        <v>318.74</v>
+        <v>572.51</v>
       </c>
       <c r="I146" t="str">
         <v>1.00</v>
       </c>
       <c r="J146" t="str">
-        <v>318.74</v>
+        <v>572.51</v>
       </c>
       <c r="K146" t="str">
-        <v>G</v>
+        <v>EA</v>
       </c>
       <c r="L146" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -5945,37 +5945,37 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>PO202109061710214010</v>
+        <v>PO202206061822413012</v>
       </c>
       <c r="B147" t="str">
-        <v>黄香菇</v>
+        <v>吴丹丹</v>
       </c>
       <c r="C147" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG00892-张晓坤</v>
       </c>
       <c r="D147" t="str">
-        <v>羟乙基哌嗪乙硫磺酸HEPES</v>
+        <v>PRE-DESIGNED SIRNA -2 OD (5 NMOL DUPLEX)</v>
       </c>
       <c r="E147" t="str">
-        <v>TM210906-0430</v>
+        <v>TM220714-0314</v>
       </c>
       <c r="F147" t="str">
-        <v>H3375-1KG</v>
+        <v>PDSIRNA-2OD</v>
       </c>
       <c r="G147" t="str">
-        <v>1.000KG</v>
+        <v>0.500G</v>
       </c>
       <c r="H147" t="str">
-        <v>5389.99</v>
+        <v>572.51</v>
       </c>
       <c r="I147" t="str">
         <v>1.00</v>
       </c>
       <c r="J147" t="str">
-        <v>5389.99</v>
+        <v>572.51</v>
       </c>
       <c r="K147" t="str">
-        <v>KG</v>
+        <v>EA</v>
       </c>
       <c r="L147" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -5983,37 +5983,37 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>PO202109061710214010</v>
+        <v>PO202206061823223016</v>
       </c>
       <c r="B148" t="str">
-        <v>黄香菇</v>
+        <v>吴丹丹</v>
       </c>
       <c r="C148" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG00892-张晓坤</v>
       </c>
       <c r="D148" t="str">
-        <v>IGEPAL CA 630</v>
+        <v>PRE-DESIGNED SIRNA -2 OD (5 NMOL DUPLEX)</v>
       </c>
       <c r="E148" t="str">
-        <v>TM210906-0430</v>
+        <v>TM220714-0315</v>
       </c>
       <c r="F148" t="str">
-        <v>I3021-100ML</v>
+        <v>PDSIRNA-2OD</v>
       </c>
       <c r="G148" t="str">
-        <v>106.000G</v>
+        <v>0.500G</v>
       </c>
       <c r="H148" t="str">
-        <v>545.89</v>
+        <v>572.51</v>
       </c>
       <c r="I148" t="str">
         <v>1.00</v>
       </c>
       <c r="J148" t="str">
-        <v>545.89</v>
+        <v>572.51</v>
       </c>
       <c r="K148" t="str">
-        <v>ML</v>
+        <v>EA</v>
       </c>
       <c r="L148" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -6021,37 +6021,37 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>PO202109061710214010</v>
+        <v>PO202205171741338718</v>
       </c>
       <c r="B149" t="str">
-        <v>黄香菇</v>
+        <v>吴素琴</v>
       </c>
       <c r="C149" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG01387-吴素琴</v>
       </c>
       <c r="D149" t="str">
-        <v>6-(马来酰亚胺基)己酸琥珀酰亚胺酯EPISILON-MALEIMIDOCAPROIC ACID N- HYDROX</v>
+        <v>水WATER, FOR EMBRYO TRANSFER, EMBRYO</v>
       </c>
       <c r="E149" t="str">
-        <v>TM210906-0430</v>
+        <v>TM220704-0462</v>
       </c>
       <c r="F149" t="str">
-        <v>M9794-100MG</v>
+        <v>W1503-500ML</v>
       </c>
       <c r="G149" t="str">
-        <v>100.000MG</v>
+        <v>500.000G</v>
       </c>
       <c r="H149" t="str">
-        <v>4502.29</v>
+        <v>367.66</v>
       </c>
       <c r="I149" t="str">
-        <v>1.00</v>
+        <v>10.00</v>
       </c>
       <c r="J149" t="str">
-        <v>4502.29</v>
+        <v>3676.60</v>
       </c>
       <c r="K149" t="str">
-        <v>MG</v>
+        <v>ML</v>
       </c>
       <c r="L149" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -6059,34 +6059,34 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>PO202109061710214010</v>
+        <v>PO202205201650407914</v>
       </c>
       <c r="B150" t="str">
-        <v>黄香菇</v>
+        <v>曾祥兰</v>
       </c>
       <c r="C150" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG00949-高坤山</v>
       </c>
       <c r="D150" t="str">
-        <v>硼烷吡啶络合物BORANE-PYRIDINE COMPLEX</v>
+        <v>2-溴乙基磺酸钠Sodium 2-bromoethanesulfonate, 98%</v>
       </c>
       <c r="E150" t="str">
-        <v>TM210906-0424</v>
+        <v>TM220614-0417</v>
       </c>
       <c r="F150" t="str">
-        <v>179752-5G</v>
+        <v>137502-25G</v>
       </c>
       <c r="G150" t="str">
-        <v>5.000G</v>
+        <v>25.000G</v>
       </c>
       <c r="H150" t="str">
-        <v>321.91</v>
+        <v>289.84</v>
       </c>
       <c r="I150" t="str">
         <v>1.00</v>
       </c>
       <c r="J150" t="str">
-        <v>321.91</v>
+        <v>289.84</v>
       </c>
       <c r="K150" t="str">
         <v>G</v>
@@ -6097,37 +6097,37 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>PO202109061710214010</v>
+        <v>PO202206100923494019</v>
       </c>
       <c r="B151" t="str">
-        <v>黄香菇</v>
+        <v>任胜男</v>
       </c>
       <c r="C151" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG01087-王海滨</v>
       </c>
       <c r="D151" t="str">
-        <v>ANTI-OTUB2</v>
+        <v>抗坏血酸磷酸酯镁 倍半镁盐 水合物L-ASCORBIC ACID 2-PHOSPHATE SESQUIMAGNES</v>
       </c>
       <c r="E151" t="str">
-        <v>TM210906-0424</v>
+        <v>TM220705-0196</v>
       </c>
       <c r="F151" t="str">
-        <v>HPA002329-100UL</v>
+        <v>A8960-5G</v>
       </c>
       <c r="G151" t="str">
-        <v>100.000MG</v>
+        <v>5.000G</v>
       </c>
       <c r="H151" t="str">
-        <v>3512.39</v>
+        <v>712.15</v>
       </c>
       <c r="I151" t="str">
         <v>1.00</v>
       </c>
       <c r="J151" t="str">
-        <v>3512.39</v>
+        <v>712.15</v>
       </c>
       <c r="K151" t="str">
-        <v>μL</v>
+        <v>G</v>
       </c>
       <c r="L151" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -6135,7 +6135,7 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>PO202109061710214010</v>
+        <v>PO202205191300544013</v>
       </c>
       <c r="B152" t="str">
         <v>黄香菇</v>
@@ -6144,28 +6144,28 @@
         <v>RG00901-夏宁邵</v>
       </c>
       <c r="D152" t="str">
-        <v>4-(4,6-二甲氧基三嗪-2-基)-4-甲基吗啉盐酸盐4-(4,6-DIMETHOXY-1,3,5-TRIAZIN-2-YL)-4-&amp;amp;</v>
+        <v>杜氏改良 Eagle 培养基 - 高葡萄糖DULBECCOS MODIFIED EAGLES MEDIUM - HIG</v>
       </c>
       <c r="E152" t="str">
-        <v>TM210906-0424</v>
+        <v>TM220606-0492</v>
       </c>
       <c r="F152" t="str">
-        <v>74104-1G-F</v>
+        <v>D6429-500ML</v>
       </c>
       <c r="G152" t="str">
-        <v>1.000G</v>
+        <v>500.000G</v>
       </c>
       <c r="H152" t="str">
-        <v>725.29</v>
+        <v>41.00</v>
       </c>
       <c r="I152" t="str">
-        <v>1.00</v>
+        <v>73.00</v>
       </c>
       <c r="J152" t="str">
-        <v>725.29</v>
+        <v>2993.00</v>
       </c>
       <c r="K152" t="str">
-        <v>G</v>
+        <v>ML</v>
       </c>
       <c r="L152" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -6173,7 +6173,7 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>PO202109061710214010</v>
+        <v>PO202206081550084011</v>
       </c>
       <c r="B153" t="str">
         <v>黄香菇</v>
@@ -6182,28 +6182,28 @@
         <v>RG00901-夏宁邵</v>
       </c>
       <c r="D153" t="str">
-        <v>胶原酶DCollagenase D</v>
+        <v>甘油GLYCEROL, FOR MOLECULAR BIOLOGY, =99.</v>
       </c>
       <c r="E153" t="str">
-        <v>TM210906-0424</v>
+        <v>TM220704-0387</v>
       </c>
       <c r="F153" t="str">
-        <v>11088866001</v>
+        <v>G5516-500ML</v>
       </c>
       <c r="G153" t="str">
-        <v>1EA</v>
+        <v>631.000G</v>
       </c>
       <c r="H153" t="str">
-        <v>2396.48</v>
+        <v>389.89</v>
       </c>
       <c r="I153" t="str">
         <v>1.00</v>
       </c>
       <c r="J153" t="str">
-        <v>2396.48</v>
+        <v>389.89</v>
       </c>
       <c r="K153" t="str">
-        <v>EA</v>
+        <v>ML</v>
       </c>
       <c r="L153" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -6211,7 +6211,7 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>PO202109061710214010</v>
+        <v>PO202206211147314015</v>
       </c>
       <c r="B154" t="str">
         <v>黄香菇</v>
@@ -6220,63 +6220,63 @@
         <v>RG00901-夏宁邵</v>
       </c>
       <c r="D154" t="str">
-        <v>布安溶液</v>
+        <v>单克隆抗-FLAG?MONOCLONAL ANTI-FLAG</v>
       </c>
       <c r="E154" t="str">
-        <v>TM210906-0424</v>
+        <v>TM220704-0403</v>
       </c>
       <c r="F154" t="str">
-        <v>HT10132-1L</v>
+        <v>F2555-100UL</v>
       </c>
       <c r="G154" t="str">
-        <v>1L</v>
+        <v>100.000MG</v>
       </c>
       <c r="H154" t="str">
-        <v>761.11</v>
+        <v>4425.95</v>
       </c>
       <c r="I154" t="str">
         <v>1.00</v>
       </c>
       <c r="J154" t="str">
-        <v>761.11</v>
+        <v>4425.95</v>
       </c>
       <c r="K154" t="str">
-        <v>瓶</v>
+        <v>EA</v>
       </c>
       <c r="L154" t="str">
-        <v/>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>PO202108171004091326</v>
+        <v>PO202206012012450713</v>
       </c>
       <c r="B155" t="str">
-        <v>廖怿</v>
+        <v>肖敏</v>
       </c>
       <c r="C155" t="str">
-        <v>RG00836-李炜</v>
+        <v>RG00793-何承勇</v>
       </c>
       <c r="D155" t="str">
-        <v>层粘连蛋白 来源于 Engelbreth-Holm-Swarm 小鼠肉瘤基底膜LAMININ FROM ENGELBRETH-HOLM-SWARM MURIN</v>
+        <v>左旋咪唑 盐酸盐LEVAMISOL HYDROCHLORIDE VETRANAL, 250</v>
       </c>
       <c r="E155" t="str">
-        <v>TM210827-0134</v>
+        <v>TM220615-0420</v>
       </c>
       <c r="F155" t="str">
-        <v>L2020-1MG</v>
+        <v>31742-250MG</v>
       </c>
       <c r="G155" t="str">
-        <v>1.000MG</v>
+        <v>250.000MG</v>
       </c>
       <c r="H155" t="str">
-        <v>1152.30</v>
+        <v>589.13</v>
       </c>
       <c r="I155" t="str">
         <v>1.00</v>
       </c>
       <c r="J155" t="str">
-        <v>1152.30</v>
+        <v>589.13</v>
       </c>
       <c r="K155" t="str">
         <v>MG</v>
@@ -6287,37 +6287,37 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>PO202108170954304917</v>
+        <v>PO202206071459094015</v>
       </c>
       <c r="B156" t="str">
-        <v>许韧</v>
+        <v>郭宁</v>
       </c>
       <c r="C156" t="str">
-        <v>RG01994-李娜</v>
+        <v>RG01087-王海滨</v>
       </c>
       <c r="D156" t="str">
-        <v>2-甲氧基乙基乙酸酯2-METHOXYETHYL ACETATE, REAGENT GRADE, &amp;amp;</v>
+        <v>TRITON X-100 MOLECULAR BIOLOGY REAGENT</v>
       </c>
       <c r="E156" t="str">
-        <v>TM210906-0331</v>
+        <v>TM220705-0194</v>
       </c>
       <c r="F156" t="str">
-        <v>109886-1L</v>
+        <v>T8787-250ML</v>
       </c>
       <c r="G156" t="str">
-        <v>1.009KG</v>
+        <v>270.500G</v>
       </c>
       <c r="H156" t="str">
-        <v>1007.31</v>
+        <v>982.26</v>
       </c>
       <c r="I156" t="str">
         <v>1.00</v>
       </c>
       <c r="J156" t="str">
-        <v>1007.31</v>
+        <v>982.26</v>
       </c>
       <c r="K156" t="str">
-        <v>L</v>
+        <v>ML</v>
       </c>
       <c r="L156" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -6325,34 +6325,34 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>PO202108301117068711</v>
+        <v>PO202206071704292816</v>
       </c>
       <c r="B157" t="str">
-        <v>吴素琴</v>
+        <v>张凌娟</v>
       </c>
       <c r="C157" t="str">
-        <v>RG01387-吴素琴</v>
+        <v>RG00849-张凌娟</v>
       </c>
       <c r="D157" t="str">
-        <v>水WATER, FOR EMBRYO TRANSFER, EMBRYO</v>
+        <v>TRI试剂?TRI REAGENT</v>
       </c>
       <c r="E157" t="str">
-        <v>TM210909-0227</v>
+        <v>TM220714-0287</v>
       </c>
       <c r="F157" t="str">
-        <v>W1503-500ML</v>
+        <v>T9424-200ML</v>
       </c>
       <c r="G157" t="str">
-        <v>500.000G</v>
+        <v>217.200G</v>
       </c>
       <c r="H157" t="str">
-        <v>330.34</v>
+        <v>1881.43</v>
       </c>
       <c r="I157" t="str">
-        <v>10.00</v>
+        <v>2.00</v>
       </c>
       <c r="J157" t="str">
-        <v>3303.40</v>
+        <v>3762.86</v>
       </c>
       <c r="K157" t="str">
         <v>ML</v>
@@ -6363,34 +6363,34 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>PO202108261714206917</v>
+        <v>PO202206211147314015</v>
       </c>
       <c r="B158" t="str">
-        <v>胡杰涛</v>
+        <v>黄香菇</v>
       </c>
       <c r="C158" t="str">
-        <v>RG01362-田中群</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D158" t="str">
-        <v>聚乙烯吡咯烷酮POLYVINYLPYRROLIDONE AV. MOL. WT. 40,000</v>
+        <v>RESOMER? RG 502 H,聚（d,L-丙交酯-共-乙交酯）RESOMER(R) RG 502 H, POLY(D,L-LACTIDE-CO</v>
       </c>
       <c r="E158" t="str">
-        <v>TM210909-0224</v>
+        <v>TM220704-0389</v>
       </c>
       <c r="F158" t="str">
-        <v>PVP40-50G</v>
+        <v>719897-1G</v>
       </c>
       <c r="G158" t="str">
-        <v>50.000G</v>
+        <v>1.000G</v>
       </c>
       <c r="H158" t="str">
-        <v>329.59</v>
+        <v>881.14</v>
       </c>
       <c r="I158" t="str">
-        <v>1.00</v>
+        <v>2.00</v>
       </c>
       <c r="J158" t="str">
-        <v>329.59</v>
+        <v>1762.28</v>
       </c>
       <c r="K158" t="str">
         <v>G</v>
@@ -6401,37 +6401,37 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>PO202108300929165712</v>
+        <v>PO202206211147314015</v>
       </c>
       <c r="B159" t="str">
-        <v>吴亚林</v>
+        <v>黄香菇</v>
       </c>
       <c r="C159" t="str">
-        <v>RG01097-吴亚林</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D159" t="str">
-        <v>聚（乙二醇）POLY(ETHYLENE GLYCOL), BIOULTRA, 300</v>
+        <v>X-tremeGENESUP?/SUP HP DNA转染试剂X-tremeGENE(TM) HP DNA Transfection Reagent</v>
       </c>
       <c r="E159" t="str">
-        <v>TM210909-0201</v>
+        <v>TM220704-0392</v>
       </c>
       <c r="F159" t="str">
-        <v>90878-250ML-F</v>
+        <v>6366236001</v>
       </c>
       <c r="G159" t="str">
-        <v>281.250G</v>
+        <v>1EA</v>
       </c>
       <c r="H159" t="str">
-        <v>395.31</v>
+        <v>5114.66</v>
       </c>
       <c r="I159" t="str">
-        <v>1.00</v>
+        <v>10.00</v>
       </c>
       <c r="J159" t="str">
-        <v>395.31</v>
+        <v>51146.60</v>
       </c>
       <c r="K159" t="str">
-        <v>ML</v>
+        <v>EA</v>
       </c>
       <c r="L159" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -6439,37 +6439,37 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>PO202109011708032516</v>
+        <v>PO202206211147314015</v>
       </c>
       <c r="B160" t="str">
-        <v>林雅滢</v>
+        <v>黄香菇</v>
       </c>
       <c r="C160" t="str">
-        <v>RG00784-高锦豪</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D160" t="str">
-        <v>β-N-乙酰氨基葡萄糖苷酶 来源于洋刀豆 （刀豆）BETA-N-ACETYLGLUCOSAMINIDASE FROM CAN</v>
+        <v>D-α-生育酚琥珀酸酯A-TOCOPHERYL ACID SUCCINATE</v>
       </c>
       <c r="E160" t="str">
-        <v>TM210915-0177</v>
+        <v>TM220704-0406</v>
       </c>
       <c r="F160" t="str">
-        <v>A2264-10UN</v>
+        <v>PHR1029-500MG</v>
       </c>
       <c r="G160" t="str">
-        <v>4000.000MG</v>
+        <v>500.000MG</v>
       </c>
       <c r="H160" t="str">
-        <v>2087.77</v>
+        <v>806.44</v>
       </c>
       <c r="I160" t="str">
         <v>1.00</v>
       </c>
       <c r="J160" t="str">
-        <v>2087.77</v>
+        <v>806.44</v>
       </c>
       <c r="K160" t="str">
-        <v>UNITS</v>
+        <v>MG</v>
       </c>
       <c r="L160" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -6477,37 +6477,37 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>PO202109011708032516</v>
+        <v>PO202206211147314015</v>
       </c>
       <c r="B161" t="str">
-        <v>林雅滢</v>
+        <v>黄香菇</v>
       </c>
       <c r="C161" t="str">
-        <v>RG00784-高锦豪</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D161" t="str">
-        <v>神经氨酸酶 来源于产气荚膜梭菌（韦氏梭菌）NEURAMINIDASE FROMCLOSTRIDIUM PERFRING</v>
+        <v>PMA, FOR USE IN MOLECULAR BIOLOGY APPLIC</v>
       </c>
       <c r="E161" t="str">
-        <v>TM210915-0177</v>
+        <v>TM220704-0407</v>
       </c>
       <c r="F161" t="str">
-        <v>N2876-6UN</v>
+        <v>P1585-1MG</v>
       </c>
       <c r="G161" t="str">
-        <v>60.000MG</v>
+        <v>1.000MG</v>
       </c>
       <c r="H161" t="str">
-        <v>524.74</v>
+        <v>1231.46</v>
       </c>
       <c r="I161" t="str">
         <v>1.00</v>
       </c>
       <c r="J161" t="str">
-        <v>524.74</v>
+        <v>1231.46</v>
       </c>
       <c r="K161" t="str">
-        <v>UNITS</v>
+        <v>MG</v>
       </c>
       <c r="L161" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -6515,72 +6515,72 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>PO202109022027252512</v>
+        <v>PO202206211147314015</v>
       </c>
       <c r="B162" t="str">
-        <v>陈诗怡</v>
+        <v>黄香菇</v>
       </c>
       <c r="C162" t="str">
-        <v>RG02051-刘娅</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D162" t="str">
-        <v>液相色谱配件-TFE TEFLON TUBE .3MM 10FTPTFE Tubing</v>
+        <v>佛波醇12-十四酸酯13-乙酸酯PHORBOL 12-MYRISTATE 13-ACETATE</v>
       </c>
       <c r="E162" t="str">
-        <v>TM210923-0166</v>
+        <v>TM220704-0412</v>
       </c>
       <c r="F162" t="str">
-        <v>58702</v>
+        <v>P8139-5MG</v>
       </c>
       <c r="G162" t="str">
-        <v>1EA</v>
+        <v>5.000MG</v>
       </c>
       <c r="H162" t="str">
-        <v>336.85</v>
+        <v>2484.17</v>
       </c>
       <c r="I162" t="str">
         <v>1.00</v>
       </c>
       <c r="J162" t="str">
-        <v>336.85</v>
+        <v>2484.17</v>
       </c>
       <c r="K162" t="str">
-        <v>EA</v>
+        <v>MG</v>
       </c>
       <c r="L162" t="str">
-        <v>与官网同步</v>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>PO202109031228166951</v>
+        <v>PO202206091956404913</v>
       </c>
       <c r="B163" t="str">
-        <v>胡杰涛</v>
+        <v>许韧</v>
       </c>
       <c r="C163" t="str">
-        <v>RG01362-田中群</v>
+        <v>RG01089-许韧</v>
       </c>
       <c r="D163" t="str">
-        <v>聚-L-赖氨酸 氢溴酸盐POLY-L-LYSINE HYDROBROMIDE MOL WT &amp;</v>
+        <v>地塞米松DEXAMETHASONE CRYSTALLINE</v>
       </c>
       <c r="E163" t="str">
-        <v>TM210923-0149</v>
+        <v>TM220705-0213</v>
       </c>
       <c r="F163" t="str">
-        <v>P6516-100MG</v>
+        <v>D1756-25MG</v>
       </c>
       <c r="G163" t="str">
-        <v>100.000MG</v>
+        <v>25.000MG</v>
       </c>
       <c r="H163" t="str">
-        <v>1538.46</v>
+        <v>653.37</v>
       </c>
       <c r="I163" t="str">
         <v>1.00</v>
       </c>
       <c r="J163" t="str">
-        <v>1538.46</v>
+        <v>653.37</v>
       </c>
       <c r="K163" t="str">
         <v>MG</v>
@@ -6591,37 +6591,37 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>PO202108301744423616</v>
+        <v>PO202205011145259315</v>
       </c>
       <c r="B164" t="str">
-        <v>王漾</v>
+        <v>龙旭</v>
       </c>
       <c r="C164" t="str">
-        <v>RG02120-王漾</v>
+        <v>RG01672-陈全成</v>
       </c>
       <c r="D164" t="str">
-        <v>乙酸乙酯ETHYL ACETATE, HPLC PLUS, FOR HPLC, GC,&amp;amp;</v>
+        <v>酪氨酸酶 来源于蘑菇TYROSINASE</v>
       </c>
       <c r="E164" t="str">
-        <v>TM210906-0127</v>
+        <v>TM220623-0342</v>
       </c>
       <c r="F164" t="str">
-        <v>650528-1L</v>
+        <v>T3824-25KU</v>
       </c>
       <c r="G164" t="str">
-        <v>0.900KG</v>
+        <v>25.000MG</v>
       </c>
       <c r="H164" t="str">
-        <v>966.61</v>
+        <v>1005.13</v>
       </c>
       <c r="I164" t="str">
         <v>1.00</v>
       </c>
       <c r="J164" t="str">
-        <v>966.61</v>
+        <v>1005.13</v>
       </c>
       <c r="K164" t="str">
-        <v>L</v>
+        <v>EA</v>
       </c>
       <c r="L164" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -6629,37 +6629,37 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>PO202109061710214010</v>
+        <v>PO202206131742405829</v>
       </c>
       <c r="B165" t="str">
-        <v>黄香菇</v>
+        <v>张文青</v>
       </c>
       <c r="C165" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG01205-胡天惠</v>
       </c>
       <c r="D165" t="str">
-        <v>FLAG? 肽FLAG PEPTIDE</v>
+        <v>胃蛋白酶 来源于猪胃粘膜PEPSIN FROM PORCINE GASTRIC MUCOSA</v>
       </c>
       <c r="E165" t="str">
-        <v>TM210910-0061</v>
+        <v>TM220714-0373</v>
       </c>
       <c r="F165" t="str">
-        <v>F3290-4MG</v>
+        <v>P7000-25G</v>
       </c>
       <c r="G165" t="str">
-        <v>4.000MG</v>
+        <v>25.000G</v>
       </c>
       <c r="H165" t="str">
-        <v>2262.21</v>
+        <v>737.19</v>
       </c>
       <c r="I165" t="str">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="J165" t="str">
-        <v>4524.42</v>
+        <v>737.19</v>
       </c>
       <c r="K165" t="str">
-        <v>MG</v>
+        <v>G</v>
       </c>
       <c r="L165" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -6667,37 +6667,37 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>PO202109061710214010</v>
+        <v>PO202206141629477910</v>
       </c>
       <c r="B166" t="str">
-        <v>黄香菇</v>
+        <v>饶宇洺</v>
       </c>
       <c r="C166" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG00949-高坤山</v>
       </c>
       <c r="D166" t="str">
-        <v>抗-FLAG? M2亲和凝胶ANTI-FLAG M2 AFFINITY GEL</v>
+        <v>2-溴乙基磺酸钠Sodium 2-bromoethanesulfonate, 98%</v>
       </c>
       <c r="E166" t="str">
-        <v>TM210910-0061</v>
+        <v>TM220630-0038</v>
       </c>
       <c r="F166" t="str">
-        <v>A2220-5ML</v>
+        <v>137502-100G</v>
       </c>
       <c r="G166" t="str">
-        <v>5.000G</v>
+        <v>100.000G</v>
       </c>
       <c r="H166" t="str">
-        <v>12943.96</v>
+        <v>655.39</v>
       </c>
       <c r="I166" t="str">
         <v>1.00</v>
       </c>
       <c r="J166" t="str">
-        <v>12943.96</v>
+        <v>655.39</v>
       </c>
       <c r="K166" t="str">
-        <v>ML</v>
+        <v>G</v>
       </c>
       <c r="L166" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -6705,37 +6705,37 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>PO202108251334409612</v>
+        <v>PO202206081050070715</v>
       </c>
       <c r="B167" t="str">
-        <v>孟一真</v>
+        <v>孙楷越</v>
       </c>
       <c r="C167" t="str">
-        <v>RG00904-卢英华</v>
+        <v>RG01729-张博</v>
       </c>
       <c r="D167" t="str">
-        <v>胆碱氧化酶 来源于节杆菌 属CHOLINE OXIDASE FROM ARTHROBACTER SP.</v>
+        <v>2-丙烯酸-(2-羟基-1,3-亚丙基)二氧基(2-羟基-3,1-亚丙基)酯GLYCEROL 1,3-DIGLYCEROLATE DIACRYLATE, &amp;</v>
       </c>
       <c r="E167" t="str">
-        <v>TM210906-0150</v>
+        <v>TM220713-0535</v>
       </c>
       <c r="F167" t="str">
-        <v>SAE0044-100UN</v>
+        <v>475807-100ML</v>
       </c>
       <c r="G167" t="str">
-        <v>100.000MG</v>
+        <v>192.900G</v>
       </c>
       <c r="H167" t="str">
-        <v>673.24</v>
+        <v>445.30</v>
       </c>
       <c r="I167" t="str">
         <v>1.00</v>
       </c>
       <c r="J167" t="str">
-        <v>673.24</v>
+        <v>445.30</v>
       </c>
       <c r="K167" t="str">
-        <v>100</v>
+        <v>ML</v>
       </c>
       <c r="L167" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -6743,37 +6743,37 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>PO202108302107150524</v>
+        <v>PO202206131950328415</v>
       </c>
       <c r="B168" t="str">
-        <v>尚菲</v>
+        <v>曹汉宸</v>
       </c>
       <c r="C168" t="str">
-        <v>RG00717-韩爱东</v>
+        <v>RG01729-张博</v>
       </c>
       <c r="D168" t="str">
-        <v>2-甲基-2,4-戊二醇HEXYLENE GLYCOL, PURISS., =99.0% (GC)</v>
+        <v>HPLC 肽标准品混合物HPLC PEPTIDE STANDARD MIXTURE</v>
       </c>
       <c r="E168" t="str">
-        <v>TM210908-0215</v>
+        <v>TM220713-0534</v>
       </c>
       <c r="F168" t="str">
-        <v>68340-100ML</v>
+        <v>H2016-1VL</v>
       </c>
       <c r="G168" t="str">
-        <v>92.100G</v>
+        <v>6.000G</v>
       </c>
       <c r="H168" t="str">
-        <v>273.09</v>
+        <v>374.44</v>
       </c>
       <c r="I168" t="str">
         <v>1.00</v>
       </c>
       <c r="J168" t="str">
-        <v>273.09</v>
+        <v>374.44</v>
       </c>
       <c r="K168" t="str">
-        <v>ML</v>
+        <v>EA</v>
       </c>
       <c r="L168" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -6781,37 +6781,37 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>PO202109041857539215</v>
+        <v>PO202206171113194019</v>
       </c>
       <c r="B169" t="str">
-        <v>吴梦苑</v>
+        <v>郭宁</v>
       </c>
       <c r="C169" t="str">
-        <v>RG00797-王勤</v>
+        <v>RG01087-王海滨</v>
       </c>
       <c r="D169" t="str">
-        <v>丁基羟基茴香醚BUTYLATED HYDROXYANISOLE, =98.5%</v>
+        <v>TWEEN(R) 20 POLYOXYETHYLENESORBITAN MON</v>
       </c>
       <c r="E169" t="str">
-        <v>TM210923-0109</v>
+        <v>TM220705-0203</v>
       </c>
       <c r="F169" t="str">
-        <v>B1253-5G</v>
+        <v>P1379-1L</v>
       </c>
       <c r="G169" t="str">
-        <v>5.000G</v>
+        <v>1.100KG</v>
       </c>
       <c r="H169" t="str">
-        <v>275.30</v>
+        <v>856.77</v>
       </c>
       <c r="I169" t="str">
         <v>1.00</v>
       </c>
       <c r="J169" t="str">
-        <v>275.30</v>
+        <v>856.77</v>
       </c>
       <c r="K169" t="str">
-        <v>G</v>
+        <v>L</v>
       </c>
       <c r="L169" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -6819,7 +6819,7 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>PO202109061710214010</v>
+        <v>PO202206081550084011</v>
       </c>
       <c r="B170" t="str">
         <v>黄香菇</v>
@@ -6828,28 +6828,28 @@
         <v>RG00901-夏宁邵</v>
       </c>
       <c r="D170" t="str">
-        <v>多聚-L-赖氨酸 溶液POLY-L-LYSINE SOLUTION, 0.01%, STERILE-&amp;amp;</v>
+        <v>DNase I酶DNase I</v>
       </c>
       <c r="E170" t="str">
-        <v>TM210906-0420</v>
+        <v>TM220620-0417</v>
       </c>
       <c r="F170" t="str">
-        <v>P4707-50ML</v>
+        <v>11284932001</v>
       </c>
       <c r="G170" t="str">
-        <v>0.500G</v>
+        <v>100mg</v>
       </c>
       <c r="H170" t="str">
-        <v>895.50</v>
+        <v>1638.61</v>
       </c>
       <c r="I170" t="str">
-        <v>2.00</v>
+        <v>5.00</v>
       </c>
       <c r="J170" t="str">
-        <v>1791.00</v>
+        <v>8193.05</v>
       </c>
       <c r="K170" t="str">
-        <v>ML</v>
+        <v>EA</v>
       </c>
       <c r="L170" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -6857,37 +6857,37 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>PO202109061710214010</v>
+        <v>PO202206081550340114</v>
       </c>
       <c r="B171" t="str">
-        <v>黄香菇</v>
+        <v>魏坤</v>
       </c>
       <c r="C171" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG01902-张金宝</v>
       </c>
       <c r="D171" t="str">
-        <v>牛血清白蛋白 来源于牛血清BOVINE SERUM ALBUMIN, CHROMATOGRAPHIC&amp;amp;</v>
+        <v>N,N-二甲基甲酰胺N,N-DIMETHYLFORMAMIDE, ANHYDROUS, 99.8%</v>
       </c>
       <c r="E171" t="str">
-        <v>TM210910-0061</v>
+        <v>TM220619-0041</v>
       </c>
       <c r="F171" t="str">
-        <v>A1933-100G</v>
+        <v>227056-1L</v>
       </c>
       <c r="G171" t="str">
-        <v>100.000G</v>
+        <v>0.944KG</v>
       </c>
       <c r="H171" t="str">
-        <v>4275.66</v>
+        <v>1202.24</v>
       </c>
       <c r="I171" t="str">
         <v>1.00</v>
       </c>
       <c r="J171" t="str">
-        <v>4275.66</v>
+        <v>1202.24</v>
       </c>
       <c r="K171" t="str">
-        <v>G</v>
+        <v>L</v>
       </c>
       <c r="L171" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -6895,7 +6895,7 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>PO202109061710214010</v>
+        <v>PO202205171244564010</v>
       </c>
       <c r="B172" t="str">
         <v>黄香菇</v>
@@ -6904,25 +6904,25 @@
         <v>RG00901-夏宁邵</v>
       </c>
       <c r="D172" t="str">
-        <v>单克隆抗-FLAG? M2 小鼠抗MONOCLONAL ANTI-FLAG(R) M2, ANTIBODY PR&amp;amp;</v>
+        <v>MPLA (PHAD (R))</v>
       </c>
       <c r="E172" t="str">
-        <v>TM210910-0061</v>
+        <v>TM220620-0393</v>
       </c>
       <c r="F172" t="str">
-        <v>F3165-1MG</v>
+        <v>699800P-1MG</v>
       </c>
       <c r="G172" t="str">
         <v>1.000MG</v>
       </c>
       <c r="H172" t="str">
-        <v>8803.13</v>
+        <v>1703.03</v>
       </c>
       <c r="I172" t="str">
-        <v>1.00</v>
+        <v>2.00</v>
       </c>
       <c r="J172" t="str">
-        <v>8803.13</v>
+        <v>3406.06</v>
       </c>
       <c r="K172" t="str">
         <v>MG</v>
@@ -6933,37 +6933,37 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>PO202109071943034914</v>
+        <v>PO202204201709004020</v>
       </c>
       <c r="B173" t="str">
-        <v>许韧</v>
+        <v>黄香菇</v>
       </c>
       <c r="C173" t="str">
-        <v>RG01089-许韧</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D173" t="str">
-        <v>DNase I recombinant, RNase-free酶DNase I recombinant, RNase-free</v>
+        <v>硫胺素焦磷酸THIAMINE PYROPHOSPHATE, =95%</v>
       </c>
       <c r="E173" t="str">
-        <v>TM210923-0133</v>
+        <v>TM220620-0303</v>
       </c>
       <c r="F173" t="str">
-        <v>4716728001</v>
+        <v>C8754-1G</v>
       </c>
       <c r="G173" t="str">
-        <v>1EA</v>
+        <v>1.000G</v>
       </c>
       <c r="H173" t="str">
-        <v>2502.60</v>
+        <v>233.54</v>
       </c>
       <c r="I173" t="str">
         <v>1.00</v>
       </c>
       <c r="J173" t="str">
-        <v>2502.60</v>
+        <v>233.54</v>
       </c>
       <c r="K173" t="str">
-        <v>EA</v>
+        <v>G</v>
       </c>
       <c r="L173" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -6971,34 +6971,34 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>PO202109081536171113</v>
+        <v>PO202204201709004020</v>
       </c>
       <c r="B174" t="str">
-        <v>陈思昊</v>
+        <v>黄香菇</v>
       </c>
       <c r="C174" t="str">
-        <v>RG01274-谢素原</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D174" t="str">
-        <v>4-叔丁基吡啶4-TERT-BUTYLPYRIDINE, 98%</v>
+        <v>硫胺素焦磷酸THIAMINE PYROPHOSPHATE, =95%</v>
       </c>
       <c r="E174" t="str">
-        <v>TM210923-0144</v>
+        <v>TM220620-0304</v>
       </c>
       <c r="F174" t="str">
-        <v>142379-25G</v>
+        <v>C8754-1G</v>
       </c>
       <c r="G174" t="str">
-        <v>25.000G</v>
+        <v>1.000G</v>
       </c>
       <c r="H174" t="str">
-        <v>1324.24</v>
+        <v>233.54</v>
       </c>
       <c r="I174" t="str">
         <v>1.00</v>
       </c>
       <c r="J174" t="str">
-        <v>1324.24</v>
+        <v>233.54</v>
       </c>
       <c r="K174" t="str">
         <v>G</v>
@@ -7009,34 +7009,34 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>PO202109090919239518</v>
+        <v>PO202204201709004020</v>
       </c>
       <c r="B175" t="str">
-        <v>宋智佳</v>
+        <v>黄香菇</v>
       </c>
       <c r="C175" t="str">
-        <v>RG01253-谢兆雄</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D175" t="str">
-        <v>三聚氰酸CYANURIC ACID, 98%</v>
+        <v>硫胺素焦磷酸THIAMINE PYROPHOSPHATE, =95%</v>
       </c>
       <c r="E175" t="str">
-        <v>TM210923-0142</v>
+        <v>TM220620-0301</v>
       </c>
       <c r="F175" t="str">
-        <v>185809-100G</v>
+        <v>C8754-1G</v>
       </c>
       <c r="G175" t="str">
-        <v>100.000G</v>
+        <v>1.000G</v>
       </c>
       <c r="H175" t="str">
-        <v>336.92</v>
+        <v>233.54</v>
       </c>
       <c r="I175" t="str">
         <v>1.00</v>
       </c>
       <c r="J175" t="str">
-        <v>336.92</v>
+        <v>233.54</v>
       </c>
       <c r="K175" t="str">
         <v>G</v>
@@ -7047,37 +7047,37 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>PO202108201148448310</v>
+        <v>PO202206271628494014</v>
       </c>
       <c r="B176" t="str">
-        <v>汪孟恒</v>
+        <v>黄香菇</v>
       </c>
       <c r="C176" t="str">
-        <v>RG00869-王野</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D176" t="str">
-        <v>原硅酸四乙酯TETRAETHYL ORTHOSILICATE, REAGENT GRADE&amp;amp;</v>
+        <v>DNase I酶DNase I</v>
       </c>
       <c r="E176" t="str">
-        <v>TM210827-0143</v>
+        <v>TM220704-0376</v>
       </c>
       <c r="F176" t="str">
-        <v>131903-500ML</v>
+        <v>11284932001</v>
       </c>
       <c r="G176" t="str">
-        <v>467.000G</v>
+        <v>100mg</v>
       </c>
       <c r="H176" t="str">
-        <v>568.61</v>
+        <v>1638.61</v>
       </c>
       <c r="I176" t="str">
-        <v>1.00</v>
+        <v>2.00</v>
       </c>
       <c r="J176" t="str">
-        <v>568.61</v>
+        <v>3277.22</v>
       </c>
       <c r="K176" t="str">
-        <v>ML</v>
+        <v>EA</v>
       </c>
       <c r="L176" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -7085,37 +7085,37 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>PO202108311427080511</v>
+        <v>PO202206271628494014</v>
       </c>
       <c r="B177" t="str">
-        <v>林燕玲</v>
+        <v>黄香菇</v>
       </c>
       <c r="C177" t="str">
-        <v>RG00717-韩爱东</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D177" t="str">
-        <v>辅酶 A 钠盐 水合物COENZYME A SODIUM SALT HYDRATE</v>
+        <v>明胶 来源于冷水鱼类的皮肤GELATIN FROM COLD WATER FISH SKIN</v>
       </c>
       <c r="E177" t="str">
-        <v>TM210908-0217</v>
+        <v>TM220704-0375</v>
       </c>
       <c r="F177" t="str">
-        <v>C3144-25MG</v>
+        <v>G7765-1L</v>
       </c>
       <c r="G177" t="str">
-        <v>25.000MG</v>
+        <v>1.000KG</v>
       </c>
       <c r="H177" t="str">
-        <v>861.91</v>
+        <v>1555.04</v>
       </c>
       <c r="I177" t="str">
-        <v>1.00</v>
+        <v>3.00</v>
       </c>
       <c r="J177" t="str">
-        <v>861.91</v>
+        <v>4665.12</v>
       </c>
       <c r="K177" t="str">
-        <v>MG</v>
+        <v>L</v>
       </c>
       <c r="L177" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -7123,37 +7123,37 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>PO202109100914135717</v>
+        <v>PO202206271628494014</v>
       </c>
       <c r="B178" t="str">
-        <v>吴亚林</v>
+        <v>黄香菇</v>
       </c>
       <c r="C178" t="str">
-        <v>RG01097-吴亚林</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D178" t="str">
-        <v>沙鲁胺SALUBRINAL</v>
+        <v>L -赖氨酸L-LYSINE, = 98% (TLC)</v>
       </c>
       <c r="E178" t="str">
-        <v>TM210923-0136</v>
+        <v>TM220704-0382</v>
       </c>
       <c r="F178" t="str">
-        <v>SML0951-25MG</v>
+        <v>L5501-25G</v>
       </c>
       <c r="G178" t="str">
-        <v>25.000MG</v>
+        <v>25.000G</v>
       </c>
       <c r="H178" t="str">
-        <v>3896.02</v>
+        <v>1085.86</v>
       </c>
       <c r="I178" t="str">
         <v>1.00</v>
       </c>
       <c r="J178" t="str">
-        <v>3896.02</v>
+        <v>1085.86</v>
       </c>
       <c r="K178" t="str">
-        <v>MG</v>
+        <v>G</v>
       </c>
       <c r="L178" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -7161,37 +7161,37 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>PO202108312117050715</v>
+        <v>PO202206091953186715</v>
       </c>
       <c r="B179" t="str">
-        <v>苏丽云</v>
+        <v>王义权</v>
       </c>
       <c r="C179" t="str">
-        <v>RG01436-颜晓梅</v>
+        <v>RG02572-王义权</v>
       </c>
       <c r="D179" t="str">
-        <v>白桦脂酸BETULINIC ACID</v>
+        <v>Anti-Digoxigenin-POD, Fab fragments抗体HIDEAnti-/HIDEDigoxigenin-POD, Fab fragments</v>
       </c>
       <c r="E179" t="str">
-        <v>TM210923-0155</v>
+        <v>TM220617-0326</v>
       </c>
       <c r="F179" t="str">
-        <v>B8936-25MG</v>
+        <v>11207733910</v>
       </c>
       <c r="G179" t="str">
-        <v>25.000MG</v>
+        <v>1EA</v>
       </c>
       <c r="H179" t="str">
-        <v>1193.07</v>
+        <v>3273.92</v>
       </c>
       <c r="I179" t="str">
         <v>1.00</v>
       </c>
       <c r="J179" t="str">
-        <v>1193.07</v>
+        <v>3273.92</v>
       </c>
       <c r="K179" t="str">
-        <v>MG</v>
+        <v>EA</v>
       </c>
       <c r="L179" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -7199,37 +7199,37 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>PO202109161728087117</v>
+        <v>PO202206281425179818</v>
       </c>
       <c r="B180" t="str">
-        <v>陈荣河</v>
+        <v>张丽</v>
       </c>
       <c r="C180" t="str">
-        <v>RG02107-陈荣河</v>
+        <v>RG01186-郑启凡</v>
       </c>
       <c r="D180" t="str">
-        <v>β- D -葡聚糖 来源于大麦BETA-D-GLUCAN FROM BARLEY, &gt;=95% (HPLC)</v>
+        <v>固绿 FCFFAST GREEN FCF</v>
       </c>
       <c r="E180" t="str">
-        <v>TM210922-0323</v>
+        <v>TM220714-0372</v>
       </c>
       <c r="F180" t="str">
-        <v>G6513-500MG</v>
+        <v>F7252-5G</v>
       </c>
       <c r="G180" t="str">
-        <v>500.000MG</v>
+        <v>5.000G</v>
       </c>
       <c r="H180" t="str">
-        <v>2695.15</v>
+        <v>316.07</v>
       </c>
       <c r="I180" t="str">
         <v>1.00</v>
       </c>
       <c r="J180" t="str">
-        <v>2695.15</v>
+        <v>316.07</v>
       </c>
       <c r="K180" t="str">
-        <v>MG</v>
+        <v>G</v>
       </c>
       <c r="L180" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -7237,37 +7237,37 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>PO202109131539574718</v>
+        <v>PO202206281425179818</v>
       </c>
       <c r="B181" t="str">
-        <v>宗荣荣</v>
+        <v>张丽</v>
       </c>
       <c r="C181" t="str">
-        <v>RG01114-刘祖国</v>
+        <v>RG01186-郑启凡</v>
       </c>
       <c r="D181" t="str">
-        <v>层粘连蛋白 来源于 Engelbreth-Holm-Swarm 小鼠肉瘤基底膜LAMININ FROM ENGELBRETH-HOLM-SWARM MURIN</v>
+        <v>直接红(零售包装)DIRECT RED 80</v>
       </c>
       <c r="E181" t="str">
-        <v>TM210923-0140</v>
+        <v>TM220714-0372</v>
       </c>
       <c r="F181" t="str">
-        <v>L2020-1MG</v>
+        <v>365548-5G</v>
       </c>
       <c r="G181" t="str">
-        <v>1.000MG</v>
+        <v>5.000G</v>
       </c>
       <c r="H181" t="str">
-        <v>1152.30</v>
+        <v>348.53</v>
       </c>
       <c r="I181" t="str">
         <v>1.00</v>
       </c>
       <c r="J181" t="str">
-        <v>1152.30</v>
+        <v>348.53</v>
       </c>
       <c r="K181" t="str">
-        <v>MG</v>
+        <v>G</v>
       </c>
       <c r="L181" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -7275,34 +7275,34 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>PO202109061710214010</v>
+        <v>PO202206291530067916</v>
       </c>
       <c r="B182" t="str">
-        <v>黄香菇</v>
+        <v>郭嘉宇</v>
       </c>
       <c r="C182" t="str">
-        <v>RG00901-夏宁邵</v>
+        <v>RG00944-黄邦钦</v>
       </c>
       <c r="D182" t="str">
-        <v>抗-FLAG? M2亲和凝胶ANTI-FLAG M2 AFFINITY GEL</v>
+        <v>LATEX BEADS, POLYSTYRENE CARBOXYLATE MOD</v>
       </c>
       <c r="E182" t="str">
-        <v>TM210910-0061</v>
+        <v>TM220716-0039</v>
       </c>
       <c r="F182" t="str">
-        <v>A2220-1ML</v>
+        <v>L5530-1ML</v>
       </c>
       <c r="G182" t="str">
         <v>1.000G</v>
       </c>
       <c r="H182" t="str">
-        <v>5486.72</v>
+        <v>496.15</v>
       </c>
       <c r="I182" t="str">
         <v>1.00</v>
       </c>
       <c r="J182" t="str">
-        <v>5486.72</v>
+        <v>496.15</v>
       </c>
       <c r="K182" t="str">
         <v>ML</v>
@@ -7313,37 +7313,37 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>PO202109061453034717</v>
+        <v>PO202206291530067916</v>
       </c>
       <c r="B183" t="str">
-        <v>宗荣荣</v>
+        <v>郭嘉宇</v>
       </c>
       <c r="C183" t="str">
-        <v>RG01114-刘祖国</v>
+        <v>RG00944-黄邦钦</v>
       </c>
       <c r="D183" t="str">
-        <v>PGE1</v>
+        <v>乳胶珠,羧酸盐改性聚苯乙烯,荧光红LATEX BEADS, POLYSTYRENE CARBOXYLATE MOD</v>
       </c>
       <c r="E183" t="str">
-        <v>TM210923-0139</v>
+        <v>TM220716-0039</v>
       </c>
       <c r="F183" t="str">
-        <v>900100P-1MG</v>
+        <v>L3280-1ML</v>
       </c>
       <c r="G183" t="str">
-        <v>1.000MG</v>
+        <v>1.000G</v>
       </c>
       <c r="H183" t="str">
-        <v>395.16</v>
+        <v>496.15</v>
       </c>
       <c r="I183" t="str">
         <v>1.00</v>
       </c>
       <c r="J183" t="str">
-        <v>395.16</v>
+        <v>496.15</v>
       </c>
       <c r="K183" t="str">
-        <v>MG</v>
+        <v>ML</v>
       </c>
       <c r="L183" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -7351,34 +7351,34 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>PO202109141142421415</v>
+        <v>PO202206301542478526</v>
       </c>
       <c r="B184" t="str">
-        <v>林姗姗</v>
+        <v>乔同新</v>
       </c>
       <c r="C184" t="str">
-        <v>RG00933-李骁麟</v>
+        <v>RG02475-王宏涛</v>
       </c>
       <c r="D184" t="str">
-        <v>甲酸FORMIC ACID, REAGENT GRADE, = 95%</v>
+        <v>聚（乙二醇）- 嵌段 - 聚（丙二醇）- 嵌段 - 聚（乙二醇）POLY(ETHYLENE GLYCOL)-B-POLY(PROPYLENE &amp;</v>
       </c>
       <c r="E184" t="str">
-        <v>TM210923-0119</v>
+        <v>TM220713-0495</v>
       </c>
       <c r="F184" t="str">
-        <v>F0507-100ML</v>
+        <v>435465-250ML</v>
       </c>
       <c r="G184" t="str">
-        <v>122.000G</v>
+        <v>254.500G</v>
       </c>
       <c r="H184" t="str">
-        <v>404.80</v>
+        <v>629.20</v>
       </c>
       <c r="I184" t="str">
         <v>1.00</v>
       </c>
       <c r="J184" t="str">
-        <v>404.80</v>
+        <v>629.20</v>
       </c>
       <c r="K184" t="str">
         <v>ML</v>
@@ -7389,37 +7389,37 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>PO202109101714077119</v>
+        <v>PO202206081550084011</v>
       </c>
       <c r="B185" t="str">
-        <v>韩昱</v>
+        <v>黄香菇</v>
       </c>
       <c r="C185" t="str">
-        <v>RG01484-汤凯</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D185" t="str">
-        <v>Tris-EDTA 缓冲液TRIS EDTA BUFFER SOLUTION, BIOULTRA, FOR</v>
+        <v>聚(乙二醇)甲醚-嵌段-聚(丙交酯-co-乙交酯)POLY(ETHYLENE GLYCOL) METHYL ETHER-BLOC&amp;</v>
       </c>
       <c r="E185" t="str">
-        <v>TM210923-0159</v>
+        <v>TM220704-0380</v>
       </c>
       <c r="F185" t="str">
-        <v>93283-100ML</v>
+        <v>900949-1G</v>
       </c>
       <c r="G185" t="str">
-        <v>100.000G</v>
+        <v>1.000G</v>
       </c>
       <c r="H185" t="str">
-        <v>182.81</v>
+        <v>2034.03</v>
       </c>
       <c r="I185" t="str">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="J185" t="str">
-        <v>365.62</v>
+        <v>2034.03</v>
       </c>
       <c r="K185" t="str">
-        <v>ML</v>
+        <v>G</v>
       </c>
       <c r="L185" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -7427,37 +7427,37 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>PO202109150915561415</v>
+        <v>PO202206301253017119</v>
       </c>
       <c r="B186" t="str">
-        <v>林姗姗</v>
+        <v>陈荣河</v>
       </c>
       <c r="C186" t="str">
-        <v>RG00933-李骁麟</v>
+        <v>RG02107-陈荣河</v>
       </c>
       <c r="D186" t="str">
-        <v>磺胺喹噁啉SULFAQUINOXALINE PESTANAL (4-AMINO-N-2-&amp;amp;</v>
+        <v>Corning? UV-透明微孔板CORNING(R) UV 96 WELL PLATES</v>
       </c>
       <c r="E186" t="str">
-        <v>TM210923-0121</v>
+        <v>TM220713-0507</v>
       </c>
       <c r="F186" t="str">
-        <v>45662-250MG</v>
+        <v>CLS3635-50EA</v>
       </c>
       <c r="G186" t="str">
-        <v>250.000MG</v>
+        <v>50.000G</v>
       </c>
       <c r="H186" t="str">
-        <v>684.16</v>
+        <v>3315.34</v>
       </c>
       <c r="I186" t="str">
         <v>1.00</v>
       </c>
       <c r="J186" t="str">
-        <v>684.16</v>
+        <v>3315.34</v>
       </c>
       <c r="K186" t="str">
-        <v>MG</v>
+        <v>EA</v>
       </c>
       <c r="L186" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -7465,37 +7465,37 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>PO202109150957571627</v>
+        <v>PO202206301239392816</v>
       </c>
       <c r="B187" t="str">
-        <v>庞奇圣</v>
+        <v>张凌娟</v>
       </c>
       <c r="C187" t="str">
-        <v>RG01436-颜晓梅</v>
+        <v>RG00849-张凌娟</v>
       </c>
       <c r="D187" t="str">
-        <v>二甲基亚砜DIMETHYL SULFOXIDE, FOR MOLECULAR BIOL&amp;</v>
+        <v>吲哚美辛INDOMETHACIN CRYSTALLINE</v>
       </c>
       <c r="E187" t="str">
-        <v>TM210918-0077</v>
+        <v>TM220714-0289</v>
       </c>
       <c r="F187" t="str">
-        <v>D8418-50ML</v>
+        <v>I7378-5G</v>
       </c>
       <c r="G187" t="str">
-        <v>55.000G</v>
+        <v>5.000G</v>
       </c>
       <c r="H187" t="str">
-        <v>457.76</v>
+        <v>581.95</v>
       </c>
       <c r="I187" t="str">
         <v>1.00</v>
       </c>
       <c r="J187" t="str">
-        <v>457.76</v>
+        <v>581.95</v>
       </c>
       <c r="K187" t="str">
-        <v>ML</v>
+        <v>G</v>
       </c>
       <c r="L187" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -7503,37 +7503,37 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>PO202108271601182813</v>
+        <v>PO202206161602298812</v>
       </c>
       <c r="B188" t="str">
-        <v>林雅滢</v>
+        <v>陈文凯</v>
       </c>
       <c r="C188" t="str">
-        <v>RG00780-林泓域</v>
+        <v>RG02436-吉光荣</v>
       </c>
       <c r="D188" t="str">
-        <v>顺铂CIS-PLATINUM(II)DIAMMINE DICHLORIDE</v>
+        <v>配备标准活塞和固定针头的 SGE 微量注射器SYRINGE SGE 50UL FN PT 2</v>
       </c>
       <c r="E188" t="str">
-        <v>TM210908-0225</v>
+        <v>TM220623-0237</v>
       </c>
       <c r="F188" t="str">
-        <v>P4394-100MG</v>
+        <v>26249-U</v>
       </c>
       <c r="G188" t="str">
-        <v>100.000MG</v>
+        <v>25.000G</v>
       </c>
       <c r="H188" t="str">
-        <v>856.46</v>
+        <v>599.38</v>
       </c>
       <c r="I188" t="str">
         <v>1.00</v>
       </c>
       <c r="J188" t="str">
-        <v>856.46</v>
+        <v>599.38</v>
       </c>
       <c r="K188" t="str">
-        <v>MG</v>
+        <v>EA</v>
       </c>
       <c r="L188" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -7541,75 +7541,75 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>PO202109141142421415</v>
+        <v>PO202206200913094112</v>
       </c>
       <c r="B189" t="str">
-        <v>林姗姗</v>
+        <v>王倩</v>
       </c>
       <c r="C189" t="str">
-        <v>RG00933-李骁麟</v>
+        <v>RG00980-陈猛</v>
       </c>
       <c r="D189" t="str">
-        <v>灭多威METHOMYL PESTANAL.</v>
+        <v>SUPELCLEAN LC-18 SPE小柱 (含碳量10%),500mg/6mlSupelclean(TM) LC-18 SPE Tube</v>
       </c>
       <c r="E189" t="str">
-        <v>TM210923-0120</v>
+        <v>TM220705-0066</v>
       </c>
       <c r="F189" t="str">
-        <v>36159-100MG</v>
+        <v>57054</v>
       </c>
       <c r="G189" t="str">
-        <v>100.000MG</v>
+        <v>1EA</v>
       </c>
       <c r="H189" t="str">
-        <v>406.57</v>
+        <v>861.59</v>
       </c>
       <c r="I189" t="str">
-        <v>1.00</v>
+        <v>5.00</v>
       </c>
       <c r="J189" t="str">
-        <v>406.57</v>
+        <v>4307.95</v>
       </c>
       <c r="K189" t="str">
-        <v>MG</v>
+        <v>EA</v>
       </c>
       <c r="L189" t="str">
-        <v>现货一周内，期货咨询销售</v>
+        <v>与官网同步</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>PO202109151057390710</v>
+        <v>PO202207010952415813</v>
       </c>
       <c r="B190" t="str">
-        <v>苏丽云</v>
+        <v>张文青</v>
       </c>
       <c r="C190" t="str">
-        <v>RG01436-颜晓梅</v>
+        <v>RG01205-胡天惠</v>
       </c>
       <c r="D190" t="str">
-        <v>酯酶 来源于猪肝脏ESTERASE FROM PORCINE LIVER</v>
+        <v>单克隆抗-FLAG? M2 小鼠抗MONOCLONAL ANTI-FLAG(R) M2, ANTIBODY PR&amp;</v>
       </c>
       <c r="E190" t="str">
-        <v>TM210923-0158</v>
+        <v>TM220714-0374</v>
       </c>
       <c r="F190" t="str">
-        <v>E2884-1KU</v>
+        <v>F3165-1MG</v>
       </c>
       <c r="G190" t="str">
-        <v>6.667MG</v>
+        <v>1.000MG</v>
       </c>
       <c r="H190" t="str">
-        <v>556.02</v>
+        <v>8817.39</v>
       </c>
       <c r="I190" t="str">
         <v>1.00</v>
       </c>
       <c r="J190" t="str">
-        <v>556.02</v>
+        <v>8817.39</v>
       </c>
       <c r="K190" t="str">
-        <v>UNITS</v>
+        <v>MG</v>
       </c>
       <c r="L190" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -7617,37 +7617,37 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>PO202109141556269416</v>
+        <v>PO202206151530556816</v>
       </c>
       <c r="B191" t="str">
-        <v>林智勇</v>
+        <v>李箫</v>
       </c>
       <c r="C191" t="str">
-        <v>RG00913-王克坚</v>
+        <v>RG00763-李博安</v>
       </c>
       <c r="D191" t="str">
-        <v>二甲基亚砜DIMETHYL SULFOXIDE HYBRI-MAX STERILE</v>
+        <v>木瓜蛋白酶 来源于番木瓜PAPAIN FROM FROM CARICA PAPAYA SOLUTION&amp;</v>
       </c>
       <c r="E191" t="str">
-        <v>TM210923-0117</v>
+        <v>TM220704-0539</v>
       </c>
       <c r="F191" t="str">
-        <v>D2650-5X5ML</v>
+        <v>76216-50MG</v>
       </c>
       <c r="G191" t="str">
-        <v>10.500G</v>
+        <v>50.000MG</v>
       </c>
       <c r="H191" t="str">
-        <v>481.95</v>
+        <v>648.09</v>
       </c>
       <c r="I191" t="str">
         <v>1.00</v>
       </c>
       <c r="J191" t="str">
-        <v>481.95</v>
+        <v>648.09</v>
       </c>
       <c r="K191" t="str">
-        <v>X</v>
+        <v>MG</v>
       </c>
       <c r="L191" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -7655,37 +7655,37 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>PO202109231535160384</v>
+        <v>PO202206221723154710</v>
       </c>
       <c r="B192" t="str">
-        <v>李一凡</v>
+        <v>宗荣荣</v>
       </c>
       <c r="C192" t="str">
-        <v>RG01013-纪志梁</v>
+        <v>RG01114-刘祖国</v>
       </c>
       <c r="D192" t="str">
-        <v>ANTI-KPNB1</v>
+        <v>N-甲基- D -天冬氨酸N-METHYL-D-ASPARTIC ACID</v>
       </c>
       <c r="E192" t="str">
-        <v>TM210924-0001</v>
+        <v>TM220714-0366</v>
       </c>
       <c r="F192" t="str">
-        <v>HPA029878-100UL</v>
+        <v>M3262-25MG</v>
       </c>
       <c r="G192" t="str">
-        <v>100.000MG</v>
+        <v>25.000MG</v>
       </c>
       <c r="H192" t="str">
-        <v>3981.49</v>
+        <v>439.09</v>
       </c>
       <c r="I192" t="str">
         <v>1.00</v>
       </c>
       <c r="J192" t="str">
-        <v>3981.49</v>
+        <v>439.09</v>
       </c>
       <c r="K192" t="str">
-        <v>μL</v>
+        <v>MG</v>
       </c>
       <c r="L192" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -7693,72 +7693,72 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>PO202109231535160384</v>
+        <v>PO202207021542193510</v>
       </c>
       <c r="B193" t="str">
-        <v>李一凡</v>
+        <v>李凌</v>
       </c>
       <c r="C193" t="str">
-        <v>RG01013-纪志梁</v>
+        <v>海洋生态基因组林森杰</v>
       </c>
       <c r="D193" t="str">
-        <v>Monoclonal Anti-Importin 4 antibody produced in rat</v>
+        <v>TRI试剂?TRI REAGENT</v>
       </c>
       <c r="E193" t="str">
-        <v>TM210924-0001</v>
+        <v>TM220713-0147</v>
       </c>
       <c r="F193" t="str">
-        <v>SAB4200192-25UL</v>
+        <v>T9424-100ML</v>
       </c>
       <c r="G193" t="str">
-        <v>25UL</v>
+        <v>108.600G</v>
       </c>
       <c r="H193" t="str">
-        <v>655.28</v>
+        <v>863.60</v>
       </c>
       <c r="I193" t="str">
-        <v>1.00</v>
+        <v>3.00</v>
       </c>
       <c r="J193" t="str">
-        <v>655.28</v>
+        <v>2590.80</v>
       </c>
       <c r="K193" t="str">
-        <v>瓶</v>
+        <v>ML</v>
       </c>
       <c r="L193" t="str">
-        <v/>
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>PO202108201524259411</v>
+        <v>PO202206271628494014</v>
       </c>
       <c r="B194" t="str">
-        <v>蒋莱</v>
+        <v>黄香菇</v>
       </c>
       <c r="C194" t="str">
-        <v>RG00759-刘刚</v>
+        <v>RG00901-夏宁邵</v>
       </c>
       <c r="D194" t="str">
-        <v>聚乙烯醇POLY(VINYL ALCOHOL), 80% HYDROLYZD,   &amp;amp;</v>
+        <v>MES, LOW MOISTURE CONTENT</v>
       </c>
       <c r="E194" t="str">
-        <v>TM210903-0185</v>
+        <v>TM220704-0373</v>
       </c>
       <c r="F194" t="str">
-        <v>360627-25G</v>
+        <v>M3671-250G</v>
       </c>
       <c r="G194" t="str">
-        <v>25.000G</v>
+        <v>250.000G</v>
       </c>
       <c r="H194" t="str">
-        <v>464.40</v>
+        <v>3820.03</v>
       </c>
       <c r="I194" t="str">
         <v>1.00</v>
       </c>
       <c r="J194" t="str">
-        <v>464.40</v>
+        <v>3820.03</v>
       </c>
       <c r="K194" t="str">
         <v>G</v>
@@ -7769,37 +7769,37 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>PO202109061151387422</v>
+        <v>PO202206281011052810</v>
       </c>
       <c r="B195" t="str">
-        <v>廖杰明</v>
+        <v>张凌娟</v>
       </c>
       <c r="C195" t="str">
-        <v>RG01909-吕永龙</v>
+        <v>RG00849-张凌娟</v>
       </c>
       <c r="D195" t="str">
-        <v>氯化铵AMMONIUM CHLORIDE, ACS REAGENT, =99.5%</v>
+        <v>二甲基亚砜DIMETHYL SULFOXIDE HYBRI-MAX STERILE</v>
       </c>
       <c r="E195" t="str">
-        <v>TM210923-0165</v>
+        <v>TM220714-0288</v>
       </c>
       <c r="F195" t="str">
-        <v>213330-500G</v>
+        <v>D2650-100ML</v>
       </c>
       <c r="G195" t="str">
-        <v>500.000G</v>
+        <v>110.000G</v>
       </c>
       <c r="H195" t="str">
-        <v>499.12</v>
+        <v>2504.19</v>
       </c>
       <c r="I195" t="str">
-        <v>1.00</v>
+        <v>2.00</v>
       </c>
       <c r="J195" t="str">
-        <v>499.12</v>
+        <v>5008.38</v>
       </c>
       <c r="K195" t="str">
-        <v>G</v>
+        <v>ML</v>
       </c>
       <c r="L195" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -7807,37 +7807,37 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>PO202109141142421415</v>
+        <v>PO202207060933072427</v>
       </c>
       <c r="B196" t="str">
-        <v>林姗姗</v>
+        <v>江焱娟</v>
       </c>
       <c r="C196" t="str">
-        <v>RG00933-李骁麟</v>
+        <v>RG01098-陈小芬</v>
       </c>
       <c r="D196" t="str">
-        <v>乙酸ACETIC ACIDGLACIAL, REAGENTPLUS , =99%</v>
+        <v>Dounce组织研磨套装DOUNCE TISSUE GRINDER SET 2 ML COMPLETE</v>
       </c>
       <c r="E196" t="str">
-        <v>TM210923-0119</v>
+        <v>TM220714-0355</v>
       </c>
       <c r="F196" t="str">
-        <v>A6283-100ML</v>
+        <v>D8938-1SET</v>
       </c>
       <c r="G196" t="str">
-        <v>104.900G</v>
+        <v>90.000G</v>
       </c>
       <c r="H196" t="str">
-        <v>288.70</v>
+        <v>1753.87</v>
       </c>
       <c r="I196" t="str">
-        <v>1.00</v>
+        <v>2.00</v>
       </c>
       <c r="J196" t="str">
-        <v>288.70</v>
+        <v>3507.74</v>
       </c>
       <c r="K196" t="str">
-        <v>ML</v>
+        <v>EA</v>
       </c>
       <c r="L196" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -7845,37 +7845,37 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>PO202109091044134919</v>
+        <v>PO202207010954269019</v>
       </c>
       <c r="B197" t="str">
-        <v>许韧</v>
+        <v>陆钊洪</v>
       </c>
       <c r="C197" t="str">
-        <v>RG01089-许韧</v>
+        <v>RG01955-陆钊洪</v>
       </c>
       <c r="D197" t="str">
-        <v>磷钨酸 水合物PHOSPHOTUNGSTIC ACID, REAGENT GRADE</v>
+        <v>(S)-(+)-2-(叔丁基)-3-甲基-4-咪唑烷酮三氟乙酸(S)-(+)-2-(TERT-BUTYL)-3-METHYL-4-IMIDA&amp;</v>
       </c>
       <c r="E197" t="str">
-        <v>TM210923-0135</v>
+        <v>TM220713-0523</v>
       </c>
       <c r="F197" t="str">
-        <v>P4006-25G</v>
+        <v>661902-500MG</v>
       </c>
       <c r="G197" t="str">
-        <v>25.000G</v>
+        <v>500.000MG</v>
       </c>
       <c r="H197" t="str">
-        <v>615.31</v>
+        <v>821.74</v>
       </c>
       <c r="I197" t="str">
         <v>1.00</v>
       </c>
       <c r="J197" t="str">
-        <v>615.31</v>
+        <v>821.74</v>
       </c>
       <c r="K197" t="str">
-        <v>G</v>
+        <v>MG</v>
       </c>
       <c r="L197" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -7883,37 +7883,37 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>PO202109130912230112</v>
+        <v>PO202207011544370212</v>
       </c>
       <c r="B198" t="str">
-        <v>王锦阳</v>
+        <v>王国良</v>
       </c>
       <c r="C198" t="str">
-        <v>RG00724-李勤喜</v>
+        <v>RG01833-王国良</v>
       </c>
       <c r="D198" t="str">
-        <v>过氧化物酶体分离试剂盒PEROXISOMES ISOLATION  KIT</v>
+        <v>泰莫西芬TAMOXIFEN FREE BASE</v>
       </c>
       <c r="E198" t="str">
-        <v>TM210923-0100</v>
+        <v>TM220705-0109</v>
       </c>
       <c r="F198" t="str">
-        <v>PEROX1-1KT</v>
+        <v>T5648-1G</v>
       </c>
       <c r="G198" t="str">
         <v>1.000G</v>
       </c>
       <c r="H198" t="str">
-        <v>5686.49</v>
+        <v>2608.67</v>
       </c>
       <c r="I198" t="str">
         <v>1.00</v>
       </c>
       <c r="J198" t="str">
-        <v>5686.49</v>
+        <v>2608.67</v>
       </c>
       <c r="K198" t="str">
-        <v>KIT</v>
+        <v>G</v>
       </c>
       <c r="L198" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -7921,37 +7921,37 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>PO202109060949559010</v>
+        <v>PO202207051753513011</v>
       </c>
       <c r="B199" t="str">
-        <v>林树海</v>
+        <v>吴丹丹</v>
       </c>
       <c r="C199" t="str">
-        <v>RG01217-林树海</v>
+        <v>RG00891-周虎</v>
       </c>
       <c r="D199" t="str">
-        <v>甲酸铵AMMONIUM FORMATE, REAGENT GRADE, 97%</v>
+        <v>蒽-9-甲醛ACRIDINE-9-CARBOXALDEHYDE, 97%</v>
       </c>
       <c r="E199" t="str">
-        <v>TM210923-0141</v>
+        <v>TM220714-0312</v>
       </c>
       <c r="F199" t="str">
-        <v>156264-100G</v>
+        <v>775525-250MG</v>
       </c>
       <c r="G199" t="str">
-        <v>100.000G</v>
+        <v>250.000MG</v>
       </c>
       <c r="H199" t="str">
-        <v>181.09</v>
+        <v>693.79</v>
       </c>
       <c r="I199" t="str">
         <v>1.00</v>
       </c>
       <c r="J199" t="str">
-        <v>181.09</v>
+        <v>693.79</v>
       </c>
       <c r="K199" t="str">
-        <v>G</v>
+        <v>MG</v>
       </c>
       <c r="L199" t="str">
         <v>现货一周内，期货咨询销售</v>
@@ -7959,40 +7959,78 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>PO202109151128381618</v>
+        <v>PO202207041003234513</v>
       </c>
       <c r="B200" t="str">
-        <v>庞奇圣</v>
+        <v>李良成</v>
       </c>
       <c r="C200" t="str">
-        <v>RG01436-颜晓梅</v>
+        <v>RG00906-李良成</v>
       </c>
       <c r="D200" t="str">
-        <v>荧光素异硫氰酸酯异构体I</v>
+        <v>泰莫西芬TAMOXIFEN FREE BASE</v>
       </c>
       <c r="E200" t="str">
-        <v>TM210918-0078</v>
+        <v>TM220711-0150</v>
       </c>
       <c r="F200" t="str">
-        <v>F7250-100MG</v>
+        <v>T5648-1G</v>
       </c>
       <c r="G200" t="str">
-        <v>100mg</v>
+        <v>1.000G</v>
       </c>
       <c r="H200" t="str">
-        <v>390.28</v>
+        <v>2357.23</v>
       </c>
       <c r="I200" t="str">
         <v>1.00</v>
       </c>
       <c r="J200" t="str">
-        <v>390.28</v>
+        <v>2357.23</v>
       </c>
       <c r="K200" t="str">
-        <v>瓶</v>
+        <v>G</v>
       </c>
       <c r="L200" t="str">
-        <v/>
+        <v>现货一周内，期货咨询销售</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>PO202207011048521014</v>
+      </c>
+      <c r="B201" t="str">
+        <v>王双敏</v>
+      </c>
+      <c r="C201" t="str">
+        <v>RG00811-靳全文</v>
+      </c>
+      <c r="D201" t="str">
+        <v>单克隆抗-FLAG? M2 小鼠抗MONOCLONAL ANTI-FLAG(R) M2, ANTIBODY PR&amp;</v>
+      </c>
+      <c r="E201" t="str">
+        <v>TM220704-0543</v>
+      </c>
+      <c r="F201" t="str">
+        <v>F1804-1MG</v>
+      </c>
+      <c r="G201" t="str">
+        <v>1.000MG</v>
+      </c>
+      <c r="H201" t="str">
+        <v>7997.86</v>
+      </c>
+      <c r="I201" t="str">
+        <v>1.00</v>
+      </c>
+      <c r="J201" t="str">
+        <v>7997.86</v>
+      </c>
+      <c r="K201" t="str">
+        <v>MG</v>
+      </c>
+      <c r="L201" t="str">
+        <v>现货一周内，期货咨询销售</v>
       </c>
     </row>
   </sheetData>
